--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK9"/>
+  <dimension ref="A1:BK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT3" t="n">
         <v>3</v>
@@ -2376,6 +2376,209 @@
       </c>
       <c r="BK9" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5845449</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45036.35763888889</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>12</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK10"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2579,6 +2579,1427 @@
       </c>
       <c r="BK10" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5845450</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45037.27083333334</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>['26', '29']</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>7</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5845451</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45037.27083333334</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>13</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5845452</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45037.35763888889</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>9</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V13" t="n">
+        <v>12</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5845453</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45037.35763888889</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5845454</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45037.35763888889</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>['21', '30']</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>9</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5845455</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45038.1875</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>['24', '56', '87']</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>['62', '84']</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>14</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V16" t="n">
+        <v>26</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5845456</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45038.35763888889</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['6', '79', '90+6']</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>['72', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -3787,13 +3787,13 @@
         <v>7</v>
       </c>
       <c r="BH16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI16" t="n">
         <v>4</v>
       </c>
       <c r="BJ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK16" t="n">
         <v>11</v>
@@ -3861,13 +3861,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T17" t="n">
         <v>2.4</v>
@@ -3984,22 +3984,22 @@
         <v>3.64</v>
       </c>
       <c r="BF17" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG17" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH17" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI17" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK17" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
         <v>0.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>1.22</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>0.5</v>
@@ -4000,6 +4000,615 @@
       </c>
       <c r="BK17" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5845457</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45041.35763888889</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['26', '64']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5845458</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45041.35763888889</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>['38', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>9</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5845459</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45041.35763888889</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>['10', '26', '46']</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>12</v>
+      </c>
+      <c r="S20" t="n">
+        <v>14</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK20"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
         <v>0.5</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -4599,16 +4599,1031 @@
         <v>7</v>
       </c>
       <c r="BH20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI20" t="n">
         <v>12</v>
       </c>
       <c r="BJ20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK20" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5845460</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45042.27083333334</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>14</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5845461</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45042.35763888889</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>8</v>
+      </c>
+      <c r="S22" t="n">
+        <v>9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V22" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5845462</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45042.35763888889</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5845463</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45042.35763888889</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>['12', '29']</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>9</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>12</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5845464</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45042.35763888889</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>6</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT20" t="n">
         <v>0.5</v>
@@ -5624,6 +5624,412 @@
       </c>
       <c r="BK25" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5845465</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45045.35763888889</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6</v>
+      </c>
+      <c r="S26" t="n">
+        <v>7</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5845466</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45045.35763888889</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['17', '41', '51']</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK27"/>
+  <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT21" t="n">
         <v>3</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU23" t="n">
         <v>1.2</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
         <v>0.62</v>
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6030,6 +6030,1021 @@
       </c>
       <c r="BK27" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5845467</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45046.1875</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>['24', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6</v>
+      </c>
+      <c r="S28" t="n">
+        <v>9</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5845468</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45046.1875</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5845469</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45046.27083333334</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>11</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>16</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5845471</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45046.35763888889</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>6</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5845470</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45046.35763888889</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>8</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>9</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK32"/>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT2" t="n">
         <v>0.67</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT23" t="n">
         <v>1.67</v>
@@ -7045,6 +7045,209 @@
       </c>
       <c r="BK32" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5845472</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45047.35763888889</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>7</v>
+      </c>
+      <c r="R33" t="n">
+        <v>8</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK33"/>
+  <dimension ref="A1:BK38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT3" t="n">
         <v>3</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT6" t="n">
         <v>1.67</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU10" t="n">
         <v>1.22</v>
@@ -2730,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU11" t="n">
         <v>1.76</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT14" t="n">
         <v>0.5</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU18" t="n">
         <v>2.82</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
@@ -4557,7 +4557,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>2</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU26" t="n">
         <v>1.83</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
         <v>0.5</v>
@@ -7248,6 +7248,1021 @@
       </c>
       <c r="BK33" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5845473</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45051.35763888889</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5845474</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45051.35763888889</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5845475</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45051.35763888889</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>8</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5845476</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45051.35763888889</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>8</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>13</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5845477</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45052.1875</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['58', '66']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>8</v>
+      </c>
+      <c r="S38" t="n">
+        <v>11</v>
+      </c>
+      <c r="T38" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK38"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT7" t="n">
         <v>1.33</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT11" t="n">
         <v>0.33</v>
@@ -3339,7 +3339,7 @@
         <v>0.67</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU14" t="n">
         <v>0.63</v>
@@ -4760,7 +4760,7 @@
         <v>0.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>0.9</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT25" t="n">
         <v>0.5</v>
@@ -7515,13 +7515,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R35" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S35" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T35" t="n">
         <v>2.11</v>
@@ -7638,22 +7638,22 @@
         <v>4.3</v>
       </c>
       <c r="BF35" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BG35" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH35" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BI35" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ35" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="BK35" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -8263,6 +8263,615 @@
       </c>
       <c r="BK38" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5845478</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45052.35763888889</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['1', '40', '50']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['61', '63']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>6</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V39" t="n">
+        <v>7</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5845479</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45052.35763888889</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>7</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6</v>
+      </c>
+      <c r="S40" t="n">
+        <v>13</v>
+      </c>
+      <c r="T40" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5845480</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45052.35763888889</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>9</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
         <v>0.67</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT6" t="n">
         <v>1.67</v>
@@ -1918,7 +1918,7 @@
         <v>1.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT9" t="n">
         <v>0.33</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT14" t="n">
         <v>0.33</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU19" t="n">
         <v>1.1</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT23" t="n">
         <v>1.67</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT24" t="n">
         <v>2</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU27" t="n">
         <v>0.92</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT30" t="n">
         <v>0.5</v>
@@ -6993,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU32" t="n">
         <v>1.62</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT34" t="n">
         <v>1.33</v>
@@ -7802,10 +7802,10 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU36" t="n">
         <v>1.06</v>
@@ -8872,6 +8872,615 @@
       </c>
       <c r="BK41" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5845481</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45055.35763888889</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="n">
+        <v>6</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5845482</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45055.35763888889</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>9</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5845483</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45055.35763888889</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['16', '57', '62']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>8</v>
+      </c>
+      <c r="T44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK44"/>
+  <dimension ref="A1:BK49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0.8</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.67</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>1.76</v>
@@ -3339,7 +3339,7 @@
         <v>0.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU14" t="n">
         <v>0.63</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT15" t="n">
         <v>1.25</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>2.82</v>
@@ -5369,7 +5369,7 @@
         <v>0.8</v>
       </c>
       <c r="AT24" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU24" t="n">
         <v>0.62</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>0.5</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU26" t="n">
         <v>1.83</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU29" t="n">
         <v>1.36</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT32" t="n">
         <v>2.33</v>
@@ -7196,7 +7196,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU33" t="n">
         <v>1.13</v>
@@ -8008,7 +8008,7 @@
         <v>0.67</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.33</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU38" t="n">
         <v>1.32</v>
@@ -8411,10 +8411,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU39" t="n">
         <v>1.33</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT41" t="n">
         <v>2</v>
@@ -9480,6 +9480,1021 @@
         <v>10</v>
       </c>
       <c r="BK44" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5845488</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45056.35763888889</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>6</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7</v>
+      </c>
+      <c r="S45" t="n">
+        <v>13</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>4</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5845487</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45056.35763888889</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['24', '57']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7</v>
+      </c>
+      <c r="S46" t="n">
+        <v>10</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5845485</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45056.35763888889</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['58', '66']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>10</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>12</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>7</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5845602</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45056.35763888889</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['53', '81']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['50', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>9</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>12</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5845486</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45056.35763888889</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['23', '44']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['12', '46', '58', '72']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>8</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK49" t="n">
         <v>14</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK49"/>
+  <dimension ref="A1:BK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT8" t="n">
         <v>0.5</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT9" t="n">
         <v>0.25</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>1.1</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT22" t="n">
         <v>2</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT24" t="n">
         <v>1.67</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU27" t="n">
         <v>0.92</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT30" t="n">
         <v>0.5</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT36" t="n">
         <v>1.25</v>
@@ -9023,7 +9023,7 @@
         <v>0.75</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU42" t="n">
         <v>0.98</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT44" t="n">
         <v>2.33</v>
@@ -9548,10 +9548,10 @@
         <v>6</v>
       </c>
       <c r="R45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T45" t="n">
         <v>2.88</v>
@@ -9751,10 +9751,10 @@
         <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T46" t="n">
         <v>3.75</v>
@@ -9954,10 +9954,10 @@
         <v>10</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T47" t="n">
         <v>1.83</v>
@@ -10496,6 +10496,412 @@
       </c>
       <c r="BK49" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5845489</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45059.1875</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5845490</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45059.35763888889</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['45+2', '90+2']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>4</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK51"/>
+  <dimension ref="A1:BK57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.25</v>
@@ -2121,7 +2121,7 @@
         <v>2.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>1.25</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>1.33</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU22" t="n">
         <v>0.9</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU26" t="n">
         <v>1.83</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
         <v>2</v>
@@ -6587,7 +6587,7 @@
         <v>1.17</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU30" t="n">
         <v>0.9399999999999999</v>
@@ -6787,10 +6787,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT31" t="n">
         <v>0.5</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>0.67</v>
       </c>
       <c r="AU31" t="n">
         <v>1.23</v>
@@ -7196,7 +7196,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>1.13</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU38" t="n">
         <v>1.32</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
         <v>0.25</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU40" t="n">
         <v>1.52</v>
@@ -8820,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="AT41" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU41" t="n">
         <v>1.68</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT45" t="n">
         <v>1.67</v>
@@ -10238,10 +10238,10 @@
         <v>0.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU48" t="n">
         <v>1.82</v>
@@ -10444,7 +10444,7 @@
         <v>1.33</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU49" t="n">
         <v>1.37</v>
@@ -10763,13 +10763,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S51" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T51" t="n">
         <v>4</v>
@@ -10886,22 +10886,1240 @@
         <v>3.42</v>
       </c>
       <c r="BF51" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG51" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH51" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI51" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BJ51" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK51" t="n">
-        <v>-1</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5845491</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45060.1875</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['65', '90+2']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>7</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>11</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5845492</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45060.27083333334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['3', '15']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['83', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>8</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>12</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5845493</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45060.35763888889</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['71', '89']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>8</v>
+      </c>
+      <c r="T54" t="n">
+        <v>5</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5845494</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45060.35763888889</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>8</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>12</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5845495</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45060.35763888889</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5845496</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45061.35763888889</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>8</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7</v>
+      </c>
+      <c r="S57" t="n">
+        <v>15</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V57" t="n">
+        <v>6</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK57"/>
+  <dimension ref="A1:BK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT7" t="n">
         <v>1.25</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU10" t="n">
         <v>1.22</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT12" t="n">
         <v>2.33</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT14" t="n">
         <v>0.25</v>
@@ -3745,7 +3745,7 @@
         <v>2.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT19" t="n">
         <v>2</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>0.9</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.2</v>
@@ -5775,7 +5775,7 @@
         <v>1.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU26" t="n">
         <v>1.83</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT27" t="n">
         <v>2</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU28" t="n">
         <v>1.28</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT31" t="n">
         <v>0.5</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU34" t="n">
         <v>0.89</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU38" t="n">
         <v>1.32</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU40" t="n">
         <v>1.52</v>
@@ -8820,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU41" t="n">
         <v>1.68</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT42" t="n">
         <v>2</v>
@@ -10241,7 +10241,7 @@
         <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU48" t="n">
         <v>1.82</v>
@@ -10644,7 +10644,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT50" t="n">
         <v>2</v>
@@ -11050,7 +11050,7 @@
         <v>1.67</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT52" t="n">
         <v>1.25</v>
@@ -11256,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU53" t="n">
         <v>1.79</v>
@@ -11459,7 +11459,7 @@
         <v>0</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU54" t="n">
         <v>1.05</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT55" t="n">
         <v>0.33</v>
@@ -11862,10 +11862,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT56" t="n">
         <v>0.67</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>0.6</v>
       </c>
       <c r="AU56" t="n">
         <v>1.11</v>
@@ -12120,6 +12120,1630 @@
       </c>
       <c r="BK57" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5845497</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45065.27083333334</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="n">
+        <v>6</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['45', '67', '79']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['15', '52', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>7</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V58" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5845501</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45065.35763888889</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>6</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>9</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5845500</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45065.35763888889</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['22', '36']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['53', '56']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>8</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5845499</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45065.35763888889</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="n">
+        <v>6</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['80', '90+2']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['39', '63', '66', '77']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>6</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>11</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5845498</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45065.35763888889</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>8</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V62" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5845502</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45066.35763888889</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5845503</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45066.35763888889</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" t="n">
+        <v>5</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['7', '12', '56']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['16', '34', '42']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T64" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5845504</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45066.35763888889</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['26', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T65" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -13199,13 +13199,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R63" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S63" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T63" t="n">
         <v>3.3</v>
@@ -13322,22 +13322,22 @@
         <v>4.5</v>
       </c>
       <c r="BF63" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG63" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH63" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI63" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ63" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK63" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -13402,13 +13402,13 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S64" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T64" t="n">
         <v>4.7</v>
@@ -13525,22 +13525,22 @@
         <v>3.95</v>
       </c>
       <c r="BF64" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG64" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH64" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI64" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ64" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK64" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
@@ -13605,13 +13605,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S65" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T65" t="n">
         <v>6.4</v>
@@ -13728,22 +13728,22 @@
         <v>3.34</v>
       </c>
       <c r="BF65" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG65" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH65" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI65" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ65" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK65" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK65"/>
+  <dimension ref="A1:BK73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT2" t="n">
         <v>0.5</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT5" t="n">
         <v>1.25</v>
@@ -1918,7 +1918,7 @@
         <v>1.8</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.17</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.8</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>1.76</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT13" t="n">
         <v>0.5</v>
@@ -3339,7 +3339,7 @@
         <v>1.2</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU14" t="n">
         <v>0.63</v>
@@ -3539,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU18" t="n">
         <v>2.82</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU19" t="n">
         <v>1.1</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT23" t="n">
         <v>1.5</v>
@@ -5369,7 +5369,7 @@
         <v>1.17</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU24" t="n">
         <v>0.62</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT26" t="n">
         <v>0.67</v>
@@ -5978,7 +5978,7 @@
         <v>1.75</v>
       </c>
       <c r="AT27" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU27" t="n">
         <v>0.92</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.36</v>
@@ -6587,7 +6587,7 @@
         <v>1.17</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU30" t="n">
         <v>0.9399999999999999</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU32" t="n">
         <v>1.62</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT33" t="n">
         <v>1.25</v>
@@ -7805,7 +7805,7 @@
         <v>1.17</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.06</v>
@@ -8008,7 +8008,7 @@
         <v>0.75</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.33</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT38" t="n">
         <v>0.67</v>
@@ -8411,10 +8411,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU39" t="n">
         <v>1.33</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT41" t="n">
         <v>2</v>
@@ -9023,7 +9023,7 @@
         <v>1.2</v>
       </c>
       <c r="AT42" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU42" t="n">
         <v>0.98</v>
@@ -9223,10 +9223,10 @@
         <v>1.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU43" t="n">
         <v>1.14</v>
@@ -9429,7 +9429,7 @@
         <v>1.17</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU44" t="n">
         <v>1.06</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT45" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>1.67</v>
       </c>
       <c r="AU45" t="n">
         <v>1.29</v>
@@ -9832,10 +9832,10 @@
         <v>0.33</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU46" t="n">
         <v>2.21</v>
@@ -10035,10 +10035,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU47" t="n">
         <v>1.61</v>
@@ -10238,7 +10238,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT48" t="n">
         <v>0.67</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT49" t="n">
         <v>1.25</v>
@@ -10647,7 +10647,7 @@
         <v>2.2</v>
       </c>
       <c r="AT50" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU50" t="n">
         <v>1.37</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT53" t="n">
         <v>2</v>
@@ -11662,7 +11662,7 @@
         <v>1.8</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU55" t="n">
         <v>1.45</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT57" t="n">
         <v>0.5</v>
@@ -12471,10 +12471,10 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU59" t="n">
         <v>1.91</v>
@@ -12677,7 +12677,7 @@
         <v>1.75</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU60" t="n">
         <v>1.42</v>
@@ -13689,7 +13689,7 @@
         <v>2.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT65" t="n">
         <v>2.6</v>
@@ -13744,6 +13744,1630 @@
       </c>
       <c r="BK65" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5845505</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45069.35763888889</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['16', '87']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>8</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5845506</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45069.35763888889</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>5</v>
+      </c>
+      <c r="L67" t="n">
+        <v>6</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>8</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['16', '31', '40', '52', '58', '63']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['8', '25']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>7</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>12</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V67" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5845507</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45069.35763888889</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>7</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>11</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V68" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5845508</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45069.35763888889</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="n">
+        <v>5</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['37', '45+2', '46', '55', '60']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>6</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>9</v>
+      </c>
+      <c r="T69" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5845509</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45070.35763888889</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['4', '59', '80']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V70" t="n">
+        <v>12</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5845510</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45070.35763888889</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="n">
+        <v>5</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['23', '44', '49']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['45+4', '69']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>7</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>12</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V71" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5845511</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45070.35763888889</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>9</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>13</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5845512</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45070.35763888889</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['18', '23']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>7</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>11</v>
+      </c>
+      <c r="T73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK73"/>
+  <dimension ref="A1:BK81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT4" t="n">
         <v>2</v>
@@ -1512,7 +1512,7 @@
         <v>1.8</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT9" t="n">
         <v>0.2</v>
@@ -2527,7 +2527,7 @@
         <v>0.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>1.22</v>
@@ -3136,7 +3136,7 @@
         <v>2.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.8</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU19" t="n">
         <v>1.1</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>2</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
         <v>1.5</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU24" t="n">
         <v>0.62</v>
@@ -5572,7 +5572,7 @@
         <v>0.8</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.8</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.83</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU27" t="n">
         <v>0.92</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT28" t="n">
         <v>1.5</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU29" t="n">
         <v>1.36</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU30" t="n">
         <v>0.9399999999999999</v>
@@ -6787,10 +6787,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU31" t="n">
         <v>1.23</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>1.13</v>
@@ -7399,7 +7399,7 @@
         <v>1.2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>0.89</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>0.8</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>1.32</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT39" t="n">
         <v>0.2</v>
@@ -8617,7 +8617,7 @@
         <v>1.8</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU40" t="n">
         <v>1.52</v>
@@ -9023,7 +9023,7 @@
         <v>1.2</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU42" t="n">
         <v>0.98</v>
@@ -9223,7 +9223,7 @@
         <v>1.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT44" t="n">
         <v>1.75</v>
@@ -9632,7 +9632,7 @@
         <v>1.8</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU45" t="n">
         <v>1.29</v>
@@ -10238,10 +10238,10 @@
         <v>0.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.82</v>
@@ -10441,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.37</v>
@@ -10644,10 +10644,10 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU50" t="n">
         <v>1.37</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT51" t="n">
         <v>0</v>
@@ -11050,10 +11050,10 @@
         <v>1.67</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>0.87</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT53" t="n">
         <v>2</v>
@@ -11456,10 +11456,10 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU54" t="n">
         <v>1.05</v>
@@ -11662,7 +11662,7 @@
         <v>1.8</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU55" t="n">
         <v>1.45</v>
@@ -11862,10 +11862,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>1.11</v>
@@ -12068,7 +12068,7 @@
         <v>1.8</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU57" t="n">
         <v>1.43</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT60" t="n">
         <v>1.33</v>
@@ -12877,7 +12877,7 @@
         <v>1.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT61" t="n">
         <v>2</v>
@@ -13080,10 +13080,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.38</v>
@@ -13489,7 +13489,7 @@
         <v>1.8</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>1.39</v>
@@ -13692,7 +13692,7 @@
         <v>0.8</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU65" t="n">
         <v>1.25</v>
@@ -13892,7 +13892,7 @@
         <v>2.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT66" t="n">
         <v>1.75</v>
@@ -14298,7 +14298,7 @@
         <v>0.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT68" t="n">
         <v>0.2</v>
@@ -14504,7 +14504,7 @@
         <v>0.8</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU69" t="n">
         <v>2.04</v>
@@ -14910,7 +14910,7 @@
         <v>2.5</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU71" t="n">
         <v>1.88</v>
@@ -15113,7 +15113,7 @@
         <v>0.8</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU72" t="n">
         <v>1.13</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT73" t="n">
         <v>1.33</v>
@@ -15368,6 +15368,1630 @@
       </c>
       <c r="BK73" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5845513</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45073.16666666666</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V74" t="n">
+        <v>7</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5845514</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45073.35763888889</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['70', '80']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>10</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6</v>
+      </c>
+      <c r="S75" t="n">
+        <v>16</v>
+      </c>
+      <c r="T75" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5845515</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45074.27083333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>9</v>
+      </c>
+      <c r="T76" t="n">
+        <v>5</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5845516</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45074.27083333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>3</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="n">
+        <v>5</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['19', '54', '66']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['11', '51']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7</v>
+      </c>
+      <c r="S77" t="n">
+        <v>10</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5845517</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45074.35763888889</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>7</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>11</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V78" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5845518</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45074.35763888889</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>8</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>9</v>
+      </c>
+      <c r="T79" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5845519</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45074.35763888889</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="n">
+        <v>5</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['74', '76', '86']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['8', '32']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5845520</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45075.35763888889</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['11', '18', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7</v>
+      </c>
+      <c r="S81" t="n">
+        <v>11</v>
+      </c>
+      <c r="T81" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,21 @@
     <t>['74', '76', '86']</t>
   </si>
   <si>
+    <t>['52', '61', '68']</t>
+  </si>
+  <si>
+    <t>['29', '41', '66', '87']</t>
+  </si>
+  <si>
+    <t>['36', '45+1']</t>
+  </si>
+  <si>
+    <t>['49', '65']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['26']</t>
   </si>
   <si>
@@ -448,9 +463,6 @@
     <t>['62']</t>
   </si>
   <si>
-    <t>['14']</t>
-  </si>
-  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -569,6 +581,18 @@
   </si>
   <si>
     <t>['11', '18', '45+2']</t>
+  </si>
+  <si>
+    <t>['22', '49', '65']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK81"/>
+  <dimension ref="A1:BK89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,7 +1198,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1365,7 +1389,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1556,7 +1580,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1643,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT4">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1747,7 +1771,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1834,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1938,7 +1962,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2025,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2129,7 +2153,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2216,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2511,7 +2535,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2601,7 +2625,7 @@
         <v>1.43</v>
       </c>
       <c r="AT9">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2702,7 +2726,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2893,7 +2917,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -2980,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT11">
         <v>1.33</v>
@@ -3084,7 +3108,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3174,7 +3198,7 @@
         <v>0.8</v>
       </c>
       <c r="AT12">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3362,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT13">
         <v>0.4</v>
@@ -3553,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT14">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU14">
         <v>0.63</v>
@@ -3848,7 +3872,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -3935,10 +3959,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT16">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4039,7 +4063,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4317,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT18">
         <v>1.33</v>
@@ -4421,7 +4445,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4511,7 +4535,7 @@
         <v>0.8</v>
       </c>
       <c r="AT19">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU19">
         <v>1.1</v>
@@ -4612,7 +4636,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4803,7 +4827,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -4890,7 +4914,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT21">
         <v>2.67</v>
@@ -5084,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="AT22">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU22">
         <v>0.9</v>
@@ -5275,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU23">
         <v>1.2</v>
@@ -5376,7 +5400,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5654,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT25">
         <v>0.4</v>
@@ -5845,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -5949,7 +5973,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6039,7 +6063,7 @@
         <v>1.4</v>
       </c>
       <c r="AT27">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU27">
         <v>0.92</v>
@@ -6140,7 +6164,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6227,10 +6251,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT28">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU28">
         <v>1.28</v>
@@ -6331,7 +6355,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6522,7 +6546,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6800,7 +6824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT31">
         <v>0.4</v>
@@ -6904,7 +6928,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -6991,10 +7015,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU32">
         <v>1.62</v>
@@ -7095,7 +7119,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7185,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -7373,7 +7397,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -8050,7 +8074,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8241,7 +8265,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8331,7 +8355,7 @@
         <v>2.33</v>
       </c>
       <c r="AT39">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU39">
         <v>1.33</v>
@@ -8519,7 +8543,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT40">
         <v>2.67</v>
@@ -8710,10 +8734,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT41">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU41">
         <v>1.68</v>
@@ -8901,10 +8925,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU42">
         <v>0.98</v>
@@ -9005,7 +9029,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9196,7 +9220,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9286,7 +9310,7 @@
         <v>1.43</v>
       </c>
       <c r="AT44">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU44">
         <v>1.06</v>
@@ -9474,7 +9498,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT45">
         <v>1.8</v>
@@ -9578,7 +9602,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9665,7 +9689,7 @@
         <v>0.33</v>
       </c>
       <c r="AS46">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT46">
         <v>1.33</v>
@@ -9856,10 +9880,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT47">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU47">
         <v>1.61</v>
@@ -9960,7 +9984,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10151,7 +10175,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10241,7 +10265,7 @@
         <v>1.4</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU49">
         <v>1.37</v>
@@ -10342,7 +10366,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10432,7 +10456,7 @@
         <v>2</v>
       </c>
       <c r="AT50">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU50">
         <v>1.37</v>
@@ -10533,7 +10557,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10814,7 +10838,7 @@
         <v>1.4</v>
       </c>
       <c r="AT52">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU52">
         <v>0.87</v>
@@ -10915,7 +10939,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11005,7 +11029,7 @@
         <v>2.33</v>
       </c>
       <c r="AT53">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU53">
         <v>1.79</v>
@@ -11106,7 +11130,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11193,7 +11217,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT54">
         <v>2.67</v>
@@ -11384,7 +11408,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT55">
         <v>0.4</v>
@@ -11575,7 +11599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -11766,7 +11790,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT57">
         <v>0.4</v>
@@ -11870,7 +11894,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -11960,7 +11984,7 @@
         <v>0.75</v>
       </c>
       <c r="AT58">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU58">
         <v>1.74</v>
@@ -12148,10 +12172,10 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT59">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU59">
         <v>1.91</v>
@@ -12252,7 +12276,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12443,7 +12467,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12530,10 +12554,10 @@
         <v>1.75</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT61">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU61">
         <v>1.29</v>
@@ -12634,7 +12658,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12912,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT63">
         <v>0</v>
@@ -13016,7 +13040,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13103,7 +13127,7 @@
         <v>0.6</v>
       </c>
       <c r="AS64">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT64">
         <v>1</v>
@@ -13207,7 +13231,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13398,7 +13422,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13488,7 +13512,7 @@
         <v>2.33</v>
       </c>
       <c r="AT66">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU66">
         <v>1.88</v>
@@ -13589,7 +13613,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13676,7 +13700,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -13870,7 +13894,7 @@
         <v>1.4</v>
       </c>
       <c r="AT68">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU68">
         <v>1.59</v>
@@ -13971,7 +13995,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14058,10 +14082,10 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT69">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU69">
         <v>2.04</v>
@@ -14249,10 +14273,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT70">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU70">
         <v>2.23</v>
@@ -14353,7 +14377,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14440,7 +14464,7 @@
         <v>0.33</v>
       </c>
       <c r="AS71">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT71">
         <v>0.4</v>
@@ -14735,7 +14759,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15117,7 +15141,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15204,10 +15228,10 @@
         <v>2.2</v>
       </c>
       <c r="AS75">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT75">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU75">
         <v>1.54</v>
@@ -15266,7 +15290,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>5845515</v>
+        <v>5845516</v>
       </c>
       <c r="C76" t="s">
         <v>63</v>
@@ -15281,175 +15305,175 @@
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H76" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O76" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="Q76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S76">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T76">
-        <v>5</v>
+        <v>3.82</v>
       </c>
       <c r="U76">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V76">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="W76">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X76">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Y76">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="Z76">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AA76">
-        <v>5.8</v>
+        <v>6.75</v>
       </c>
       <c r="AB76">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AC76">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="AD76">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AE76">
-        <v>1.63</v>
+        <v>2.23</v>
       </c>
       <c r="AF76">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG76">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH76">
+        <v>1.23</v>
+      </c>
+      <c r="AI76">
+        <v>3.75</v>
+      </c>
+      <c r="AJ76">
+        <v>1.82</v>
+      </c>
+      <c r="AK76">
+        <v>1.91</v>
+      </c>
+      <c r="AL76">
+        <v>1.58</v>
+      </c>
+      <c r="AM76">
+        <v>2.15</v>
+      </c>
+      <c r="AN76">
+        <v>1.68</v>
+      </c>
+      <c r="AO76">
+        <v>1.29</v>
+      </c>
+      <c r="AP76">
+        <v>1.32</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>1.25</v>
+      </c>
+      <c r="AS76">
+        <v>1.2</v>
+      </c>
+      <c r="AT76">
+        <v>1</v>
+      </c>
+      <c r="AU76">
+        <v>1.15</v>
+      </c>
+      <c r="AV76">
+        <v>1.7</v>
+      </c>
+      <c r="AW76">
+        <v>2.85</v>
+      </c>
+      <c r="AX76">
+        <v>2.4</v>
+      </c>
+      <c r="AY76">
+        <v>6</v>
+      </c>
+      <c r="AZ76">
+        <v>1.74</v>
+      </c>
+      <c r="BA76">
         <v>1.24</v>
       </c>
-      <c r="AI76">
-        <v>3.8</v>
-      </c>
-      <c r="AJ76">
-        <v>1.69</v>
-      </c>
-      <c r="AK76">
-        <v>2.08</v>
-      </c>
-      <c r="AL76">
-        <v>1.8</v>
-      </c>
-      <c r="AM76">
-        <v>1.9</v>
-      </c>
-      <c r="AN76">
-        <v>2.3</v>
-      </c>
-      <c r="AO76">
-        <v>1.2</v>
-      </c>
-      <c r="AP76">
-        <v>1.12</v>
-      </c>
-      <c r="AQ76">
-        <v>1.75</v>
-      </c>
-      <c r="AR76">
-        <v>0.67</v>
-      </c>
-      <c r="AS76">
-        <v>1.4</v>
-      </c>
-      <c r="AT76">
-        <v>1</v>
-      </c>
-      <c r="AU76">
-        <v>1.45</v>
-      </c>
-      <c r="AV76">
-        <v>1.82</v>
-      </c>
-      <c r="AW76">
-        <v>3.27</v>
-      </c>
-      <c r="AX76">
-        <v>3.38</v>
-      </c>
-      <c r="AY76">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AZ76">
-        <v>1.45</v>
-      </c>
-      <c r="BA76">
-        <v>1.37</v>
-      </c>
       <c r="BB76">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="BC76">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="BD76">
-        <v>2.84</v>
+        <v>2.29</v>
       </c>
       <c r="BE76">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="BF76">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG76">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH76">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BI76">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BJ76">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK76">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:63">
@@ -15457,7 +15481,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>5845516</v>
+        <v>5845515</v>
       </c>
       <c r="C77" t="s">
         <v>63</v>
@@ -15472,175 +15496,175 @@
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>82</v>
+      </c>
+      <c r="P77" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q77">
+        <v>4</v>
+      </c>
+      <c r="R77">
+        <v>5</v>
+      </c>
+      <c r="S77">
+        <v>9</v>
+      </c>
+      <c r="T77">
+        <v>5</v>
+      </c>
+      <c r="U77">
+        <v>2.3</v>
+      </c>
+      <c r="V77">
+        <v>2.05</v>
+      </c>
+      <c r="W77">
+        <v>1.34</v>
+      </c>
+      <c r="X77">
+        <v>3.1</v>
+      </c>
+      <c r="Y77">
+        <v>2.56</v>
+      </c>
+      <c r="Z77">
+        <v>1.48</v>
+      </c>
+      <c r="AA77">
+        <v>5.8</v>
+      </c>
+      <c r="AB77">
+        <v>1.1</v>
+      </c>
+      <c r="AC77">
+        <v>5</v>
+      </c>
+      <c r="AD77">
+        <v>4</v>
+      </c>
+      <c r="AE77">
+        <v>1.63</v>
+      </c>
+      <c r="AF77">
+        <v>1.02</v>
+      </c>
+      <c r="AG77">
+        <v>11</v>
+      </c>
+      <c r="AH77">
+        <v>1.24</v>
+      </c>
+      <c r="AI77">
+        <v>3.8</v>
+      </c>
+      <c r="AJ77">
+        <v>1.69</v>
+      </c>
+      <c r="AK77">
+        <v>2.08</v>
+      </c>
+      <c r="AL77">
+        <v>1.8</v>
+      </c>
+      <c r="AM77">
+        <v>1.9</v>
+      </c>
+      <c r="AN77">
+        <v>2.3</v>
+      </c>
+      <c r="AO77">
+        <v>1.2</v>
+      </c>
+      <c r="AP77">
+        <v>1.12</v>
+      </c>
+      <c r="AQ77">
+        <v>1.75</v>
+      </c>
+      <c r="AR77">
+        <v>0.67</v>
+      </c>
+      <c r="AS77">
+        <v>1.4</v>
+      </c>
+      <c r="AT77">
+        <v>1</v>
+      </c>
+      <c r="AU77">
+        <v>1.45</v>
+      </c>
+      <c r="AV77">
+        <v>1.82</v>
+      </c>
+      <c r="AW77">
+        <v>3.27</v>
+      </c>
+      <c r="AX77">
+        <v>3.38</v>
+      </c>
+      <c r="AY77">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ77">
+        <v>1.45</v>
+      </c>
+      <c r="BA77">
+        <v>1.37</v>
+      </c>
+      <c r="BB77">
+        <v>1.68</v>
+      </c>
+      <c r="BC77">
+        <v>2.12</v>
+      </c>
+      <c r="BD77">
+        <v>2.84</v>
+      </c>
+      <c r="BE77">
+        <v>3.98</v>
+      </c>
+      <c r="BF77">
         <v>3</v>
       </c>
-      <c r="M77">
-        <v>2</v>
-      </c>
-      <c r="N77">
-        <v>5</v>
-      </c>
-      <c r="O77" t="s">
-        <v>134</v>
-      </c>
-      <c r="P77" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q77">
-        <v>3</v>
-      </c>
-      <c r="R77">
-        <v>7</v>
-      </c>
-      <c r="S77">
-        <v>10</v>
-      </c>
-      <c r="T77">
-        <v>3.82</v>
-      </c>
-      <c r="U77">
-        <v>2.2</v>
-      </c>
-      <c r="V77">
-        <v>2.65</v>
-      </c>
-      <c r="W77">
-        <v>1.33</v>
-      </c>
-      <c r="X77">
-        <v>2.9</v>
-      </c>
-      <c r="Y77">
-        <v>2.55</v>
-      </c>
-      <c r="Z77">
-        <v>1.42</v>
-      </c>
-      <c r="AA77">
-        <v>6.75</v>
-      </c>
-      <c r="AB77">
-        <v>1.09</v>
-      </c>
-      <c r="AC77">
-        <v>3.05</v>
-      </c>
-      <c r="AD77">
-        <v>3.4</v>
-      </c>
-      <c r="AE77">
-        <v>2.23</v>
-      </c>
-      <c r="AF77">
-        <v>1.03</v>
-      </c>
-      <c r="AG77">
+      <c r="BG77">
+        <v>6</v>
+      </c>
+      <c r="BH77">
+        <v>9</v>
+      </c>
+      <c r="BI77">
         <v>13</v>
       </c>
-      <c r="AH77">
-        <v>1.23</v>
-      </c>
-      <c r="AI77">
-        <v>3.75</v>
-      </c>
-      <c r="AJ77">
-        <v>1.82</v>
-      </c>
-      <c r="AK77">
-        <v>1.91</v>
-      </c>
-      <c r="AL77">
-        <v>1.58</v>
-      </c>
-      <c r="AM77">
-        <v>2.15</v>
-      </c>
-      <c r="AN77">
-        <v>1.68</v>
-      </c>
-      <c r="AO77">
-        <v>1.29</v>
-      </c>
-      <c r="AP77">
-        <v>1.32</v>
-      </c>
-      <c r="AQ77">
-        <v>0</v>
-      </c>
-      <c r="AR77">
-        <v>1.25</v>
-      </c>
-      <c r="AS77">
-        <v>0.75</v>
-      </c>
-      <c r="AT77">
-        <v>1</v>
-      </c>
-      <c r="AU77">
-        <v>1.15</v>
-      </c>
-      <c r="AV77">
-        <v>1.7</v>
-      </c>
-      <c r="AW77">
-        <v>2.85</v>
-      </c>
-      <c r="AX77">
-        <v>2.4</v>
-      </c>
-      <c r="AY77">
-        <v>6</v>
-      </c>
-      <c r="AZ77">
-        <v>1.74</v>
-      </c>
-      <c r="BA77">
-        <v>1.24</v>
-      </c>
-      <c r="BB77">
-        <v>1.53</v>
-      </c>
-      <c r="BC77">
-        <v>1.86</v>
-      </c>
-      <c r="BD77">
-        <v>2.29</v>
-      </c>
-      <c r="BE77">
-        <v>3.15</v>
-      </c>
-      <c r="BF77">
-        <v>8</v>
-      </c>
-      <c r="BG77">
-        <v>8</v>
-      </c>
-      <c r="BH77">
-        <v>7</v>
-      </c>
-      <c r="BI77">
-        <v>8</v>
-      </c>
       <c r="BJ77">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BK77">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:63">
@@ -15690,7 +15714,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15881,7 +15905,7 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16072,7 +16096,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16162,7 +16186,7 @@
         <v>1.43</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU80">
         <v>1.17</v>
@@ -16263,7 +16287,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16405,6 +16429,1534 @@
       </c>
       <c r="BK81">
         <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>5845521</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45079.35763888889</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>67</v>
+      </c>
+      <c r="H82" t="s">
+        <v>72</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82" t="s">
+        <v>136</v>
+      </c>
+      <c r="P82" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q82">
+        <v>4</v>
+      </c>
+      <c r="R82">
+        <v>3</v>
+      </c>
+      <c r="S82">
+        <v>7</v>
+      </c>
+      <c r="T82">
+        <v>1.88</v>
+      </c>
+      <c r="U82">
+        <v>2.55</v>
+      </c>
+      <c r="V82">
+        <v>7.04</v>
+      </c>
+      <c r="W82">
+        <v>1.29</v>
+      </c>
+      <c r="X82">
+        <v>3.15</v>
+      </c>
+      <c r="Y82">
+        <v>2.58</v>
+      </c>
+      <c r="Z82">
+        <v>1.5</v>
+      </c>
+      <c r="AA82">
+        <v>6.5</v>
+      </c>
+      <c r="AB82">
+        <v>1.1</v>
+      </c>
+      <c r="AC82">
+        <v>1.35</v>
+      </c>
+      <c r="AD82">
+        <v>5.13</v>
+      </c>
+      <c r="AE82">
+        <v>6.97</v>
+      </c>
+      <c r="AF82">
+        <v>1.04</v>
+      </c>
+      <c r="AG82">
+        <v>15.75</v>
+      </c>
+      <c r="AH82">
+        <v>1.2</v>
+      </c>
+      <c r="AI82">
+        <v>4.2</v>
+      </c>
+      <c r="AJ82">
+        <v>1.63</v>
+      </c>
+      <c r="AK82">
+        <v>2.06</v>
+      </c>
+      <c r="AL82">
+        <v>2.01</v>
+      </c>
+      <c r="AM82">
+        <v>1.75</v>
+      </c>
+      <c r="AN82">
+        <v>1.07</v>
+      </c>
+      <c r="AO82">
+        <v>1.17</v>
+      </c>
+      <c r="AP82">
+        <v>3.13</v>
+      </c>
+      <c r="AQ82">
+        <v>0.75</v>
+      </c>
+      <c r="AR82">
+        <v>0.33</v>
+      </c>
+      <c r="AS82">
+        <v>1.2</v>
+      </c>
+      <c r="AT82">
+        <v>0.25</v>
+      </c>
+      <c r="AU82">
+        <v>1.28</v>
+      </c>
+      <c r="AV82">
+        <v>1.07</v>
+      </c>
+      <c r="AW82">
+        <v>2.35</v>
+      </c>
+      <c r="AX82">
+        <v>1.5</v>
+      </c>
+      <c r="AY82">
+        <v>8.5</v>
+      </c>
+      <c r="AZ82">
+        <v>3.1</v>
+      </c>
+      <c r="BA82">
+        <v>1.29</v>
+      </c>
+      <c r="BB82">
+        <v>1.57</v>
+      </c>
+      <c r="BC82">
+        <v>2</v>
+      </c>
+      <c r="BD82">
+        <v>2.65</v>
+      </c>
+      <c r="BE82">
+        <v>3.28</v>
+      </c>
+      <c r="BF82">
+        <v>11</v>
+      </c>
+      <c r="BG82">
+        <v>2</v>
+      </c>
+      <c r="BH82">
+        <v>4</v>
+      </c>
+      <c r="BI82">
+        <v>3</v>
+      </c>
+      <c r="BJ82">
+        <v>15</v>
+      </c>
+      <c r="BK82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>5845522</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45079.35763888889</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" t="s">
+        <v>77</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>7</v>
+      </c>
+      <c r="O83" t="s">
+        <v>137</v>
+      </c>
+      <c r="P83" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q83">
+        <v>12</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>15</v>
+      </c>
+      <c r="T83">
+        <v>1.99</v>
+      </c>
+      <c r="U83">
+        <v>2.49</v>
+      </c>
+      <c r="V83">
+        <v>5.3</v>
+      </c>
+      <c r="W83">
+        <v>1.27</v>
+      </c>
+      <c r="X83">
+        <v>3.56</v>
+      </c>
+      <c r="Y83">
+        <v>2.28</v>
+      </c>
+      <c r="Z83">
+        <v>1.59</v>
+      </c>
+      <c r="AA83">
+        <v>5.15</v>
+      </c>
+      <c r="AB83">
+        <v>1.14</v>
+      </c>
+      <c r="AC83">
+        <v>1.53</v>
+      </c>
+      <c r="AD83">
+        <v>3.85</v>
+      </c>
+      <c r="AE83">
+        <v>4.2</v>
+      </c>
+      <c r="AF83">
+        <v>1.02</v>
+      </c>
+      <c r="AG83">
+        <v>19.75</v>
+      </c>
+      <c r="AH83">
+        <v>1.14</v>
+      </c>
+      <c r="AI83">
+        <v>4.65</v>
+      </c>
+      <c r="AJ83">
+        <v>1.54</v>
+      </c>
+      <c r="AK83">
+        <v>2.22</v>
+      </c>
+      <c r="AL83">
+        <v>1.66</v>
+      </c>
+      <c r="AM83">
+        <v>2.14</v>
+      </c>
+      <c r="AN83">
+        <v>1.14</v>
+      </c>
+      <c r="AO83">
+        <v>1.2</v>
+      </c>
+      <c r="AP83">
+        <v>2.51</v>
+      </c>
+      <c r="AQ83">
+        <v>1.8</v>
+      </c>
+      <c r="AR83">
+        <v>2</v>
+      </c>
+      <c r="AS83">
+        <v>2</v>
+      </c>
+      <c r="AT83">
+        <v>1.67</v>
+      </c>
+      <c r="AU83">
+        <v>1.68</v>
+      </c>
+      <c r="AV83">
+        <v>1.47</v>
+      </c>
+      <c r="AW83">
+        <v>3.15</v>
+      </c>
+      <c r="AX83">
+        <v>1.29</v>
+      </c>
+      <c r="AY83">
+        <v>9.5</v>
+      </c>
+      <c r="AZ83">
+        <v>4.32</v>
+      </c>
+      <c r="BA83">
+        <v>1.28</v>
+      </c>
+      <c r="BB83">
+        <v>1.53</v>
+      </c>
+      <c r="BC83">
+        <v>1.96</v>
+      </c>
+      <c r="BD83">
+        <v>2.55</v>
+      </c>
+      <c r="BE83">
+        <v>3.2</v>
+      </c>
+      <c r="BF83">
+        <v>10</v>
+      </c>
+      <c r="BG83">
+        <v>6</v>
+      </c>
+      <c r="BH83">
+        <v>11</v>
+      </c>
+      <c r="BI83">
+        <v>3</v>
+      </c>
+      <c r="BJ83">
+        <v>21</v>
+      </c>
+      <c r="BK83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5845523</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45080.27083333334</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s">
+        <v>75</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>82</v>
+      </c>
+      <c r="P84" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q84">
+        <v>16</v>
+      </c>
+      <c r="R84">
+        <v>5</v>
+      </c>
+      <c r="S84">
+        <v>21</v>
+      </c>
+      <c r="T84">
+        <v>2.31</v>
+      </c>
+      <c r="U84">
+        <v>2.19</v>
+      </c>
+      <c r="V84">
+        <v>4.95</v>
+      </c>
+      <c r="W84">
+        <v>1.39</v>
+      </c>
+      <c r="X84">
+        <v>2.88</v>
+      </c>
+      <c r="Y84">
+        <v>2.78</v>
+      </c>
+      <c r="Z84">
+        <v>1.41</v>
+      </c>
+      <c r="AA84">
+        <v>7.1</v>
+      </c>
+      <c r="AB84">
+        <v>1.08</v>
+      </c>
+      <c r="AC84">
+        <v>1.76</v>
+      </c>
+      <c r="AD84">
+        <v>3.74</v>
+      </c>
+      <c r="AE84">
+        <v>4.5</v>
+      </c>
+      <c r="AF84">
+        <v>1.02</v>
+      </c>
+      <c r="AG84">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH84">
+        <v>1.27</v>
+      </c>
+      <c r="AI84">
+        <v>3.32</v>
+      </c>
+      <c r="AJ84">
+        <v>1.94</v>
+      </c>
+      <c r="AK84">
+        <v>1.88</v>
+      </c>
+      <c r="AL84">
+        <v>1.84</v>
+      </c>
+      <c r="AM84">
+        <v>1.9</v>
+      </c>
+      <c r="AN84">
+        <v>1.2</v>
+      </c>
+      <c r="AO84">
+        <v>1.27</v>
+      </c>
+      <c r="AP84">
+        <v>2.05</v>
+      </c>
+      <c r="AQ84">
+        <v>2.5</v>
+      </c>
+      <c r="AR84">
+        <v>1.5</v>
+      </c>
+      <c r="AS84">
+        <v>2</v>
+      </c>
+      <c r="AT84">
+        <v>1.8</v>
+      </c>
+      <c r="AU84">
+        <v>1.93</v>
+      </c>
+      <c r="AV84">
+        <v>1.31</v>
+      </c>
+      <c r="AW84">
+        <v>3.24</v>
+      </c>
+      <c r="AX84">
+        <v>1.62</v>
+      </c>
+      <c r="AY84">
+        <v>8</v>
+      </c>
+      <c r="AZ84">
+        <v>2.75</v>
+      </c>
+      <c r="BA84">
+        <v>1.37</v>
+      </c>
+      <c r="BB84">
+        <v>1.72</v>
+      </c>
+      <c r="BC84">
+        <v>2.2</v>
+      </c>
+      <c r="BD84">
+        <v>3</v>
+      </c>
+      <c r="BE84">
+        <v>4.1</v>
+      </c>
+      <c r="BF84">
+        <v>4</v>
+      </c>
+      <c r="BG84">
+        <v>6</v>
+      </c>
+      <c r="BH84">
+        <v>4</v>
+      </c>
+      <c r="BI84">
+        <v>3</v>
+      </c>
+      <c r="BJ84">
+        <v>8</v>
+      </c>
+      <c r="BK84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>5845524</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45080.35763888889</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s">
+        <v>65</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>138</v>
+      </c>
+      <c r="P85" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q85">
+        <v>5</v>
+      </c>
+      <c r="R85">
+        <v>3</v>
+      </c>
+      <c r="S85">
+        <v>8</v>
+      </c>
+      <c r="T85">
+        <v>1.65</v>
+      </c>
+      <c r="U85">
+        <v>2.7</v>
+      </c>
+      <c r="V85">
+        <v>8</v>
+      </c>
+      <c r="W85">
+        <v>1.24</v>
+      </c>
+      <c r="X85">
+        <v>3.7</v>
+      </c>
+      <c r="Y85">
+        <v>2.17</v>
+      </c>
+      <c r="Z85">
+        <v>1.63</v>
+      </c>
+      <c r="AA85">
+        <v>4.7</v>
+      </c>
+      <c r="AB85">
+        <v>1.16</v>
+      </c>
+      <c r="AC85">
+        <v>1.23</v>
+      </c>
+      <c r="AD85">
+        <v>6</v>
+      </c>
+      <c r="AE85">
+        <v>6.4</v>
+      </c>
+      <c r="AF85">
+        <v>1.02</v>
+      </c>
+      <c r="AG85">
+        <v>23</v>
+      </c>
+      <c r="AH85">
+        <v>1.16</v>
+      </c>
+      <c r="AI85">
+        <v>5.35</v>
+      </c>
+      <c r="AJ85">
+        <v>1.47</v>
+      </c>
+      <c r="AK85">
+        <v>2.5</v>
+      </c>
+      <c r="AL85">
+        <v>1.97</v>
+      </c>
+      <c r="AM85">
+        <v>1.8</v>
+      </c>
+      <c r="AN85">
+        <v>1.01</v>
+      </c>
+      <c r="AO85">
+        <v>1.08</v>
+      </c>
+      <c r="AP85">
+        <v>4</v>
+      </c>
+      <c r="AQ85">
+        <v>2.33</v>
+      </c>
+      <c r="AR85">
+        <v>0</v>
+      </c>
+      <c r="AS85">
+        <v>2.5</v>
+      </c>
+      <c r="AT85">
+        <v>0</v>
+      </c>
+      <c r="AU85">
+        <v>2.24</v>
+      </c>
+      <c r="AV85">
+        <v>1.57</v>
+      </c>
+      <c r="AW85">
+        <v>3.81</v>
+      </c>
+      <c r="AX85">
+        <v>1.3</v>
+      </c>
+      <c r="AY85">
+        <v>9.5</v>
+      </c>
+      <c r="AZ85">
+        <v>4.32</v>
+      </c>
+      <c r="BA85">
+        <v>1.33</v>
+      </c>
+      <c r="BB85">
+        <v>1.62</v>
+      </c>
+      <c r="BC85">
+        <v>2.1</v>
+      </c>
+      <c r="BD85">
+        <v>2.77</v>
+      </c>
+      <c r="BE85">
+        <v>4</v>
+      </c>
+      <c r="BF85">
+        <v>6</v>
+      </c>
+      <c r="BG85">
+        <v>2</v>
+      </c>
+      <c r="BH85">
+        <v>4</v>
+      </c>
+      <c r="BI85">
+        <v>2</v>
+      </c>
+      <c r="BJ85">
+        <v>10</v>
+      </c>
+      <c r="BK85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>5845525</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45080.35763888889</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>69</v>
+      </c>
+      <c r="H86" t="s">
+        <v>73</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86" t="s">
+        <v>139</v>
+      </c>
+      <c r="P86" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q86">
+        <v>2</v>
+      </c>
+      <c r="R86">
+        <v>3</v>
+      </c>
+      <c r="S86">
+        <v>5</v>
+      </c>
+      <c r="T86">
+        <v>2.93</v>
+      </c>
+      <c r="U86">
+        <v>2.1</v>
+      </c>
+      <c r="V86">
+        <v>3.64</v>
+      </c>
+      <c r="W86">
+        <v>1.41</v>
+      </c>
+      <c r="X86">
+        <v>2.79</v>
+      </c>
+      <c r="Y86">
+        <v>2.91</v>
+      </c>
+      <c r="Z86">
+        <v>1.38</v>
+      </c>
+      <c r="AA86">
+        <v>7.4</v>
+      </c>
+      <c r="AB86">
+        <v>1.07</v>
+      </c>
+      <c r="AC86">
+        <v>2.1</v>
+      </c>
+      <c r="AD86">
+        <v>3.06</v>
+      </c>
+      <c r="AE86">
+        <v>2.72</v>
+      </c>
+      <c r="AF86">
+        <v>1.07</v>
+      </c>
+      <c r="AG86">
+        <v>10.25</v>
+      </c>
+      <c r="AH86">
+        <v>1.35</v>
+      </c>
+      <c r="AI86">
+        <v>3.25</v>
+      </c>
+      <c r="AJ86">
+        <v>1.92</v>
+      </c>
+      <c r="AK86">
+        <v>1.79</v>
+      </c>
+      <c r="AL86">
+        <v>1.78</v>
+      </c>
+      <c r="AM86">
+        <v>1.99</v>
+      </c>
+      <c r="AN86">
+        <v>1.39</v>
+      </c>
+      <c r="AO86">
+        <v>1.31</v>
+      </c>
+      <c r="AP86">
+        <v>1.59</v>
+      </c>
+      <c r="AQ86">
+        <v>1.2</v>
+      </c>
+      <c r="AR86">
+        <v>1</v>
+      </c>
+      <c r="AS86">
+        <v>1.5</v>
+      </c>
+      <c r="AT86">
+        <v>0.83</v>
+      </c>
+      <c r="AU86">
+        <v>1.08</v>
+      </c>
+      <c r="AV86">
+        <v>1.2</v>
+      </c>
+      <c r="AW86">
+        <v>2.28</v>
+      </c>
+      <c r="AX86">
+        <v>1.8</v>
+      </c>
+      <c r="AY86">
+        <v>7.5</v>
+      </c>
+      <c r="AZ86">
+        <v>2.4</v>
+      </c>
+      <c r="BA86">
+        <v>1.45</v>
+      </c>
+      <c r="BB86">
+        <v>1.83</v>
+      </c>
+      <c r="BC86">
+        <v>2.35</v>
+      </c>
+      <c r="BD86">
+        <v>3.3</v>
+      </c>
+      <c r="BE86">
+        <v>4.5</v>
+      </c>
+      <c r="BF86">
+        <v>5</v>
+      </c>
+      <c r="BG86">
+        <v>4</v>
+      </c>
+      <c r="BH86">
+        <v>5</v>
+      </c>
+      <c r="BI86">
+        <v>2</v>
+      </c>
+      <c r="BJ86">
+        <v>10</v>
+      </c>
+      <c r="BK86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>5845528</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45081.1875</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s">
+        <v>71</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>82</v>
+      </c>
+      <c r="P87" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>5</v>
+      </c>
+      <c r="S87">
+        <v>6</v>
+      </c>
+      <c r="T87">
+        <v>4.25</v>
+      </c>
+      <c r="U87">
+        <v>2.1</v>
+      </c>
+      <c r="V87">
+        <v>2.63</v>
+      </c>
+      <c r="W87">
+        <v>1.42</v>
+      </c>
+      <c r="X87">
+        <v>2.75</v>
+      </c>
+      <c r="Y87">
+        <v>2.95</v>
+      </c>
+      <c r="Z87">
+        <v>1.37</v>
+      </c>
+      <c r="AA87">
+        <v>7.6</v>
+      </c>
+      <c r="AB87">
+        <v>1.07</v>
+      </c>
+      <c r="AC87">
+        <v>3.45</v>
+      </c>
+      <c r="AD87">
+        <v>3.3</v>
+      </c>
+      <c r="AE87">
+        <v>1.9</v>
+      </c>
+      <c r="AF87">
+        <v>1.03</v>
+      </c>
+      <c r="AG87">
+        <v>8.4</v>
+      </c>
+      <c r="AH87">
+        <v>1.31</v>
+      </c>
+      <c r="AI87">
+        <v>3.08</v>
+      </c>
+      <c r="AJ87">
+        <v>2.03</v>
+      </c>
+      <c r="AK87">
+        <v>1.73</v>
+      </c>
+      <c r="AL87">
+        <v>1.84</v>
+      </c>
+      <c r="AM87">
+        <v>1.9</v>
+      </c>
+      <c r="AN87">
+        <v>1.77</v>
+      </c>
+      <c r="AO87">
+        <v>1.3</v>
+      </c>
+      <c r="AP87">
+        <v>1.29</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AR87">
+        <v>1.75</v>
+      </c>
+      <c r="AS87">
+        <v>0.83</v>
+      </c>
+      <c r="AT87">
+        <v>2</v>
+      </c>
+      <c r="AU87">
+        <v>1.53</v>
+      </c>
+      <c r="AV87">
+        <v>1.36</v>
+      </c>
+      <c r="AW87">
+        <v>2.89</v>
+      </c>
+      <c r="AX87">
+        <v>2.38</v>
+      </c>
+      <c r="AY87">
+        <v>8</v>
+      </c>
+      <c r="AZ87">
+        <v>1.8</v>
+      </c>
+      <c r="BA87">
+        <v>1.33</v>
+      </c>
+      <c r="BB87">
+        <v>1.75</v>
+      </c>
+      <c r="BC87">
+        <v>2.03</v>
+      </c>
+      <c r="BD87">
+        <v>2.7</v>
+      </c>
+      <c r="BE87">
+        <v>3.3</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>3</v>
+      </c>
+      <c r="BH87">
+        <v>4</v>
+      </c>
+      <c r="BI87">
+        <v>7</v>
+      </c>
+      <c r="BJ87">
+        <v>4</v>
+      </c>
+      <c r="BK87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>5845526</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45081.27083333334</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>80</v>
+      </c>
+      <c r="H88" t="s">
+        <v>78</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>88</v>
+      </c>
+      <c r="P88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q88">
+        <v>11</v>
+      </c>
+      <c r="R88">
+        <v>6</v>
+      </c>
+      <c r="S88">
+        <v>17</v>
+      </c>
+      <c r="T88">
+        <v>3.38</v>
+      </c>
+      <c r="U88">
+        <v>2.1</v>
+      </c>
+      <c r="V88">
+        <v>3.13</v>
+      </c>
+      <c r="W88">
+        <v>1.41</v>
+      </c>
+      <c r="X88">
+        <v>2.79</v>
+      </c>
+      <c r="Y88">
+        <v>2.91</v>
+      </c>
+      <c r="Z88">
+        <v>1.38</v>
+      </c>
+      <c r="AA88">
+        <v>7.5</v>
+      </c>
+      <c r="AB88">
+        <v>1.07</v>
+      </c>
+      <c r="AC88">
+        <v>2.17</v>
+      </c>
+      <c r="AD88">
+        <v>3.25</v>
+      </c>
+      <c r="AE88">
+        <v>2.88</v>
+      </c>
+      <c r="AF88">
+        <v>1.06</v>
+      </c>
+      <c r="AG88">
+        <v>8</v>
+      </c>
+      <c r="AH88">
+        <v>1.33</v>
+      </c>
+      <c r="AI88">
+        <v>3.25</v>
+      </c>
+      <c r="AJ88">
+        <v>1.94</v>
+      </c>
+      <c r="AK88">
+        <v>1.82</v>
+      </c>
+      <c r="AL88">
+        <v>1.77</v>
+      </c>
+      <c r="AM88">
+        <v>2</v>
+      </c>
+      <c r="AN88">
+        <v>1.51</v>
+      </c>
+      <c r="AO88">
+        <v>1.32</v>
+      </c>
+      <c r="AP88">
+        <v>1.45</v>
+      </c>
+      <c r="AQ88">
+        <v>0.8</v>
+      </c>
+      <c r="AR88">
+        <v>0.2</v>
+      </c>
+      <c r="AS88">
+        <v>1.17</v>
+      </c>
+      <c r="AT88">
+        <v>0.17</v>
+      </c>
+      <c r="AU88">
+        <v>1.9</v>
+      </c>
+      <c r="AV88">
+        <v>1.44</v>
+      </c>
+      <c r="AW88">
+        <v>3.34</v>
+      </c>
+      <c r="AX88">
+        <v>1.91</v>
+      </c>
+      <c r="AY88">
+        <v>7.5</v>
+      </c>
+      <c r="AZ88">
+        <v>2.2</v>
+      </c>
+      <c r="BA88">
+        <v>1.38</v>
+      </c>
+      <c r="BB88">
+        <v>1.67</v>
+      </c>
+      <c r="BC88">
+        <v>2.17</v>
+      </c>
+      <c r="BD88">
+        <v>2.9</v>
+      </c>
+      <c r="BE88">
+        <v>4.3</v>
+      </c>
+      <c r="BF88">
+        <v>8</v>
+      </c>
+      <c r="BG88">
+        <v>3</v>
+      </c>
+      <c r="BH88">
+        <v>7</v>
+      </c>
+      <c r="BI88">
+        <v>2</v>
+      </c>
+      <c r="BJ88">
+        <v>15</v>
+      </c>
+      <c r="BK88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>5845527</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45081.35763888889</v>
+      </c>
+      <c r="F89">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>70</v>
+      </c>
+      <c r="H89" t="s">
+        <v>66</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>140</v>
+      </c>
+      <c r="P89" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q89">
+        <v>6</v>
+      </c>
+      <c r="R89">
+        <v>5</v>
+      </c>
+      <c r="S89">
+        <v>11</v>
+      </c>
+      <c r="T89">
+        <v>4.45</v>
+      </c>
+      <c r="U89">
+        <v>2.29</v>
+      </c>
+      <c r="V89">
+        <v>2.32</v>
+      </c>
+      <c r="W89">
+        <v>1.33</v>
+      </c>
+      <c r="X89">
+        <v>3.05</v>
+      </c>
+      <c r="Y89">
+        <v>2.6</v>
+      </c>
+      <c r="Z89">
+        <v>1.44</v>
+      </c>
+      <c r="AA89">
+        <v>6</v>
+      </c>
+      <c r="AB89">
+        <v>1.1</v>
+      </c>
+      <c r="AC89">
+        <v>3.8</v>
+      </c>
+      <c r="AD89">
+        <v>3.6</v>
+      </c>
+      <c r="AE89">
+        <v>1.73</v>
+      </c>
+      <c r="AF89">
+        <v>1.01</v>
+      </c>
+      <c r="AG89">
+        <v>11</v>
+      </c>
+      <c r="AH89">
+        <v>1.25</v>
+      </c>
+      <c r="AI89">
+        <v>3.75</v>
+      </c>
+      <c r="AJ89">
+        <v>1.77</v>
+      </c>
+      <c r="AK89">
+        <v>1.96</v>
+      </c>
+      <c r="AL89">
+        <v>1.68</v>
+      </c>
+      <c r="AM89">
+        <v>2.1</v>
+      </c>
+      <c r="AN89">
+        <v>1.99</v>
+      </c>
+      <c r="AO89">
+        <v>1.26</v>
+      </c>
+      <c r="AP89">
+        <v>1.23</v>
+      </c>
+      <c r="AQ89">
+        <v>1.8</v>
+      </c>
+      <c r="AR89">
+        <v>1.83</v>
+      </c>
+      <c r="AS89">
+        <v>1.67</v>
+      </c>
+      <c r="AT89">
+        <v>1.71</v>
+      </c>
+      <c r="AU89">
+        <v>1.26</v>
+      </c>
+      <c r="AV89">
+        <v>1.77</v>
+      </c>
+      <c r="AW89">
+        <v>3.03</v>
+      </c>
+      <c r="AX89">
+        <v>2.3</v>
+      </c>
+      <c r="AY89">
+        <v>7.5</v>
+      </c>
+      <c r="AZ89">
+        <v>1.8</v>
+      </c>
+      <c r="BA89">
+        <v>1.3</v>
+      </c>
+      <c r="BB89">
+        <v>1.58</v>
+      </c>
+      <c r="BC89">
+        <v>1.93</v>
+      </c>
+      <c r="BD89">
+        <v>2.39</v>
+      </c>
+      <c r="BE89">
+        <v>3.48</v>
+      </c>
+      <c r="BF89">
+        <v>5</v>
+      </c>
+      <c r="BG89">
+        <v>4</v>
+      </c>
+      <c r="BH89">
+        <v>5</v>
+      </c>
+      <c r="BI89">
+        <v>7</v>
+      </c>
+      <c r="BJ89">
+        <v>10</v>
+      </c>
+      <c r="BK89">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,9 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['10', '34', '41', '70']</t>
+  </si>
+  <si>
     <t>['26']</t>
   </si>
   <si>
@@ -593,6 +596,12 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -954,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK89"/>
+  <dimension ref="A1:BK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1207,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1389,7 +1398,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1580,7 +1589,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1771,7 +1780,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1962,7 +1971,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2153,7 +2162,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2535,7 +2544,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2726,7 +2735,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3108,7 +3117,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3198,7 +3207,7 @@
         <v>0.8</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3768,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT15">
         <v>1</v>
@@ -3872,7 +3881,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -3962,7 +3971,7 @@
         <v>2</v>
       </c>
       <c r="AT16">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4063,7 +4072,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4150,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4445,7 +4454,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4636,7 +4645,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4723,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -4827,7 +4836,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5400,7 +5409,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5490,7 +5499,7 @@
         <v>1.43</v>
       </c>
       <c r="AT24">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU24">
         <v>0.62</v>
@@ -5973,7 +5982,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6060,7 +6069,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT27">
         <v>1.71</v>
@@ -6164,7 +6173,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6355,7 +6364,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6442,10 +6451,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT29">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU29">
         <v>1.36</v>
@@ -6546,7 +6555,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6928,7 +6937,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7018,7 +7027,7 @@
         <v>2</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU32">
         <v>1.62</v>
@@ -7119,7 +7128,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -8074,7 +8083,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8265,7 +8274,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8352,7 +8361,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT39">
         <v>0.17</v>
@@ -9029,7 +9038,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9220,7 +9229,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9310,7 +9319,7 @@
         <v>1.43</v>
       </c>
       <c r="AT44">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU44">
         <v>1.06</v>
@@ -9501,7 +9510,7 @@
         <v>2</v>
       </c>
       <c r="AT45">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU45">
         <v>1.29</v>
@@ -9602,7 +9611,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9984,7 +9993,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10071,7 +10080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10175,7 +10184,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10262,7 +10271,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT49">
         <v>0.83</v>
@@ -10366,7 +10375,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10557,7 +10566,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10835,7 +10844,7 @@
         <v>1.67</v>
       </c>
       <c r="AS52">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT52">
         <v>0.83</v>
@@ -10939,7 +10948,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11026,7 +11035,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT53">
         <v>1.67</v>
@@ -11130,7 +11139,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11894,7 +11903,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12175,7 +12184,7 @@
         <v>1.17</v>
       </c>
       <c r="AT59">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU59">
         <v>1.91</v>
@@ -12276,7 +12285,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12363,7 +12372,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT60">
         <v>1.33</v>
@@ -12467,7 +12476,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12658,7 +12667,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13040,7 +13049,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13231,7 +13240,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13422,7 +13431,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13509,10 +13518,10 @@
         <v>2.33</v>
       </c>
       <c r="AS66">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT66">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU66">
         <v>1.88</v>
@@ -13613,7 +13622,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13891,7 +13900,7 @@
         <v>0.25</v>
       </c>
       <c r="AS68">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT68">
         <v>0.17</v>
@@ -13995,7 +14004,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14276,7 +14285,7 @@
         <v>2.5</v>
       </c>
       <c r="AT70">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU70">
         <v>2.23</v>
@@ -14377,7 +14386,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14658,7 +14667,7 @@
         <v>0.8</v>
       </c>
       <c r="AT72">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU72">
         <v>1.13</v>
@@ -14759,7 +14768,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15037,7 +15046,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT74">
         <v>0.4</v>
@@ -15141,7 +15150,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15332,7 +15341,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15523,7 +15532,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15610,7 +15619,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT77">
         <v>1</v>
@@ -15714,7 +15723,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15905,7 +15914,7 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -15995,7 +16004,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU79">
         <v>1.38</v>
@@ -16096,7 +16105,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16287,7 +16296,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16374,7 +16383,7 @@
         <v>2.6</v>
       </c>
       <c r="AS81">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT81">
         <v>2.67</v>
@@ -16568,7 +16577,7 @@
         <v>1.2</v>
       </c>
       <c r="AT82">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU82">
         <v>1.28</v>
@@ -16669,7 +16678,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -17242,7 +17251,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17433,7 +17442,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17523,7 +17532,7 @@
         <v>0.83</v>
       </c>
       <c r="AT87">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU87">
         <v>1.53</v>
@@ -17815,7 +17824,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -17957,6 +17966,579 @@
       </c>
       <c r="BK89">
         <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>5845531</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45085.35763888889</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s">
+        <v>71</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>82</v>
+      </c>
+      <c r="P90" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q90">
+        <v>3</v>
+      </c>
+      <c r="R90">
+        <v>3</v>
+      </c>
+      <c r="S90">
+        <v>6</v>
+      </c>
+      <c r="T90">
+        <v>3.94</v>
+      </c>
+      <c r="U90">
+        <v>2.19</v>
+      </c>
+      <c r="V90">
+        <v>2.78</v>
+      </c>
+      <c r="W90">
+        <v>1.43</v>
+      </c>
+      <c r="X90">
+        <v>2.55</v>
+      </c>
+      <c r="Y90">
+        <v>3.09</v>
+      </c>
+      <c r="Z90">
+        <v>1.26</v>
+      </c>
+      <c r="AA90">
+        <v>7.5</v>
+      </c>
+      <c r="AB90">
+        <v>1.06</v>
+      </c>
+      <c r="AC90">
+        <v>4</v>
+      </c>
+      <c r="AD90">
+        <v>3.25</v>
+      </c>
+      <c r="AE90">
+        <v>1.92</v>
+      </c>
+      <c r="AF90">
+        <v>1.06</v>
+      </c>
+      <c r="AG90">
+        <v>8</v>
+      </c>
+      <c r="AH90">
+        <v>1.3</v>
+      </c>
+      <c r="AI90">
+        <v>3.26</v>
+      </c>
+      <c r="AJ90">
+        <v>2.12</v>
+      </c>
+      <c r="AK90">
+        <v>1.67</v>
+      </c>
+      <c r="AL90">
+        <v>1.8</v>
+      </c>
+      <c r="AM90">
+        <v>1.96</v>
+      </c>
+      <c r="AN90">
+        <v>1.7</v>
+      </c>
+      <c r="AO90">
+        <v>1.32</v>
+      </c>
+      <c r="AP90">
+        <v>1.3</v>
+      </c>
+      <c r="AQ90">
+        <v>1.4</v>
+      </c>
+      <c r="AR90">
+        <v>2</v>
+      </c>
+      <c r="AS90">
+        <v>1.17</v>
+      </c>
+      <c r="AT90">
+        <v>2.17</v>
+      </c>
+      <c r="AU90">
+        <v>1.41</v>
+      </c>
+      <c r="AV90">
+        <v>1.31</v>
+      </c>
+      <c r="AW90">
+        <v>2.72</v>
+      </c>
+      <c r="AX90">
+        <v>2.5</v>
+      </c>
+      <c r="AY90">
+        <v>8</v>
+      </c>
+      <c r="AZ90">
+        <v>1.73</v>
+      </c>
+      <c r="BA90">
+        <v>1.31</v>
+      </c>
+      <c r="BB90">
+        <v>1.58</v>
+      </c>
+      <c r="BC90">
+        <v>2.01</v>
+      </c>
+      <c r="BD90">
+        <v>2.62</v>
+      </c>
+      <c r="BE90">
+        <v>3.56</v>
+      </c>
+      <c r="BF90">
+        <v>6</v>
+      </c>
+      <c r="BG90">
+        <v>6</v>
+      </c>
+      <c r="BH90">
+        <v>10</v>
+      </c>
+      <c r="BI90">
+        <v>9</v>
+      </c>
+      <c r="BJ90">
+        <v>16</v>
+      </c>
+      <c r="BK90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>5845529</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45085.35763888889</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>5</v>
+      </c>
+      <c r="O91" t="s">
+        <v>141</v>
+      </c>
+      <c r="P91" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q91">
+        <v>5</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>6</v>
+      </c>
+      <c r="T91">
+        <v>2.04</v>
+      </c>
+      <c r="U91">
+        <v>2.46</v>
+      </c>
+      <c r="V91">
+        <v>5.98</v>
+      </c>
+      <c r="W91">
+        <v>1.32</v>
+      </c>
+      <c r="X91">
+        <v>3.32</v>
+      </c>
+      <c r="Y91">
+        <v>2.62</v>
+      </c>
+      <c r="Z91">
+        <v>1.48</v>
+      </c>
+      <c r="AA91">
+        <v>6</v>
+      </c>
+      <c r="AB91">
+        <v>1.11</v>
+      </c>
+      <c r="AC91">
+        <v>1.37</v>
+      </c>
+      <c r="AD91">
+        <v>5</v>
+      </c>
+      <c r="AE91">
+        <v>6.8</v>
+      </c>
+      <c r="AF91">
+        <v>1.04</v>
+      </c>
+      <c r="AG91">
+        <v>14.75</v>
+      </c>
+      <c r="AH91">
+        <v>1.25</v>
+      </c>
+      <c r="AI91">
+        <v>4.02</v>
+      </c>
+      <c r="AJ91">
+        <v>1.67</v>
+      </c>
+      <c r="AK91">
+        <v>2.12</v>
+      </c>
+      <c r="AL91">
+        <v>1.86</v>
+      </c>
+      <c r="AM91">
+        <v>1.9</v>
+      </c>
+      <c r="AN91">
+        <v>1.11</v>
+      </c>
+      <c r="AO91">
+        <v>1.2</v>
+      </c>
+      <c r="AP91">
+        <v>2.64</v>
+      </c>
+      <c r="AQ91">
+        <v>1.4</v>
+      </c>
+      <c r="AR91">
+        <v>0.25</v>
+      </c>
+      <c r="AS91">
+        <v>1.67</v>
+      </c>
+      <c r="AT91">
+        <v>0.2</v>
+      </c>
+      <c r="AU91">
+        <v>1.5</v>
+      </c>
+      <c r="AV91">
+        <v>0.95</v>
+      </c>
+      <c r="AW91">
+        <v>2.45</v>
+      </c>
+      <c r="AX91">
+        <v>1.45</v>
+      </c>
+      <c r="AY91">
+        <v>8.5</v>
+      </c>
+      <c r="AZ91">
+        <v>3.24</v>
+      </c>
+      <c r="BA91">
+        <v>1.36</v>
+      </c>
+      <c r="BB91">
+        <v>1.7</v>
+      </c>
+      <c r="BC91">
+        <v>2.17</v>
+      </c>
+      <c r="BD91">
+        <v>2.9</v>
+      </c>
+      <c r="BE91">
+        <v>4.1</v>
+      </c>
+      <c r="BF91">
+        <v>11</v>
+      </c>
+      <c r="BG91">
+        <v>2</v>
+      </c>
+      <c r="BH91">
+        <v>10</v>
+      </c>
+      <c r="BI91">
+        <v>1</v>
+      </c>
+      <c r="BJ91">
+        <v>21</v>
+      </c>
+      <c r="BK91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>5845530</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45085.35763888889</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>75</v>
+      </c>
+      <c r="H92" t="s">
+        <v>70</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92" t="s">
+        <v>82</v>
+      </c>
+      <c r="P92" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q92">
+        <v>6</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
+        <v>8</v>
+      </c>
+      <c r="T92">
+        <v>2.15</v>
+      </c>
+      <c r="U92">
+        <v>2.15</v>
+      </c>
+      <c r="V92">
+        <v>5.75</v>
+      </c>
+      <c r="W92">
+        <v>1.4</v>
+      </c>
+      <c r="X92">
+        <v>2.7</v>
+      </c>
+      <c r="Y92">
+        <v>2.85</v>
+      </c>
+      <c r="Z92">
+        <v>1.38</v>
+      </c>
+      <c r="AA92">
+        <v>8</v>
+      </c>
+      <c r="AB92">
+        <v>1.08</v>
+      </c>
+      <c r="AC92">
+        <v>1.54</v>
+      </c>
+      <c r="AD92">
+        <v>3.88</v>
+      </c>
+      <c r="AE92">
+        <v>5.63</v>
+      </c>
+      <c r="AF92">
+        <v>1.06</v>
+      </c>
+      <c r="AG92">
+        <v>11.25</v>
+      </c>
+      <c r="AH92">
+        <v>1.33</v>
+      </c>
+      <c r="AI92">
+        <v>3.35</v>
+      </c>
+      <c r="AJ92">
+        <v>1.99</v>
+      </c>
+      <c r="AK92">
+        <v>1.8</v>
+      </c>
+      <c r="AL92">
+        <v>2</v>
+      </c>
+      <c r="AM92">
+        <v>1.72</v>
+      </c>
+      <c r="AN92">
+        <v>1.17</v>
+      </c>
+      <c r="AO92">
+        <v>1.25</v>
+      </c>
+      <c r="AP92">
+        <v>2.3</v>
+      </c>
+      <c r="AQ92">
+        <v>2.33</v>
+      </c>
+      <c r="AR92">
+        <v>1.8</v>
+      </c>
+      <c r="AS92">
+        <v>2.14</v>
+      </c>
+      <c r="AT92">
+        <v>1.67</v>
+      </c>
+      <c r="AU92">
+        <v>1.73</v>
+      </c>
+      <c r="AV92">
+        <v>1.21</v>
+      </c>
+      <c r="AW92">
+        <v>2.94</v>
+      </c>
+      <c r="AX92">
+        <v>1.4</v>
+      </c>
+      <c r="AY92">
+        <v>8.5</v>
+      </c>
+      <c r="AZ92">
+        <v>3.5</v>
+      </c>
+      <c r="BA92">
+        <v>1.34</v>
+      </c>
+      <c r="BB92">
+        <v>1.85</v>
+      </c>
+      <c r="BC92">
+        <v>2.12</v>
+      </c>
+      <c r="BD92">
+        <v>2.8</v>
+      </c>
+      <c r="BE92">
+        <v>3.8</v>
+      </c>
+      <c r="BF92">
+        <v>7</v>
+      </c>
+      <c r="BG92">
+        <v>2</v>
+      </c>
+      <c r="BH92">
+        <v>5</v>
+      </c>
+      <c r="BI92">
+        <v>3</v>
+      </c>
+      <c r="BJ92">
+        <v>12</v>
+      </c>
+      <c r="BK92">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,18 @@
     <t>['10', '34', '41', '70']</t>
   </si>
   <si>
+    <t>['56', '68']</t>
+  </si>
+  <si>
+    <t>['53', '77']</t>
+  </si>
+  <si>
+    <t>['5', '59']</t>
+  </si>
+  <si>
+    <t>['16', '45+1']</t>
+  </si>
+  <si>
     <t>['26']</t>
   </si>
   <si>
@@ -602,6 +614,21 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['41', '51']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['41', '51', '87']</t>
+  </si>
+  <si>
+    <t>['77', '86']</t>
   </si>
 </sst>
 </file>
@@ -963,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK92"/>
+  <dimension ref="A1:BK97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1234,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1297,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1398,7 +1425,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1485,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT3">
         <v>2.67</v>
@@ -1589,7 +1616,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1780,7 +1807,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1971,7 +1998,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2058,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT6">
         <v>1.8</v>
@@ -2162,7 +2189,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2252,7 +2279,7 @@
         <v>1.67</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2544,7 +2571,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2735,7 +2762,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2822,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -3016,7 +3043,7 @@
         <v>1.67</v>
       </c>
       <c r="AT11">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU11">
         <v>1.76</v>
@@ -3117,7 +3144,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3204,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT12">
         <v>2.17</v>
@@ -3398,7 +3425,7 @@
         <v>2.5</v>
       </c>
       <c r="AT13">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3586,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT14">
         <v>0.17</v>
@@ -3780,7 +3807,7 @@
         <v>2.14</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3881,7 +3908,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -3968,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT16">
         <v>0.2</v>
@@ -4072,7 +4099,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4353,7 +4380,7 @@
         <v>2.5</v>
       </c>
       <c r="AT18">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU18">
         <v>2.82</v>
@@ -4454,7 +4481,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4541,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT19">
         <v>1.71</v>
@@ -4645,7 +4672,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4836,7 +4863,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5409,7 +5436,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5982,7 +6009,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6173,7 +6200,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6364,7 +6391,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6555,7 +6582,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6836,7 +6863,7 @@
         <v>0.83</v>
       </c>
       <c r="AT31">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU31">
         <v>1.23</v>
@@ -6937,7 +6964,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7024,7 +7051,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT32">
         <v>2.17</v>
@@ -7128,7 +7155,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7406,7 +7433,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -7791,7 +7818,7 @@
         <v>1.43</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU36">
         <v>1.06</v>
@@ -7979,10 +8006,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT37">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU37">
         <v>1.33</v>
@@ -8083,7 +8110,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8170,7 +8197,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -8274,7 +8301,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8934,7 +8961,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT42">
         <v>1.71</v>
@@ -9038,7 +9065,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9128,7 +9155,7 @@
         <v>1</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9229,7 +9256,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9611,7 +9638,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9701,7 +9728,7 @@
         <v>1.17</v>
       </c>
       <c r="AT46">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU46">
         <v>2.21</v>
@@ -9889,7 +9916,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT47">
         <v>0.17</v>
@@ -9993,7 +10020,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10184,7 +10211,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10375,7 +10402,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10566,7 +10593,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10948,7 +10975,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11139,7 +11166,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11802,7 +11829,7 @@
         <v>2</v>
       </c>
       <c r="AT57">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU57">
         <v>1.43</v>
@@ -11903,7 +11930,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -11990,7 +12017,7 @@
         <v>1.67</v>
       </c>
       <c r="AS58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT58">
         <v>1.8</v>
@@ -12285,7 +12312,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12375,7 +12402,7 @@
         <v>1.17</v>
       </c>
       <c r="AT60">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU60">
         <v>1.42</v>
@@ -12476,7 +12503,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12667,7 +12694,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12945,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT63">
         <v>0</v>
@@ -13049,7 +13076,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13240,7 +13267,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13327,7 +13354,7 @@
         <v>2.5</v>
       </c>
       <c r="AS65">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT65">
         <v>2.67</v>
@@ -13431,7 +13458,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13622,7 +13649,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13712,7 +13739,7 @@
         <v>2</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>1.56</v>
@@ -14004,7 +14031,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14386,7 +14413,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14473,7 +14500,7 @@
         <v>0.33</v>
       </c>
       <c r="AS71">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT71">
         <v>0.4</v>
@@ -14664,7 +14691,7 @@
         <v>1.67</v>
       </c>
       <c r="AS72">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT72">
         <v>1.67</v>
@@ -14768,7 +14795,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -14858,7 +14885,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU73">
         <v>1.24</v>
@@ -15049,7 +15076,7 @@
         <v>2.14</v>
       </c>
       <c r="AT74">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU74">
         <v>1.75</v>
@@ -15150,7 +15177,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15341,7 +15368,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15532,7 +15559,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15723,7 +15750,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15914,7 +15941,7 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16105,7 +16132,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16296,7 +16323,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16678,7 +16705,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -16956,7 +16983,7 @@
         <v>1.5</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT84">
         <v>1.8</v>
@@ -17251,7 +17278,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17338,7 +17365,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT86">
         <v>0.83</v>
@@ -17442,7 +17469,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17824,7 +17851,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18015,7 +18042,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18147,13 +18174,13 @@
         <v>6</v>
       </c>
       <c r="BH90">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI90">
         <v>9</v>
       </c>
       <c r="BJ90">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BK90">
         <v>15</v>
@@ -18206,7 +18233,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18539,6 +18566,961 @@
       </c>
       <c r="BK92">
         <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5845532</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45086.27083333334</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>69</v>
+      </c>
+      <c r="H93" t="s">
+        <v>67</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>4</v>
+      </c>
+      <c r="O93" t="s">
+        <v>142</v>
+      </c>
+      <c r="P93" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q93">
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <v>3</v>
+      </c>
+      <c r="S93">
+        <v>6</v>
+      </c>
+      <c r="T93">
+        <v>3.88</v>
+      </c>
+      <c r="U93">
+        <v>2.08</v>
+      </c>
+      <c r="V93">
+        <v>2.82</v>
+      </c>
+      <c r="W93">
+        <v>1.37</v>
+      </c>
+      <c r="X93">
+        <v>2.75</v>
+      </c>
+      <c r="Y93">
+        <v>2.75</v>
+      </c>
+      <c r="Z93">
+        <v>1.4</v>
+      </c>
+      <c r="AA93">
+        <v>7.25</v>
+      </c>
+      <c r="AB93">
+        <v>1.08</v>
+      </c>
+      <c r="AC93">
+        <v>3.3</v>
+      </c>
+      <c r="AD93">
+        <v>3.33</v>
+      </c>
+      <c r="AE93">
+        <v>2.21</v>
+      </c>
+      <c r="AF93">
+        <v>1.04</v>
+      </c>
+      <c r="AG93">
+        <v>11.5</v>
+      </c>
+      <c r="AH93">
+        <v>1.29</v>
+      </c>
+      <c r="AI93">
+        <v>3.51</v>
+      </c>
+      <c r="AJ93">
+        <v>1.93</v>
+      </c>
+      <c r="AK93">
+        <v>1.88</v>
+      </c>
+      <c r="AL93">
+        <v>1.74</v>
+      </c>
+      <c r="AM93">
+        <v>2.02</v>
+      </c>
+      <c r="AN93">
+        <v>1.65</v>
+      </c>
+      <c r="AO93">
+        <v>1.33</v>
+      </c>
+      <c r="AP93">
+        <v>1.33</v>
+      </c>
+      <c r="AQ93">
+        <v>1.5</v>
+      </c>
+      <c r="AR93">
+        <v>1.33</v>
+      </c>
+      <c r="AS93">
+        <v>1.43</v>
+      </c>
+      <c r="AT93">
+        <v>1.29</v>
+      </c>
+      <c r="AU93">
+        <v>1.1</v>
+      </c>
+      <c r="AV93">
+        <v>1.63</v>
+      </c>
+      <c r="AW93">
+        <v>2.73</v>
+      </c>
+      <c r="AX93">
+        <v>2.05</v>
+      </c>
+      <c r="AY93">
+        <v>7.5</v>
+      </c>
+      <c r="AZ93">
+        <v>2</v>
+      </c>
+      <c r="BA93">
+        <v>1.42</v>
+      </c>
+      <c r="BB93">
+        <v>1.83</v>
+      </c>
+      <c r="BC93">
+        <v>2.25</v>
+      </c>
+      <c r="BD93">
+        <v>3</v>
+      </c>
+      <c r="BE93">
+        <v>4.14</v>
+      </c>
+      <c r="BF93">
+        <v>6</v>
+      </c>
+      <c r="BG93">
+        <v>5</v>
+      </c>
+      <c r="BH93">
+        <v>4</v>
+      </c>
+      <c r="BI93">
+        <v>3</v>
+      </c>
+      <c r="BJ93">
+        <v>10</v>
+      </c>
+      <c r="BK93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5845533</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45086.35763888889</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s">
+        <v>80</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>143</v>
+      </c>
+      <c r="P94" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q94">
+        <v>7</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>7</v>
+      </c>
+      <c r="T94">
+        <v>1.74</v>
+      </c>
+      <c r="U94">
+        <v>2.67</v>
+      </c>
+      <c r="V94">
+        <v>8.52</v>
+      </c>
+      <c r="W94">
+        <v>1.3</v>
+      </c>
+      <c r="X94">
+        <v>3.34</v>
+      </c>
+      <c r="Y94">
+        <v>2.54</v>
+      </c>
+      <c r="Z94">
+        <v>1.51</v>
+      </c>
+      <c r="AA94">
+        <v>5.6</v>
+      </c>
+      <c r="AB94">
+        <v>1.13</v>
+      </c>
+      <c r="AC94">
+        <v>1.2</v>
+      </c>
+      <c r="AD94">
+        <v>5</v>
+      </c>
+      <c r="AE94">
+        <v>11</v>
+      </c>
+      <c r="AF94">
+        <v>1.03</v>
+      </c>
+      <c r="AG94">
+        <v>11</v>
+      </c>
+      <c r="AH94">
+        <v>1.2</v>
+      </c>
+      <c r="AI94">
+        <v>4.39</v>
+      </c>
+      <c r="AJ94">
+        <v>1.67</v>
+      </c>
+      <c r="AK94">
+        <v>2.15</v>
+      </c>
+      <c r="AL94">
+        <v>2.11</v>
+      </c>
+      <c r="AM94">
+        <v>1.69</v>
+      </c>
+      <c r="AN94">
+        <v>1.04</v>
+      </c>
+      <c r="AO94">
+        <v>1.14</v>
+      </c>
+      <c r="AP94">
+        <v>3.66</v>
+      </c>
+      <c r="AQ94">
+        <v>2</v>
+      </c>
+      <c r="AR94">
+        <v>0.4</v>
+      </c>
+      <c r="AS94">
+        <v>2.17</v>
+      </c>
+      <c r="AT94">
+        <v>0.33</v>
+      </c>
+      <c r="AU94">
+        <v>1.8</v>
+      </c>
+      <c r="AV94">
+        <v>1.2</v>
+      </c>
+      <c r="AW94">
+        <v>3</v>
+      </c>
+      <c r="AX94">
+        <v>1.25</v>
+      </c>
+      <c r="AY94">
+        <v>9.5</v>
+      </c>
+      <c r="AZ94">
+        <v>4.74</v>
+      </c>
+      <c r="BA94">
+        <v>1.38</v>
+      </c>
+      <c r="BB94">
+        <v>1.83</v>
+      </c>
+      <c r="BC94">
+        <v>2.16</v>
+      </c>
+      <c r="BD94">
+        <v>2.88</v>
+      </c>
+      <c r="BE94">
+        <v>4.04</v>
+      </c>
+      <c r="BF94">
+        <v>6</v>
+      </c>
+      <c r="BG94">
+        <v>2</v>
+      </c>
+      <c r="BH94">
+        <v>6</v>
+      </c>
+      <c r="BI94">
+        <v>4</v>
+      </c>
+      <c r="BJ94">
+        <v>12</v>
+      </c>
+      <c r="BK94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>5845534</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45086.35763888889</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>66</v>
+      </c>
+      <c r="H95" t="s">
+        <v>74</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>130</v>
+      </c>
+      <c r="P95" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q95">
+        <v>2</v>
+      </c>
+      <c r="R95">
+        <v>3</v>
+      </c>
+      <c r="S95">
+        <v>5</v>
+      </c>
+      <c r="T95">
+        <v>3.14</v>
+      </c>
+      <c r="U95">
+        <v>2.27</v>
+      </c>
+      <c r="V95">
+        <v>3</v>
+      </c>
+      <c r="W95">
+        <v>1.32</v>
+      </c>
+      <c r="X95">
+        <v>3.15</v>
+      </c>
+      <c r="Y95">
+        <v>2.45</v>
+      </c>
+      <c r="Z95">
+        <v>1.48</v>
+      </c>
+      <c r="AA95">
+        <v>6</v>
+      </c>
+      <c r="AB95">
+        <v>1.12</v>
+      </c>
+      <c r="AC95">
+        <v>2.45</v>
+      </c>
+      <c r="AD95">
+        <v>3.25</v>
+      </c>
+      <c r="AE95">
+        <v>2.45</v>
+      </c>
+      <c r="AF95">
+        <v>1.04</v>
+      </c>
+      <c r="AG95">
+        <v>15.25</v>
+      </c>
+      <c r="AH95">
+        <v>1.22</v>
+      </c>
+      <c r="AI95">
+        <v>4.3</v>
+      </c>
+      <c r="AJ95">
+        <v>1.8</v>
+      </c>
+      <c r="AK95">
+        <v>1.95</v>
+      </c>
+      <c r="AL95">
+        <v>1.56</v>
+      </c>
+      <c r="AM95">
+        <v>2.36</v>
+      </c>
+      <c r="AN95">
+        <v>1.52</v>
+      </c>
+      <c r="AO95">
+        <v>1.28</v>
+      </c>
+      <c r="AP95">
+        <v>1.49</v>
+      </c>
+      <c r="AQ95">
+        <v>0.75</v>
+      </c>
+      <c r="AR95">
+        <v>1</v>
+      </c>
+      <c r="AS95">
+        <v>0.8</v>
+      </c>
+      <c r="AT95">
+        <v>1</v>
+      </c>
+      <c r="AU95">
+        <v>1.76</v>
+      </c>
+      <c r="AV95">
+        <v>1.85</v>
+      </c>
+      <c r="AW95">
+        <v>3.61</v>
+      </c>
+      <c r="AX95">
+        <v>2.25</v>
+      </c>
+      <c r="AY95">
+        <v>8</v>
+      </c>
+      <c r="AZ95">
+        <v>1.83</v>
+      </c>
+      <c r="BA95">
+        <v>1.34</v>
+      </c>
+      <c r="BB95">
+        <v>1.62</v>
+      </c>
+      <c r="BC95">
+        <v>2.07</v>
+      </c>
+      <c r="BD95">
+        <v>2.75</v>
+      </c>
+      <c r="BE95">
+        <v>3.42</v>
+      </c>
+      <c r="BF95">
+        <v>4</v>
+      </c>
+      <c r="BG95">
+        <v>6</v>
+      </c>
+      <c r="BH95">
+        <v>9</v>
+      </c>
+      <c r="BI95">
+        <v>2</v>
+      </c>
+      <c r="BJ95">
+        <v>13</v>
+      </c>
+      <c r="BK95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5845535</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45086.35763888889</v>
+      </c>
+      <c r="F96">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s">
+        <v>79</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+      <c r="N96">
+        <v>5</v>
+      </c>
+      <c r="O96" t="s">
+        <v>144</v>
+      </c>
+      <c r="P96" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q96">
+        <v>8</v>
+      </c>
+      <c r="R96">
+        <v>7</v>
+      </c>
+      <c r="S96">
+        <v>15</v>
+      </c>
+      <c r="T96">
+        <v>2.8</v>
+      </c>
+      <c r="U96">
+        <v>2.1</v>
+      </c>
+      <c r="V96">
+        <v>3.6</v>
+      </c>
+      <c r="W96">
+        <v>1.38</v>
+      </c>
+      <c r="X96">
+        <v>2.85</v>
+      </c>
+      <c r="Y96">
+        <v>2.7</v>
+      </c>
+      <c r="Z96">
+        <v>1.4</v>
+      </c>
+      <c r="AA96">
+        <v>7.25</v>
+      </c>
+      <c r="AB96">
+        <v>1.09</v>
+      </c>
+      <c r="AC96">
+        <v>2.2</v>
+      </c>
+      <c r="AD96">
+        <v>3.13</v>
+      </c>
+      <c r="AE96">
+        <v>2.9</v>
+      </c>
+      <c r="AF96">
+        <v>1.05</v>
+      </c>
+      <c r="AG96">
+        <v>12</v>
+      </c>
+      <c r="AH96">
+        <v>1.29</v>
+      </c>
+      <c r="AI96">
+        <v>3.65</v>
+      </c>
+      <c r="AJ96">
+        <v>1.95</v>
+      </c>
+      <c r="AK96">
+        <v>1.8</v>
+      </c>
+      <c r="AL96">
+        <v>1.7</v>
+      </c>
+      <c r="AM96">
+        <v>2.1</v>
+      </c>
+      <c r="AN96">
+        <v>1.34</v>
+      </c>
+      <c r="AO96">
+        <v>1.3</v>
+      </c>
+      <c r="AP96">
+        <v>1.69</v>
+      </c>
+      <c r="AQ96">
+        <v>0.8</v>
+      </c>
+      <c r="AR96">
+        <v>1</v>
+      </c>
+      <c r="AS96">
+        <v>0.67</v>
+      </c>
+      <c r="AT96">
+        <v>1.33</v>
+      </c>
+      <c r="AU96">
+        <v>1.2</v>
+      </c>
+      <c r="AV96">
+        <v>1.05</v>
+      </c>
+      <c r="AW96">
+        <v>2.25</v>
+      </c>
+      <c r="AX96">
+        <v>1.8</v>
+      </c>
+      <c r="AY96">
+        <v>7.5</v>
+      </c>
+      <c r="AZ96">
+        <v>2.4</v>
+      </c>
+      <c r="BA96">
+        <v>1.38</v>
+      </c>
+      <c r="BB96">
+        <v>1.67</v>
+      </c>
+      <c r="BC96">
+        <v>2.17</v>
+      </c>
+      <c r="BD96">
+        <v>2.9</v>
+      </c>
+      <c r="BE96">
+        <v>3.74</v>
+      </c>
+      <c r="BF96">
+        <v>5</v>
+      </c>
+      <c r="BG96">
+        <v>8</v>
+      </c>
+      <c r="BH96">
+        <v>5</v>
+      </c>
+      <c r="BI96">
+        <v>6</v>
+      </c>
+      <c r="BJ96">
+        <v>10</v>
+      </c>
+      <c r="BK96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5845536</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45086.35763888889</v>
+      </c>
+      <c r="F97">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>65</v>
+      </c>
+      <c r="H97" t="s">
+        <v>68</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>145</v>
+      </c>
+      <c r="P97" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>11</v>
+      </c>
+      <c r="S97">
+        <v>12</v>
+      </c>
+      <c r="T97">
+        <v>4.83</v>
+      </c>
+      <c r="U97">
+        <v>2.33</v>
+      </c>
+      <c r="V97">
+        <v>2.34</v>
+      </c>
+      <c r="W97">
+        <v>1.35</v>
+      </c>
+      <c r="X97">
+        <v>3.16</v>
+      </c>
+      <c r="Y97">
+        <v>2.75</v>
+      </c>
+      <c r="Z97">
+        <v>1.44</v>
+      </c>
+      <c r="AA97">
+        <v>6.4</v>
+      </c>
+      <c r="AB97">
+        <v>1.1</v>
+      </c>
+      <c r="AC97">
+        <v>4.2</v>
+      </c>
+      <c r="AD97">
+        <v>3.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.67</v>
+      </c>
+      <c r="AF97">
+        <v>1.01</v>
+      </c>
+      <c r="AG97">
+        <v>10</v>
+      </c>
+      <c r="AH97">
+        <v>1.25</v>
+      </c>
+      <c r="AI97">
+        <v>3.75</v>
+      </c>
+      <c r="AJ97">
+        <v>1.75</v>
+      </c>
+      <c r="AK97">
+        <v>2</v>
+      </c>
+      <c r="AL97">
+        <v>1.75</v>
+      </c>
+      <c r="AM97">
+        <v>2</v>
+      </c>
+      <c r="AN97">
+        <v>2.2</v>
+      </c>
+      <c r="AO97">
+        <v>1.2</v>
+      </c>
+      <c r="AP97">
+        <v>1.12</v>
+      </c>
+      <c r="AQ97">
+        <v>1</v>
+      </c>
+      <c r="AR97">
+        <v>1</v>
+      </c>
+      <c r="AS97">
+        <v>1</v>
+      </c>
+      <c r="AT97">
+        <v>1</v>
+      </c>
+      <c r="AU97">
+        <v>1.38</v>
+      </c>
+      <c r="AV97">
+        <v>1.73</v>
+      </c>
+      <c r="AW97">
+        <v>3.11</v>
+      </c>
+      <c r="AX97">
+        <v>2.75</v>
+      </c>
+      <c r="AY97">
+        <v>8</v>
+      </c>
+      <c r="AZ97">
+        <v>1.62</v>
+      </c>
+      <c r="BA97">
+        <v>1.31</v>
+      </c>
+      <c r="BB97">
+        <v>1.62</v>
+      </c>
+      <c r="BC97">
+        <v>2.1</v>
+      </c>
+      <c r="BD97">
+        <v>2.8</v>
+      </c>
+      <c r="BE97">
+        <v>3.42</v>
+      </c>
+      <c r="BF97">
+        <v>4</v>
+      </c>
+      <c r="BG97">
+        <v>6</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+      <c r="BI97">
+        <v>7</v>
+      </c>
+      <c r="BJ97">
+        <v>4</v>
+      </c>
+      <c r="BK97">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -19191,13 +19191,13 @@
         <v>203</v>
       </c>
       <c r="Q96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R96">
         <v>7</v>
       </c>
       <c r="S96">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T96">
         <v>2.8</v>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,15 @@
     <t>['16', '45+1']</t>
   </si>
   <si>
+    <t>['35', '69', '81']</t>
+  </si>
+  <si>
+    <t>['40', '45+3', '75']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['26']</t>
   </si>
   <si>
@@ -629,6 +638,12 @@
   </si>
   <si>
     <t>['77', '86']</t>
+  </si>
+  <si>
+    <t>['11', '82']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK97"/>
+  <dimension ref="A1:BK102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1249,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1324,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1425,7 +1440,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1512,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT3">
         <v>2.67</v>
@@ -1616,7 +1631,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1703,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
         <v>1.67</v>
@@ -1807,7 +1822,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1897,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="AT5">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1998,7 +2013,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2189,7 +2204,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2276,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT7">
         <v>1.33</v>
@@ -2467,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2571,7 +2586,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2661,7 +2676,7 @@
         <v>1.43</v>
       </c>
       <c r="AT9">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2762,7 +2777,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2849,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -3040,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT11">
         <v>1.29</v>
@@ -3144,7 +3159,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3425,7 +3440,7 @@
         <v>2.5</v>
       </c>
       <c r="AT13">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3616,7 +3631,7 @@
         <v>1.43</v>
       </c>
       <c r="AT14">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU14">
         <v>0.63</v>
@@ -3908,7 +3923,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4099,7 +4114,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4189,7 +4204,7 @@
         <v>1.67</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4481,7 +4496,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4672,7 +4687,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4863,7 +4878,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -4950,7 +4965,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT21">
         <v>2.67</v>
@@ -5141,7 +5156,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT22">
         <v>1.67</v>
@@ -5436,7 +5451,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5717,7 +5732,7 @@
         <v>1.17</v>
       </c>
       <c r="AT25">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6009,7 +6024,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6200,7 +6215,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6287,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
         <v>1.8</v>
@@ -6391,7 +6406,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6582,7 +6597,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6672,7 +6687,7 @@
         <v>1.43</v>
       </c>
       <c r="AT30">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU30">
         <v>0.9399999999999999</v>
@@ -6860,10 +6875,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT31">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU31">
         <v>1.23</v>
@@ -6964,7 +6979,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7155,7 +7170,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7245,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -7624,10 +7639,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT35">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AU35">
         <v>0.96</v>
@@ -8006,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT37">
         <v>1.29</v>
@@ -8110,7 +8125,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8301,7 +8316,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8391,7 +8406,7 @@
         <v>2.14</v>
       </c>
       <c r="AT39">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU39">
         <v>1.33</v>
@@ -8579,7 +8594,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT40">
         <v>2.67</v>
@@ -9065,7 +9080,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9256,7 +9271,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9638,7 +9653,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9919,7 +9934,7 @@
         <v>2.17</v>
       </c>
       <c r="AT47">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU47">
         <v>1.61</v>
@@ -10020,7 +10035,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10211,7 +10226,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10301,7 +10316,7 @@
         <v>1.67</v>
       </c>
       <c r="AT49">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU49">
         <v>1.37</v>
@@ -10402,7 +10417,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10489,7 +10504,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT50">
         <v>1.71</v>
@@ -10593,7 +10608,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10683,7 +10698,7 @@
         <v>1.43</v>
       </c>
       <c r="AT51">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AU51">
         <v>1.09</v>
@@ -10874,7 +10889,7 @@
         <v>1.17</v>
       </c>
       <c r="AT52">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU52">
         <v>0.87</v>
@@ -10975,7 +10990,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11166,7 +11181,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11253,7 +11268,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
         <v>2.67</v>
@@ -11444,10 +11459,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT55">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11635,7 +11650,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -11829,7 +11844,7 @@
         <v>2</v>
       </c>
       <c r="AT57">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU57">
         <v>1.43</v>
@@ -11930,7 +11945,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12017,7 +12032,7 @@
         <v>1.67</v>
       </c>
       <c r="AS58">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT58">
         <v>1.8</v>
@@ -12312,7 +12327,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12503,7 +12518,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12590,7 +12605,7 @@
         <v>1.75</v>
       </c>
       <c r="AS61">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT61">
         <v>1.67</v>
@@ -12694,7 +12709,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12781,7 +12796,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -12975,7 +12990,7 @@
         <v>1.43</v>
       </c>
       <c r="AT63">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AU63">
         <v>1.07</v>
@@ -13076,7 +13091,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13163,7 +13178,7 @@
         <v>0.6</v>
       </c>
       <c r="AS64">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT64">
         <v>1</v>
@@ -13267,7 +13282,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13458,7 +13473,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13649,7 +13664,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13930,7 +13945,7 @@
         <v>1.67</v>
       </c>
       <c r="AT68">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU68">
         <v>1.59</v>
@@ -14031,7 +14046,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14413,7 +14428,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14503,7 +14518,7 @@
         <v>2.17</v>
       </c>
       <c r="AT71">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -14795,7 +14810,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15076,7 +15091,7 @@
         <v>2.14</v>
       </c>
       <c r="AT74">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU74">
         <v>1.75</v>
@@ -15177,7 +15192,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15264,7 +15279,7 @@
         <v>2.2</v>
       </c>
       <c r="AS75">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT75">
         <v>1.71</v>
@@ -15368,7 +15383,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15455,7 +15470,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15559,7 +15574,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15750,7 +15765,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15837,10 +15852,10 @@
         <v>0.25</v>
       </c>
       <c r="AS78">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT78">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU78">
         <v>1.38</v>
@@ -15941,7 +15956,7 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16132,7 +16147,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16222,7 +16237,7 @@
         <v>1.43</v>
       </c>
       <c r="AT80">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU80">
         <v>1.17</v>
@@ -16323,7 +16338,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16601,7 +16616,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT82">
         <v>0.2</v>
@@ -16705,7 +16720,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -17177,7 +17192,7 @@
         <v>2.5</v>
       </c>
       <c r="AT85">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AU85">
         <v>2.24</v>
@@ -17278,7 +17293,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17368,7 +17383,7 @@
         <v>1.43</v>
       </c>
       <c r="AT86">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU86">
         <v>1.08</v>
@@ -17469,7 +17484,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17556,7 +17571,7 @@
         <v>1.75</v>
       </c>
       <c r="AS87">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT87">
         <v>2.17</v>
@@ -17750,7 +17765,7 @@
         <v>1.17</v>
       </c>
       <c r="AT88">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU88">
         <v>1.9</v>
@@ -17851,7 +17866,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -17938,7 +17953,7 @@
         <v>1.83</v>
       </c>
       <c r="AS89">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT89">
         <v>1.71</v>
@@ -18042,7 +18057,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18233,7 +18248,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18615,7 +18630,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18806,7 +18821,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -18896,7 +18911,7 @@
         <v>2.17</v>
       </c>
       <c r="AT94">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU94">
         <v>1.8</v>
@@ -18997,7 +19012,7 @@
         <v>130</v>
       </c>
       <c r="P95" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19084,7 +19099,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT95">
         <v>1</v>
@@ -19188,7 +19203,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19379,7 +19394,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19521,6 +19536,961 @@
       </c>
       <c r="BK97">
         <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>5845537</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45105.35763888889</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>66</v>
+      </c>
+      <c r="H98" t="s">
+        <v>65</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" t="s">
+        <v>82</v>
+      </c>
+      <c r="P98" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q98">
+        <v>8</v>
+      </c>
+      <c r="R98">
+        <v>6</v>
+      </c>
+      <c r="S98">
+        <v>14</v>
+      </c>
+      <c r="T98">
+        <v>1.8</v>
+      </c>
+      <c r="U98">
+        <v>2.63</v>
+      </c>
+      <c r="V98">
+        <v>7.5</v>
+      </c>
+      <c r="W98">
+        <v>1.29</v>
+      </c>
+      <c r="X98">
+        <v>3.5</v>
+      </c>
+      <c r="Y98">
+        <v>2.25</v>
+      </c>
+      <c r="Z98">
+        <v>1.57</v>
+      </c>
+      <c r="AA98">
+        <v>5.5</v>
+      </c>
+      <c r="AB98">
+        <v>1.14</v>
+      </c>
+      <c r="AC98">
+        <v>1.27</v>
+      </c>
+      <c r="AD98">
+        <v>5.7</v>
+      </c>
+      <c r="AE98">
+        <v>10.5</v>
+      </c>
+      <c r="AF98">
+        <v>1.02</v>
+      </c>
+      <c r="AG98">
+        <v>20.5</v>
+      </c>
+      <c r="AH98">
+        <v>1.14</v>
+      </c>
+      <c r="AI98">
+        <v>4.6</v>
+      </c>
+      <c r="AJ98">
+        <v>1.6</v>
+      </c>
+      <c r="AK98">
+        <v>2.25</v>
+      </c>
+      <c r="AL98">
+        <v>1.95</v>
+      </c>
+      <c r="AM98">
+        <v>1.8</v>
+      </c>
+      <c r="AN98">
+        <v>1.03</v>
+      </c>
+      <c r="AO98">
+        <v>1.11</v>
+      </c>
+      <c r="AP98">
+        <v>3.3</v>
+      </c>
+      <c r="AQ98">
+        <v>0.8</v>
+      </c>
+      <c r="AR98">
+        <v>0</v>
+      </c>
+      <c r="AS98">
+        <v>0.83</v>
+      </c>
+      <c r="AT98">
+        <v>0.17</v>
+      </c>
+      <c r="AU98">
+        <v>1.68</v>
+      </c>
+      <c r="AV98">
+        <v>1.36</v>
+      </c>
+      <c r="AW98">
+        <v>3.04</v>
+      </c>
+      <c r="AX98">
+        <v>1.62</v>
+      </c>
+      <c r="AY98">
+        <v>8</v>
+      </c>
+      <c r="AZ98">
+        <v>2.75</v>
+      </c>
+      <c r="BA98">
+        <v>1.3</v>
+      </c>
+      <c r="BB98">
+        <v>1.59</v>
+      </c>
+      <c r="BC98">
+        <v>2.03</v>
+      </c>
+      <c r="BD98">
+        <v>2.7</v>
+      </c>
+      <c r="BE98">
+        <v>3.8</v>
+      </c>
+      <c r="BF98">
+        <v>5</v>
+      </c>
+      <c r="BG98">
+        <v>4</v>
+      </c>
+      <c r="BH98">
+        <v>9</v>
+      </c>
+      <c r="BI98">
+        <v>3</v>
+      </c>
+      <c r="BJ98">
+        <v>14</v>
+      </c>
+      <c r="BK98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5845538</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45105.35763888889</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>67</v>
+      </c>
+      <c r="H99" t="s">
+        <v>73</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>146</v>
+      </c>
+      <c r="P99" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q99">
+        <v>5</v>
+      </c>
+      <c r="R99">
+        <v>9</v>
+      </c>
+      <c r="S99">
+        <v>14</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
+        <v>2.3</v>
+      </c>
+      <c r="V99">
+        <v>5</v>
+      </c>
+      <c r="W99">
+        <v>1.36</v>
+      </c>
+      <c r="X99">
+        <v>3</v>
+      </c>
+      <c r="Y99">
+        <v>2.63</v>
+      </c>
+      <c r="Z99">
+        <v>1.44</v>
+      </c>
+      <c r="AA99">
+        <v>7</v>
+      </c>
+      <c r="AB99">
+        <v>1.1</v>
+      </c>
+      <c r="AC99">
+        <v>1.66</v>
+      </c>
+      <c r="AD99">
+        <v>4</v>
+      </c>
+      <c r="AE99">
+        <v>4.9</v>
+      </c>
+      <c r="AF99">
+        <v>1.01</v>
+      </c>
+      <c r="AG99">
+        <v>10.25</v>
+      </c>
+      <c r="AH99">
+        <v>1.25</v>
+      </c>
+      <c r="AI99">
+        <v>3.75</v>
+      </c>
+      <c r="AJ99">
+        <v>1.78</v>
+      </c>
+      <c r="AK99">
+        <v>1.97</v>
+      </c>
+      <c r="AL99">
+        <v>1.8</v>
+      </c>
+      <c r="AM99">
+        <v>1.95</v>
+      </c>
+      <c r="AN99">
+        <v>1.11</v>
+      </c>
+      <c r="AO99">
+        <v>1.18</v>
+      </c>
+      <c r="AP99">
+        <v>2.3</v>
+      </c>
+      <c r="AQ99">
+        <v>1.2</v>
+      </c>
+      <c r="AR99">
+        <v>0.83</v>
+      </c>
+      <c r="AS99">
+        <v>1.5</v>
+      </c>
+      <c r="AT99">
+        <v>0.71</v>
+      </c>
+      <c r="AU99">
+        <v>1.45</v>
+      </c>
+      <c r="AV99">
+        <v>1.17</v>
+      </c>
+      <c r="AW99">
+        <v>2.62</v>
+      </c>
+      <c r="AX99">
+        <v>1.57</v>
+      </c>
+      <c r="AY99">
+        <v>7.8</v>
+      </c>
+      <c r="AZ99">
+        <v>3</v>
+      </c>
+      <c r="BA99">
+        <v>1.31</v>
+      </c>
+      <c r="BB99">
+        <v>1.6</v>
+      </c>
+      <c r="BC99">
+        <v>2.07</v>
+      </c>
+      <c r="BD99">
+        <v>2.75</v>
+      </c>
+      <c r="BE99">
+        <v>3.8</v>
+      </c>
+      <c r="BF99">
+        <v>6</v>
+      </c>
+      <c r="BG99">
+        <v>4</v>
+      </c>
+      <c r="BH99">
+        <v>2</v>
+      </c>
+      <c r="BI99">
+        <v>5</v>
+      </c>
+      <c r="BJ99">
+        <v>8</v>
+      </c>
+      <c r="BK99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>5845539</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45105.35763888889</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>70</v>
+      </c>
+      <c r="H100" t="s">
+        <v>78</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100" t="s">
+        <v>147</v>
+      </c>
+      <c r="P100" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q100">
+        <v>5</v>
+      </c>
+      <c r="R100">
+        <v>3</v>
+      </c>
+      <c r="S100">
+        <v>8</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
+        <v>2.05</v>
+      </c>
+      <c r="V100">
+        <v>5</v>
+      </c>
+      <c r="W100">
+        <v>1.5</v>
+      </c>
+      <c r="X100">
+        <v>2.5</v>
+      </c>
+      <c r="Y100">
+        <v>3.4</v>
+      </c>
+      <c r="Z100">
+        <v>1.3</v>
+      </c>
+      <c r="AA100">
+        <v>10</v>
+      </c>
+      <c r="AB100">
+        <v>1.06</v>
+      </c>
+      <c r="AC100">
+        <v>1.82</v>
+      </c>
+      <c r="AD100">
+        <v>3.46</v>
+      </c>
+      <c r="AE100">
+        <v>4.53</v>
+      </c>
+      <c r="AF100">
+        <v>1.04</v>
+      </c>
+      <c r="AG100">
+        <v>7.6</v>
+      </c>
+      <c r="AH100">
+        <v>1.4</v>
+      </c>
+      <c r="AI100">
+        <v>2.85</v>
+      </c>
+      <c r="AJ100">
+        <v>2.25</v>
+      </c>
+      <c r="AK100">
+        <v>1.62</v>
+      </c>
+      <c r="AL100">
+        <v>2.05</v>
+      </c>
+      <c r="AM100">
+        <v>1.7</v>
+      </c>
+      <c r="AN100">
+        <v>1.16</v>
+      </c>
+      <c r="AO100">
+        <v>1.25</v>
+      </c>
+      <c r="AP100">
+        <v>1.95</v>
+      </c>
+      <c r="AQ100">
+        <v>1.67</v>
+      </c>
+      <c r="AR100">
+        <v>0.17</v>
+      </c>
+      <c r="AS100">
+        <v>1.86</v>
+      </c>
+      <c r="AT100">
+        <v>0.14</v>
+      </c>
+      <c r="AU100">
+        <v>1.25</v>
+      </c>
+      <c r="AV100">
+        <v>1.33</v>
+      </c>
+      <c r="AW100">
+        <v>2.58</v>
+      </c>
+      <c r="AX100">
+        <v>1.5</v>
+      </c>
+      <c r="AY100">
+        <v>8.5</v>
+      </c>
+      <c r="AZ100">
+        <v>3.1</v>
+      </c>
+      <c r="BA100">
+        <v>1.32</v>
+      </c>
+      <c r="BB100">
+        <v>1.62</v>
+      </c>
+      <c r="BC100">
+        <v>2.1</v>
+      </c>
+      <c r="BD100">
+        <v>2.8</v>
+      </c>
+      <c r="BE100">
+        <v>3.6</v>
+      </c>
+      <c r="BF100">
+        <v>7</v>
+      </c>
+      <c r="BG100">
+        <v>7</v>
+      </c>
+      <c r="BH100">
+        <v>1</v>
+      </c>
+      <c r="BI100">
+        <v>3</v>
+      </c>
+      <c r="BJ100">
+        <v>8</v>
+      </c>
+      <c r="BK100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>5845540</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45105.35763888889</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>148</v>
+      </c>
+      <c r="P101" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q101">
+        <v>6</v>
+      </c>
+      <c r="R101">
+        <v>5</v>
+      </c>
+      <c r="S101">
+        <v>11</v>
+      </c>
+      <c r="T101">
+        <v>2.2</v>
+      </c>
+      <c r="U101">
+        <v>2.1</v>
+      </c>
+      <c r="V101">
+        <v>7</v>
+      </c>
+      <c r="W101">
+        <v>1.5</v>
+      </c>
+      <c r="X101">
+        <v>2.5</v>
+      </c>
+      <c r="Y101">
+        <v>3.4</v>
+      </c>
+      <c r="Z101">
+        <v>1.3</v>
+      </c>
+      <c r="AA101">
+        <v>10</v>
+      </c>
+      <c r="AB101">
+        <v>1.06</v>
+      </c>
+      <c r="AC101">
+        <v>1.48</v>
+      </c>
+      <c r="AD101">
+        <v>4.05</v>
+      </c>
+      <c r="AE101">
+        <v>7.4</v>
+      </c>
+      <c r="AF101">
+        <v>1.04</v>
+      </c>
+      <c r="AG101">
+        <v>7.4</v>
+      </c>
+      <c r="AH101">
+        <v>1.4</v>
+      </c>
+      <c r="AI101">
+        <v>2.85</v>
+      </c>
+      <c r="AJ101">
+        <v>2.2</v>
+      </c>
+      <c r="AK101">
+        <v>1.62</v>
+      </c>
+      <c r="AL101">
+        <v>2.38</v>
+      </c>
+      <c r="AM101">
+        <v>1.53</v>
+      </c>
+      <c r="AN101">
+        <v>1.06</v>
+      </c>
+      <c r="AO101">
+        <v>1.2</v>
+      </c>
+      <c r="AP101">
+        <v>2.55</v>
+      </c>
+      <c r="AQ101">
+        <v>2</v>
+      </c>
+      <c r="AR101">
+        <v>0.33</v>
+      </c>
+      <c r="AS101">
+        <v>2.14</v>
+      </c>
+      <c r="AT101">
+        <v>0.29</v>
+      </c>
+      <c r="AU101">
+        <v>1.53</v>
+      </c>
+      <c r="AV101">
+        <v>1.11</v>
+      </c>
+      <c r="AW101">
+        <v>2.64</v>
+      </c>
+      <c r="AX101">
+        <v>1.5</v>
+      </c>
+      <c r="AY101">
+        <v>8</v>
+      </c>
+      <c r="AZ101">
+        <v>3.2</v>
+      </c>
+      <c r="BA101">
+        <v>1.44</v>
+      </c>
+      <c r="BB101">
+        <v>1.85</v>
+      </c>
+      <c r="BC101">
+        <v>2.4</v>
+      </c>
+      <c r="BD101">
+        <v>3.4</v>
+      </c>
+      <c r="BE101">
+        <v>4.9</v>
+      </c>
+      <c r="BF101">
+        <v>8</v>
+      </c>
+      <c r="BG101">
+        <v>4</v>
+      </c>
+      <c r="BH101">
+        <v>2</v>
+      </c>
+      <c r="BI101">
+        <v>2</v>
+      </c>
+      <c r="BJ101">
+        <v>10</v>
+      </c>
+      <c r="BK101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>5845541</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45105.35763888889</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s">
+        <v>69</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102" t="s">
+        <v>82</v>
+      </c>
+      <c r="P102" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q102">
+        <v>12</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>13</v>
+      </c>
+      <c r="T102">
+        <v>3.1</v>
+      </c>
+      <c r="U102">
+        <v>2.1</v>
+      </c>
+      <c r="V102">
+        <v>3.4</v>
+      </c>
+      <c r="W102">
+        <v>1.4</v>
+      </c>
+      <c r="X102">
+        <v>2.75</v>
+      </c>
+      <c r="Y102">
+        <v>3</v>
+      </c>
+      <c r="Z102">
+        <v>1.36</v>
+      </c>
+      <c r="AA102">
+        <v>8</v>
+      </c>
+      <c r="AB102">
+        <v>1.08</v>
+      </c>
+      <c r="AC102">
+        <v>2.45</v>
+      </c>
+      <c r="AD102">
+        <v>3.39</v>
+      </c>
+      <c r="AE102">
+        <v>2.84</v>
+      </c>
+      <c r="AF102">
+        <v>1.02</v>
+      </c>
+      <c r="AG102">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH102">
+        <v>1.3</v>
+      </c>
+      <c r="AI102">
+        <v>3.2</v>
+      </c>
+      <c r="AJ102">
+        <v>1.99</v>
+      </c>
+      <c r="AK102">
+        <v>1.82</v>
+      </c>
+      <c r="AL102">
+        <v>1.75</v>
+      </c>
+      <c r="AM102">
+        <v>2</v>
+      </c>
+      <c r="AN102">
+        <v>1.42</v>
+      </c>
+      <c r="AO102">
+        <v>1.25</v>
+      </c>
+      <c r="AP102">
+        <v>1.55</v>
+      </c>
+      <c r="AQ102">
+        <v>0.83</v>
+      </c>
+      <c r="AR102">
+        <v>0.4</v>
+      </c>
+      <c r="AS102">
+        <v>0.71</v>
+      </c>
+      <c r="AT102">
+        <v>0.83</v>
+      </c>
+      <c r="AU102">
+        <v>1.35</v>
+      </c>
+      <c r="AV102">
+        <v>1.21</v>
+      </c>
+      <c r="AW102">
+        <v>2.56</v>
+      </c>
+      <c r="AX102">
+        <v>1.91</v>
+      </c>
+      <c r="AY102">
+        <v>7.5</v>
+      </c>
+      <c r="AZ102">
+        <v>2.2</v>
+      </c>
+      <c r="BA102">
+        <v>1.39</v>
+      </c>
+      <c r="BB102">
+        <v>1.7</v>
+      </c>
+      <c r="BC102">
+        <v>2.2</v>
+      </c>
+      <c r="BD102">
+        <v>2.95</v>
+      </c>
+      <c r="BE102">
+        <v>4.1</v>
+      </c>
+      <c r="BF102">
+        <v>7</v>
+      </c>
+      <c r="BG102">
+        <v>5</v>
+      </c>
+      <c r="BH102">
+        <v>9</v>
+      </c>
+      <c r="BI102">
+        <v>1</v>
+      </c>
+      <c r="BJ102">
+        <v>16</v>
+      </c>
+      <c r="BK102">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,9 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['5', '12', '61', '86']</t>
+  </si>
+  <si>
     <t>['26']</t>
   </si>
   <si>
@@ -644,6 +647,15 @@
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['29', '49', '82']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['44', '65']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK102"/>
+  <dimension ref="A1:BK105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1261,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1440,7 +1452,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1530,7 +1542,7 @@
         <v>0.83</v>
       </c>
       <c r="AT3">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1631,7 +1643,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1721,7 +1733,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1822,7 +1834,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1909,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT5">
         <v>0.71</v>
@@ -2013,7 +2025,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2103,7 +2115,7 @@
         <v>1.43</v>
       </c>
       <c r="AT6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2204,7 +2216,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2586,7 +2598,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2673,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT9">
         <v>0.14</v>
@@ -2777,7 +2789,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3159,7 +3171,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3437,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT13">
         <v>0.29</v>
@@ -3923,7 +3935,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4114,7 +4126,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4392,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT18">
         <v>1.29</v>
@@ -4496,7 +4508,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4687,7 +4699,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4878,7 +4890,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -4968,7 +4980,7 @@
         <v>0.71</v>
       </c>
       <c r="AT21">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5159,7 +5171,7 @@
         <v>2.14</v>
       </c>
       <c r="AT22">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU22">
         <v>0.9</v>
@@ -5350,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU23">
         <v>1.2</v>
@@ -5451,7 +5463,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5538,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT24">
         <v>1.67</v>
@@ -5920,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -6024,7 +6036,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6215,7 +6227,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6305,7 +6317,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU28">
         <v>1.28</v>
@@ -6406,7 +6418,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6597,7 +6609,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6684,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT30">
         <v>0.83</v>
@@ -6979,7 +6991,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7170,7 +7182,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7830,7 +7842,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT36">
         <v>1.33</v>
@@ -8125,7 +8137,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8316,7 +8328,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8597,7 +8609,7 @@
         <v>1.86</v>
       </c>
       <c r="AT40">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU40">
         <v>1.52</v>
@@ -8788,7 +8800,7 @@
         <v>1.17</v>
       </c>
       <c r="AT41">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU41">
         <v>1.68</v>
@@ -9080,7 +9092,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9271,7 +9283,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9358,7 +9370,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT44">
         <v>2.17</v>
@@ -9549,7 +9561,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT45">
         <v>1.67</v>
@@ -9653,7 +9665,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10035,7 +10047,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10226,7 +10238,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10417,7 +10429,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10608,7 +10620,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10695,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT51">
         <v>0.17</v>
@@ -10990,7 +11002,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11080,7 +11092,7 @@
         <v>2.14</v>
       </c>
       <c r="AT53">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU53">
         <v>1.79</v>
@@ -11181,7 +11193,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11271,7 +11283,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU54">
         <v>1.05</v>
@@ -11841,7 +11853,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT57">
         <v>0.29</v>
@@ -11945,7 +11957,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12035,7 +12047,7 @@
         <v>0.83</v>
       </c>
       <c r="AT58">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU58">
         <v>1.74</v>
@@ -12327,7 +12339,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12518,7 +12530,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12608,7 +12620,7 @@
         <v>0.71</v>
       </c>
       <c r="AT61">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU61">
         <v>1.29</v>
@@ -12709,7 +12721,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13091,7 +13103,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13282,7 +13294,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13372,7 +13384,7 @@
         <v>0.67</v>
       </c>
       <c r="AT65">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU65">
         <v>1.25</v>
@@ -13473,7 +13485,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13664,7 +13676,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13751,7 +13763,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT67">
         <v>1.33</v>
@@ -14046,7 +14058,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14324,7 +14336,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT70">
         <v>0.2</v>
@@ -14428,7 +14440,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14810,7 +14822,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15192,7 +15204,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15383,7 +15395,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15574,7 +15586,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15765,7 +15777,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15956,7 +15968,7 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16147,7 +16159,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16234,7 +16246,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT80">
         <v>0.71</v>
@@ -16338,7 +16350,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16428,7 +16440,7 @@
         <v>1.67</v>
       </c>
       <c r="AT81">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU81">
         <v>1.53</v>
@@ -16720,7 +16732,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -16807,10 +16819,10 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT83">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU83">
         <v>1.68</v>
@@ -17001,7 +17013,7 @@
         <v>2.17</v>
       </c>
       <c r="AT84">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU84">
         <v>1.93</v>
@@ -17189,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT85">
         <v>0.17</v>
@@ -17293,7 +17305,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17484,7 +17496,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17866,7 +17878,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18057,7 +18069,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18248,7 +18260,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18630,7 +18642,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18821,7 +18833,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19012,7 +19024,7 @@
         <v>130</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19203,7 +19215,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19394,7 +19406,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19720,13 +19732,13 @@
         <v>9</v>
       </c>
       <c r="BI98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ98">
         <v>14</v>
       </c>
       <c r="BK98">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:63">
@@ -19967,7 +19979,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20293,13 +20305,13 @@
         <v>2</v>
       </c>
       <c r="BI101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ101">
         <v>10</v>
       </c>
       <c r="BK101">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:63">
@@ -20349,7 +20361,7 @@
         <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -20491,6 +20503,579 @@
       </c>
       <c r="BK102">
         <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>5845544</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45106.35763888889</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>72</v>
+      </c>
+      <c r="H103" t="s">
+        <v>75</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>82</v>
+      </c>
+      <c r="P103" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>6</v>
+      </c>
+      <c r="S103">
+        <v>7</v>
+      </c>
+      <c r="T103">
+        <v>8</v>
+      </c>
+      <c r="U103">
+        <v>2.5</v>
+      </c>
+      <c r="V103">
+        <v>1.8</v>
+      </c>
+      <c r="W103">
+        <v>1.3</v>
+      </c>
+      <c r="X103">
+        <v>3.4</v>
+      </c>
+      <c r="Y103">
+        <v>2.5</v>
+      </c>
+      <c r="Z103">
+        <v>1.5</v>
+      </c>
+      <c r="AA103">
+        <v>6</v>
+      </c>
+      <c r="AB103">
+        <v>1.13</v>
+      </c>
+      <c r="AC103">
+        <v>8.85</v>
+      </c>
+      <c r="AD103">
+        <v>5</v>
+      </c>
+      <c r="AE103">
+        <v>1.34</v>
+      </c>
+      <c r="AF103">
+        <v>1.03</v>
+      </c>
+      <c r="AG103">
+        <v>12</v>
+      </c>
+      <c r="AH103">
+        <v>1.22</v>
+      </c>
+      <c r="AI103">
+        <v>4</v>
+      </c>
+      <c r="AJ103">
+        <v>1.69</v>
+      </c>
+      <c r="AK103">
+        <v>2.17</v>
+      </c>
+      <c r="AL103">
+        <v>2</v>
+      </c>
+      <c r="AM103">
+        <v>1.75</v>
+      </c>
+      <c r="AN103">
+        <v>3.28</v>
+      </c>
+      <c r="AO103">
+        <v>1.16</v>
+      </c>
+      <c r="AP103">
+        <v>1.06</v>
+      </c>
+      <c r="AQ103">
+        <v>1.43</v>
+      </c>
+      <c r="AR103">
+        <v>1.8</v>
+      </c>
+      <c r="AS103">
+        <v>1.25</v>
+      </c>
+      <c r="AT103">
+        <v>2</v>
+      </c>
+      <c r="AU103">
+        <v>1.27</v>
+      </c>
+      <c r="AV103">
+        <v>1.29</v>
+      </c>
+      <c r="AW103">
+        <v>2.56</v>
+      </c>
+      <c r="AX103">
+        <v>5</v>
+      </c>
+      <c r="AY103">
+        <v>10</v>
+      </c>
+      <c r="AZ103">
+        <v>1.22</v>
+      </c>
+      <c r="BA103">
+        <v>1.36</v>
+      </c>
+      <c r="BB103">
+        <v>1.72</v>
+      </c>
+      <c r="BC103">
+        <v>2.22</v>
+      </c>
+      <c r="BD103">
+        <v>3</v>
+      </c>
+      <c r="BE103">
+        <v>4.1</v>
+      </c>
+      <c r="BF103">
+        <v>3</v>
+      </c>
+      <c r="BG103">
+        <v>7</v>
+      </c>
+      <c r="BH103">
+        <v>1</v>
+      </c>
+      <c r="BI103">
+        <v>7</v>
+      </c>
+      <c r="BJ103">
+        <v>4</v>
+      </c>
+      <c r="BK103">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>5845542</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45106.35763888889</v>
+      </c>
+      <c r="F104">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>74</v>
+      </c>
+      <c r="H104" t="s">
+        <v>77</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>4</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>5</v>
+      </c>
+      <c r="O104" t="s">
+        <v>149</v>
+      </c>
+      <c r="P104" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q104">
+        <v>4</v>
+      </c>
+      <c r="R104">
+        <v>5</v>
+      </c>
+      <c r="S104">
+        <v>9</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
+        <v>2.5</v>
+      </c>
+      <c r="V104">
+        <v>5.5</v>
+      </c>
+      <c r="W104">
+        <v>1.29</v>
+      </c>
+      <c r="X104">
+        <v>3.5</v>
+      </c>
+      <c r="Y104">
+        <v>2.25</v>
+      </c>
+      <c r="Z104">
+        <v>1.57</v>
+      </c>
+      <c r="AA104">
+        <v>5.5</v>
+      </c>
+      <c r="AB104">
+        <v>1.14</v>
+      </c>
+      <c r="AC104">
+        <v>1.67</v>
+      </c>
+      <c r="AD104">
+        <v>4.31</v>
+      </c>
+      <c r="AE104">
+        <v>3.61</v>
+      </c>
+      <c r="AF104">
+        <v>1.02</v>
+      </c>
+      <c r="AG104">
+        <v>10</v>
+      </c>
+      <c r="AH104">
+        <v>1.14</v>
+      </c>
+      <c r="AI104">
+        <v>4.65</v>
+      </c>
+      <c r="AJ104">
+        <v>1.6</v>
+      </c>
+      <c r="AK104">
+        <v>2.2</v>
+      </c>
+      <c r="AL104">
+        <v>1.67</v>
+      </c>
+      <c r="AM104">
+        <v>2.1</v>
+      </c>
+      <c r="AN104">
+        <v>1.14</v>
+      </c>
+      <c r="AO104">
+        <v>1.2</v>
+      </c>
+      <c r="AP104">
+        <v>2.54</v>
+      </c>
+      <c r="AQ104">
+        <v>2.5</v>
+      </c>
+      <c r="AR104">
+        <v>1.67</v>
+      </c>
+      <c r="AS104">
+        <v>2.6</v>
+      </c>
+      <c r="AT104">
+        <v>1.43</v>
+      </c>
+      <c r="AU104">
+        <v>2.05</v>
+      </c>
+      <c r="AV104">
+        <v>1.44</v>
+      </c>
+      <c r="AW104">
+        <v>3.49</v>
+      </c>
+      <c r="AX104">
+        <v>1.25</v>
+      </c>
+      <c r="AY104">
+        <v>9.5</v>
+      </c>
+      <c r="AZ104">
+        <v>4.5</v>
+      </c>
+      <c r="BA104">
+        <v>1.32</v>
+      </c>
+      <c r="BB104">
+        <v>1.61</v>
+      </c>
+      <c r="BC104">
+        <v>2.1</v>
+      </c>
+      <c r="BD104">
+        <v>2.77</v>
+      </c>
+      <c r="BE104">
+        <v>4</v>
+      </c>
+      <c r="BF104">
+        <v>6</v>
+      </c>
+      <c r="BG104">
+        <v>6</v>
+      </c>
+      <c r="BH104">
+        <v>4</v>
+      </c>
+      <c r="BI104">
+        <v>3</v>
+      </c>
+      <c r="BJ104">
+        <v>10</v>
+      </c>
+      <c r="BK104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>5845543</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45106.35763888889</v>
+      </c>
+      <c r="F105">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>68</v>
+      </c>
+      <c r="H105" t="s">
+        <v>76</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>108</v>
+      </c>
+      <c r="P105" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q105">
+        <v>2</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>4</v>
+      </c>
+      <c r="T105">
+        <v>3.6</v>
+      </c>
+      <c r="U105">
+        <v>2.38</v>
+      </c>
+      <c r="V105">
+        <v>2.63</v>
+      </c>
+      <c r="W105">
+        <v>1.3</v>
+      </c>
+      <c r="X105">
+        <v>3.4</v>
+      </c>
+      <c r="Y105">
+        <v>2.38</v>
+      </c>
+      <c r="Z105">
+        <v>1.53</v>
+      </c>
+      <c r="AA105">
+        <v>6</v>
+      </c>
+      <c r="AB105">
+        <v>1.13</v>
+      </c>
+      <c r="AC105">
+        <v>2.57</v>
+      </c>
+      <c r="AD105">
+        <v>2.87</v>
+      </c>
+      <c r="AE105">
+        <v>2.7</v>
+      </c>
+      <c r="AF105">
+        <v>1.03</v>
+      </c>
+      <c r="AG105">
+        <v>9</v>
+      </c>
+      <c r="AH105">
+        <v>1.17</v>
+      </c>
+      <c r="AI105">
+        <v>4.3</v>
+      </c>
+      <c r="AJ105">
+        <v>1.67</v>
+      </c>
+      <c r="AK105">
+        <v>2.1</v>
+      </c>
+      <c r="AL105">
+        <v>1.53</v>
+      </c>
+      <c r="AM105">
+        <v>2.38</v>
+      </c>
+      <c r="AN105">
+        <v>1.75</v>
+      </c>
+      <c r="AO105">
+        <v>1.27</v>
+      </c>
+      <c r="AP105">
+        <v>1.33</v>
+      </c>
+      <c r="AQ105">
+        <v>2</v>
+      </c>
+      <c r="AR105">
+        <v>2.67</v>
+      </c>
+      <c r="AS105">
+        <v>1.71</v>
+      </c>
+      <c r="AT105">
+        <v>2.71</v>
+      </c>
+      <c r="AU105">
+        <v>1.81</v>
+      </c>
+      <c r="AV105">
+        <v>1.52</v>
+      </c>
+      <c r="AW105">
+        <v>3.33</v>
+      </c>
+      <c r="AX105">
+        <v>2.2</v>
+      </c>
+      <c r="AY105">
+        <v>8</v>
+      </c>
+      <c r="AZ105">
+        <v>1.91</v>
+      </c>
+      <c r="BA105">
+        <v>1.3</v>
+      </c>
+      <c r="BB105">
+        <v>1.49</v>
+      </c>
+      <c r="BC105">
+        <v>1.93</v>
+      </c>
+      <c r="BD105">
+        <v>2.37</v>
+      </c>
+      <c r="BE105">
+        <v>3.3</v>
+      </c>
+      <c r="BF105">
+        <v>3</v>
+      </c>
+      <c r="BG105">
+        <v>5</v>
+      </c>
+      <c r="BH105">
+        <v>1</v>
+      </c>
+      <c r="BI105">
+        <v>4</v>
+      </c>
+      <c r="BJ105">
+        <v>4</v>
+      </c>
+      <c r="BK105">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,7 +466,22 @@
     <t>['5', '12', '61', '86']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['6', '45+1']</t>
+  </si>
+  <si>
+    <t>['50', '90']</t>
+  </si>
+  <si>
     <t>['26']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['9', '40', '51']</t>
   </si>
   <si>
     <t>['64', '79']</t>
@@ -601,9 +616,6 @@
     <t>['27']</t>
   </si>
   <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
     <t>['8', '32']</t>
   </si>
   <si>
@@ -634,9 +646,6 @@
     <t>['8']</t>
   </si>
   <si>
-    <t>['42']</t>
-  </si>
-  <si>
     <t>['41', '51', '87']</t>
   </si>
   <si>
@@ -656,6 +665,24 @@
   </si>
   <si>
     <t>['44', '65']</t>
+  </si>
+  <si>
+    <t>['63', '85']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['23', '90+9']</t>
+  </si>
+  <si>
+    <t>['36', '61', '63']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK105"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,7 +1288,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1452,7 +1479,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1542,7 +1569,7 @@
         <v>0.83</v>
       </c>
       <c r="AT3">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1643,7 +1670,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1834,7 +1861,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1924,7 +1951,7 @@
         <v>1.71</v>
       </c>
       <c r="AT5">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2025,7 +2052,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2216,7 +2243,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2494,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2598,7 +2625,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2685,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT9">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2789,7 +2816,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2879,7 +2906,7 @@
         <v>0.83</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU10">
         <v>1.22</v>
@@ -3070,7 +3097,7 @@
         <v>1.86</v>
       </c>
       <c r="AT11">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU11">
         <v>1.76</v>
@@ -3171,7 +3198,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3449,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT13">
         <v>0.29</v>
@@ -3643,7 +3670,7 @@
         <v>1.43</v>
       </c>
       <c r="AT14">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU14">
         <v>0.63</v>
@@ -3831,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT15">
         <v>1.33</v>
@@ -3935,7 +3962,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4126,7 +4153,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4213,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT17">
         <v>0.17</v>
@@ -4404,10 +4431,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT18">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU18">
         <v>2.82</v>
@@ -4508,7 +4535,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4598,7 +4625,7 @@
         <v>0.67</v>
       </c>
       <c r="AT19">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU19">
         <v>1.1</v>
@@ -4699,7 +4726,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4789,7 +4816,7 @@
         <v>1.17</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4890,7 +4917,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -4977,10 +5004,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT21">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5168,7 +5195,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT22">
         <v>1.43</v>
@@ -5463,7 +5490,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5550,10 +5577,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT24">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU24">
         <v>0.62</v>
@@ -5741,10 +5768,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT25">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6036,7 +6063,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6126,7 +6153,7 @@
         <v>1.17</v>
       </c>
       <c r="AT27">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU27">
         <v>0.92</v>
@@ -6227,7 +6254,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6418,7 +6445,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6505,10 +6532,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT29">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU29">
         <v>1.36</v>
@@ -6609,7 +6636,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6696,10 +6723,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT30">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU30">
         <v>0.9399999999999999</v>
@@ -6887,7 +6914,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT31">
         <v>0.29</v>
@@ -6991,7 +7018,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7182,7 +7209,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7272,7 +7299,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -7463,7 +7490,7 @@
         <v>1.43</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU34">
         <v>0.89</v>
@@ -7651,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT35">
         <v>0.17</v>
@@ -7842,7 +7869,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT36">
         <v>1.33</v>
@@ -8036,7 +8063,7 @@
         <v>0.83</v>
       </c>
       <c r="AT37">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU37">
         <v>1.33</v>
@@ -8137,7 +8164,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8328,7 +8355,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8415,10 +8442,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT39">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU39">
         <v>1.33</v>
@@ -8609,7 +8636,7 @@
         <v>1.86</v>
       </c>
       <c r="AT40">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AU40">
         <v>1.52</v>
@@ -8797,7 +8824,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT41">
         <v>1.43</v>
@@ -8991,7 +9018,7 @@
         <v>1.43</v>
       </c>
       <c r="AT42">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU42">
         <v>0.98</v>
@@ -9092,7 +9119,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9283,7 +9310,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9370,7 +9397,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT44">
         <v>2.17</v>
@@ -9564,7 +9591,7 @@
         <v>1.71</v>
       </c>
       <c r="AT45">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU45">
         <v>1.29</v>
@@ -9665,7 +9692,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9752,10 +9779,10 @@
         <v>0.33</v>
       </c>
       <c r="AS46">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT46">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU46">
         <v>2.21</v>
@@ -9946,7 +9973,7 @@
         <v>2.17</v>
       </c>
       <c r="AT47">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU47">
         <v>1.61</v>
@@ -10047,7 +10074,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10134,7 +10161,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10238,7 +10265,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10325,10 +10352,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT49">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU49">
         <v>1.37</v>
@@ -10429,7 +10456,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10516,10 +10543,10 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT50">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU50">
         <v>1.37</v>
@@ -10620,7 +10647,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10707,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT51">
         <v>0.17</v>
@@ -10901,7 +10928,7 @@
         <v>1.17</v>
       </c>
       <c r="AT52">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU52">
         <v>0.87</v>
@@ -11002,7 +11029,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11089,7 +11116,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT53">
         <v>1.43</v>
@@ -11193,7 +11220,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11283,7 +11310,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AU54">
         <v>1.05</v>
@@ -11474,7 +11501,7 @@
         <v>1.86</v>
       </c>
       <c r="AT55">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11662,7 +11689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -11957,7 +11984,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12235,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT59">
         <v>0.2</v>
@@ -12339,7 +12366,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12429,7 +12456,7 @@
         <v>1.17</v>
       </c>
       <c r="AT60">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU60">
         <v>1.42</v>
@@ -12530,7 +12557,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12617,7 +12644,7 @@
         <v>1.75</v>
       </c>
       <c r="AS61">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT61">
         <v>1.43</v>
@@ -12721,7 +12748,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12808,10 +12835,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU62">
         <v>1.38</v>
@@ -13103,7 +13130,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13294,7 +13321,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13384,7 +13411,7 @@
         <v>0.67</v>
       </c>
       <c r="AT65">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AU65">
         <v>1.25</v>
@@ -13485,7 +13512,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13572,7 +13599,7 @@
         <v>2.33</v>
       </c>
       <c r="AS66">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT66">
         <v>2.17</v>
@@ -13676,7 +13703,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13954,10 +13981,10 @@
         <v>0.25</v>
       </c>
       <c r="AS68">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT68">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU68">
         <v>1.59</v>
@@ -14058,7 +14085,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14145,10 +14172,10 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT69">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU69">
         <v>2.04</v>
@@ -14336,7 +14363,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT70">
         <v>0.2</v>
@@ -14440,7 +14467,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14530,7 +14557,7 @@
         <v>2.17</v>
       </c>
       <c r="AT71">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -14721,7 +14748,7 @@
         <v>0.67</v>
       </c>
       <c r="AT72">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU72">
         <v>1.13</v>
@@ -14822,7 +14849,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -14912,7 +14939,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU73">
         <v>1.24</v>
@@ -15100,7 +15127,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT74">
         <v>0.29</v>
@@ -15204,7 +15231,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15291,10 +15318,10 @@
         <v>2.2</v>
       </c>
       <c r="AS75">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT75">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU75">
         <v>1.54</v>
@@ -15395,7 +15422,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15485,7 +15512,7 @@
         <v>1.5</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU76">
         <v>1.15</v>
@@ -15586,7 +15613,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15777,7 +15804,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15864,10 +15891,10 @@
         <v>0.25</v>
       </c>
       <c r="AS78">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT78">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU78">
         <v>1.38</v>
@@ -15968,7 +15995,7 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16058,7 +16085,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU79">
         <v>1.38</v>
@@ -16159,7 +16186,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16246,10 +16273,10 @@
         <v>1.25</v>
       </c>
       <c r="AS80">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT80">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU80">
         <v>1.17</v>
@@ -16350,7 +16377,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16437,10 +16464,10 @@
         <v>2.6</v>
       </c>
       <c r="AS81">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT81">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AU81">
         <v>1.53</v>
@@ -16732,7 +16759,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -17201,7 +17228,7 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT85">
         <v>0.17</v>
@@ -17305,7 +17332,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17395,7 +17422,7 @@
         <v>1.43</v>
       </c>
       <c r="AT86">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU86">
         <v>1.08</v>
@@ -17496,7 +17523,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17583,7 +17610,7 @@
         <v>1.75</v>
       </c>
       <c r="AS87">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT87">
         <v>2.17</v>
@@ -17774,10 +17801,10 @@
         <v>0.2</v>
       </c>
       <c r="AS88">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT88">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU88">
         <v>1.9</v>
@@ -17878,7 +17905,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -17968,7 +17995,7 @@
         <v>1.86</v>
       </c>
       <c r="AT89">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU89">
         <v>1.26</v>
@@ -18069,7 +18096,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18260,7 +18287,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18347,7 +18374,7 @@
         <v>0.25</v>
       </c>
       <c r="AS91">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT91">
         <v>0.2</v>
@@ -18538,10 +18565,10 @@
         <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT92">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU92">
         <v>1.73</v>
@@ -18642,7 +18669,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18732,7 +18759,7 @@
         <v>1.43</v>
       </c>
       <c r="AT93">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU93">
         <v>1.1</v>
@@ -18833,7 +18860,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19024,7 +19051,7 @@
         <v>130</v>
       </c>
       <c r="P95" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19215,7 +19242,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19406,7 +19433,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19496,7 +19523,7 @@
         <v>1</v>
       </c>
       <c r="AT97">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU97">
         <v>1.38</v>
@@ -19878,7 +19905,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU99">
         <v>1.45</v>
@@ -19979,7 +20006,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20069,7 +20096,7 @@
         <v>1.86</v>
       </c>
       <c r="AT100">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AU100">
         <v>1.25</v>
@@ -20257,7 +20284,7 @@
         <v>0.33</v>
       </c>
       <c r="AS101">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT101">
         <v>0.29</v>
@@ -20361,7 +20388,7 @@
         <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -20448,10 +20475,10 @@
         <v>0.4</v>
       </c>
       <c r="AS102">
+        <v>1</v>
+      </c>
+      <c r="AT102">
         <v>0.71</v>
-      </c>
-      <c r="AT102">
-        <v>0.83</v>
       </c>
       <c r="AU102">
         <v>1.35</v>
@@ -20552,7 +20579,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20639,7 +20666,7 @@
         <v>1.8</v>
       </c>
       <c r="AS103">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT103">
         <v>2</v>
@@ -20743,7 +20770,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20830,7 +20857,7 @@
         <v>1.67</v>
       </c>
       <c r="AS104">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT104">
         <v>1.43</v>
@@ -20872,7 +20899,7 @@
         <v>6</v>
       </c>
       <c r="BG104">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH104">
         <v>4</v>
@@ -20884,7 +20911,7 @@
         <v>10</v>
       </c>
       <c r="BK104">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:63">
@@ -20934,7 +20961,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21024,7 +21051,7 @@
         <v>1.71</v>
       </c>
       <c r="AT105">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AU105">
         <v>1.81</v>
@@ -21076,6 +21103,1534 @@
       </c>
       <c r="BK105">
         <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>5845545</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45109.27083333334</v>
+      </c>
+      <c r="F106">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>71</v>
+      </c>
+      <c r="H106" t="s">
+        <v>70</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>123</v>
+      </c>
+      <c r="P106" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q106">
+        <v>2</v>
+      </c>
+      <c r="R106">
+        <v>8</v>
+      </c>
+      <c r="S106">
+        <v>10</v>
+      </c>
+      <c r="T106">
+        <v>2.6</v>
+      </c>
+      <c r="U106">
+        <v>2.05</v>
+      </c>
+      <c r="V106">
+        <v>4.75</v>
+      </c>
+      <c r="W106">
+        <v>1.44</v>
+      </c>
+      <c r="X106">
+        <v>2.63</v>
+      </c>
+      <c r="Y106">
+        <v>3.25</v>
+      </c>
+      <c r="Z106">
+        <v>1.33</v>
+      </c>
+      <c r="AA106">
+        <v>10</v>
+      </c>
+      <c r="AB106">
+        <v>1.06</v>
+      </c>
+      <c r="AC106">
+        <v>1.81</v>
+      </c>
+      <c r="AD106">
+        <v>3.25</v>
+      </c>
+      <c r="AE106">
+        <v>3.9</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106">
+        <v>0</v>
+      </c>
+      <c r="AH106">
+        <v>1.5</v>
+      </c>
+      <c r="AI106">
+        <v>2.45</v>
+      </c>
+      <c r="AJ106">
+        <v>2.38</v>
+      </c>
+      <c r="AK106">
+        <v>1.51</v>
+      </c>
+      <c r="AL106">
+        <v>2</v>
+      </c>
+      <c r="AM106">
+        <v>1.75</v>
+      </c>
+      <c r="AN106">
+        <v>0</v>
+      </c>
+      <c r="AO106">
+        <v>0</v>
+      </c>
+      <c r="AP106">
+        <v>0</v>
+      </c>
+      <c r="AQ106">
+        <v>2.14</v>
+      </c>
+      <c r="AR106">
+        <v>1.67</v>
+      </c>
+      <c r="AS106">
+        <v>1.88</v>
+      </c>
+      <c r="AT106">
+        <v>1.86</v>
+      </c>
+      <c r="AU106">
+        <v>1.52</v>
+      </c>
+      <c r="AV106">
+        <v>1.12</v>
+      </c>
+      <c r="AW106">
+        <v>2.64</v>
+      </c>
+      <c r="AX106">
+        <v>0</v>
+      </c>
+      <c r="AY106">
+        <v>0</v>
+      </c>
+      <c r="AZ106">
+        <v>0</v>
+      </c>
+      <c r="BA106">
+        <v>0</v>
+      </c>
+      <c r="BB106">
+        <v>0</v>
+      </c>
+      <c r="BC106">
+        <v>0</v>
+      </c>
+      <c r="BD106">
+        <v>0</v>
+      </c>
+      <c r="BE106">
+        <v>0</v>
+      </c>
+      <c r="BF106">
+        <v>5</v>
+      </c>
+      <c r="BG106">
+        <v>4</v>
+      </c>
+      <c r="BH106">
+        <v>9</v>
+      </c>
+      <c r="BI106">
+        <v>6</v>
+      </c>
+      <c r="BJ106">
+        <v>14</v>
+      </c>
+      <c r="BK106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>5845546</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45109.35763888889</v>
+      </c>
+      <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>65</v>
+      </c>
+      <c r="H107" t="s">
+        <v>78</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>150</v>
+      </c>
+      <c r="P107" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q107">
+        <v>6</v>
+      </c>
+      <c r="R107">
+        <v>6</v>
+      </c>
+      <c r="S107">
+        <v>12</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
+        <v>2.2</v>
+      </c>
+      <c r="V107">
+        <v>4</v>
+      </c>
+      <c r="W107">
+        <v>1.4</v>
+      </c>
+      <c r="X107">
+        <v>2.75</v>
+      </c>
+      <c r="Y107">
+        <v>2.75</v>
+      </c>
+      <c r="Z107">
+        <v>1.4</v>
+      </c>
+      <c r="AA107">
+        <v>8</v>
+      </c>
+      <c r="AB107">
+        <v>1.08</v>
+      </c>
+      <c r="AC107">
+        <v>2.4</v>
+      </c>
+      <c r="AD107">
+        <v>3.21</v>
+      </c>
+      <c r="AE107">
+        <v>2.92</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <v>0</v>
+      </c>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
+        <v>1.92</v>
+      </c>
+      <c r="AK107">
+        <v>1.84</v>
+      </c>
+      <c r="AL107">
+        <v>1.75</v>
+      </c>
+      <c r="AM107">
+        <v>2</v>
+      </c>
+      <c r="AN107">
+        <v>0</v>
+      </c>
+      <c r="AO107">
+        <v>0</v>
+      </c>
+      <c r="AP107">
+        <v>0</v>
+      </c>
+      <c r="AQ107">
+        <v>1</v>
+      </c>
+      <c r="AR107">
+        <v>0.14</v>
+      </c>
+      <c r="AS107">
+        <v>1</v>
+      </c>
+      <c r="AT107">
+        <v>0.25</v>
+      </c>
+      <c r="AU107">
+        <v>1.28</v>
+      </c>
+      <c r="AV107">
+        <v>1.33</v>
+      </c>
+      <c r="AW107">
+        <v>2.61</v>
+      </c>
+      <c r="AX107">
+        <v>0</v>
+      </c>
+      <c r="AY107">
+        <v>0</v>
+      </c>
+      <c r="AZ107">
+        <v>0</v>
+      </c>
+      <c r="BA107">
+        <v>0</v>
+      </c>
+      <c r="BB107">
+        <v>0</v>
+      </c>
+      <c r="BC107">
+        <v>0</v>
+      </c>
+      <c r="BD107">
+        <v>0</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>3</v>
+      </c>
+      <c r="BG107">
+        <v>5</v>
+      </c>
+      <c r="BH107">
+        <v>4</v>
+      </c>
+      <c r="BI107">
+        <v>5</v>
+      </c>
+      <c r="BJ107">
+        <v>7</v>
+      </c>
+      <c r="BK107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>5845547</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45109.35763888889</v>
+      </c>
+      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>79</v>
+      </c>
+      <c r="H108" t="s">
+        <v>67</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>151</v>
+      </c>
+      <c r="P108" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q108">
+        <v>4</v>
+      </c>
+      <c r="R108">
+        <v>12</v>
+      </c>
+      <c r="S108">
+        <v>16</v>
+      </c>
+      <c r="T108">
+        <v>3.6</v>
+      </c>
+      <c r="U108">
+        <v>2.2</v>
+      </c>
+      <c r="V108">
+        <v>2.88</v>
+      </c>
+      <c r="W108">
+        <v>1.36</v>
+      </c>
+      <c r="X108">
+        <v>3</v>
+      </c>
+      <c r="Y108">
+        <v>2.63</v>
+      </c>
+      <c r="Z108">
+        <v>1.44</v>
+      </c>
+      <c r="AA108">
+        <v>7</v>
+      </c>
+      <c r="AB108">
+        <v>1.1</v>
+      </c>
+      <c r="AC108">
+        <v>2.83</v>
+      </c>
+      <c r="AD108">
+        <v>3.24</v>
+      </c>
+      <c r="AE108">
+        <v>2.6</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
+        <v>1.8</v>
+      </c>
+      <c r="AK108">
+        <v>1.96</v>
+      </c>
+      <c r="AL108">
+        <v>1.67</v>
+      </c>
+      <c r="AM108">
+        <v>2.1</v>
+      </c>
+      <c r="AN108">
+        <v>0</v>
+      </c>
+      <c r="AO108">
+        <v>0</v>
+      </c>
+      <c r="AP108">
+        <v>0</v>
+      </c>
+      <c r="AQ108">
+        <v>0.71</v>
+      </c>
+      <c r="AR108">
+        <v>1.29</v>
+      </c>
+      <c r="AS108">
+        <v>1</v>
+      </c>
+      <c r="AT108">
+        <v>1.13</v>
+      </c>
+      <c r="AU108">
+        <v>1.41</v>
+      </c>
+      <c r="AV108">
+        <v>1.56</v>
+      </c>
+      <c r="AW108">
+        <v>2.97</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>0</v>
+      </c>
+      <c r="AZ108">
+        <v>0</v>
+      </c>
+      <c r="BA108">
+        <v>0</v>
+      </c>
+      <c r="BB108">
+        <v>0</v>
+      </c>
+      <c r="BC108">
+        <v>0</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>8</v>
+      </c>
+      <c r="BG108">
+        <v>8</v>
+      </c>
+      <c r="BH108">
+        <v>4</v>
+      </c>
+      <c r="BI108">
+        <v>6</v>
+      </c>
+      <c r="BJ108">
+        <v>12</v>
+      </c>
+      <c r="BK108">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>5845548</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45109.35763888889</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>80</v>
+      </c>
+      <c r="H109" t="s">
+        <v>73</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>152</v>
+      </c>
+      <c r="P109" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q109">
+        <v>17</v>
+      </c>
+      <c r="R109">
+        <v>3</v>
+      </c>
+      <c r="S109">
+        <v>20</v>
+      </c>
+      <c r="T109">
+        <v>3.1</v>
+      </c>
+      <c r="U109">
+        <v>2.1</v>
+      </c>
+      <c r="V109">
+        <v>3.5</v>
+      </c>
+      <c r="W109">
+        <v>1.4</v>
+      </c>
+      <c r="X109">
+        <v>2.75</v>
+      </c>
+      <c r="Y109">
+        <v>3</v>
+      </c>
+      <c r="Z109">
+        <v>1.36</v>
+      </c>
+      <c r="AA109">
+        <v>8</v>
+      </c>
+      <c r="AB109">
+        <v>1.08</v>
+      </c>
+      <c r="AC109">
+        <v>2.18</v>
+      </c>
+      <c r="AD109">
+        <v>3.3</v>
+      </c>
+      <c r="AE109">
+        <v>2.86</v>
+      </c>
+      <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
+        <v>0</v>
+      </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
+        <v>2.05</v>
+      </c>
+      <c r="AK109">
+        <v>1.7</v>
+      </c>
+      <c r="AL109">
+        <v>1.8</v>
+      </c>
+      <c r="AM109">
+        <v>1.95</v>
+      </c>
+      <c r="AN109">
+        <v>0</v>
+      </c>
+      <c r="AO109">
+        <v>0</v>
+      </c>
+      <c r="AP109">
+        <v>0</v>
+      </c>
+      <c r="AQ109">
+        <v>1.17</v>
+      </c>
+      <c r="AR109">
+        <v>0.71</v>
+      </c>
+      <c r="AS109">
+        <v>1.14</v>
+      </c>
+      <c r="AT109">
+        <v>0.75</v>
+      </c>
+      <c r="AU109">
+        <v>1.91</v>
+      </c>
+      <c r="AV109">
+        <v>1.17</v>
+      </c>
+      <c r="AW109">
+        <v>3.08</v>
+      </c>
+      <c r="AX109">
+        <v>0</v>
+      </c>
+      <c r="AY109">
+        <v>0</v>
+      </c>
+      <c r="AZ109">
+        <v>0</v>
+      </c>
+      <c r="BA109">
+        <v>0</v>
+      </c>
+      <c r="BB109">
+        <v>0</v>
+      </c>
+      <c r="BC109">
+        <v>0</v>
+      </c>
+      <c r="BD109">
+        <v>0</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>9</v>
+      </c>
+      <c r="BG109">
+        <v>4</v>
+      </c>
+      <c r="BH109">
+        <v>12</v>
+      </c>
+      <c r="BI109">
+        <v>3</v>
+      </c>
+      <c r="BJ109">
+        <v>21</v>
+      </c>
+      <c r="BK109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>5845549</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45110.35763888889</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110" t="s">
+        <v>66</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110" t="s">
+        <v>153</v>
+      </c>
+      <c r="P110" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>7</v>
+      </c>
+      <c r="S110">
+        <v>8</v>
+      </c>
+      <c r="T110">
+        <v>11</v>
+      </c>
+      <c r="U110">
+        <v>3.1</v>
+      </c>
+      <c r="V110">
+        <v>1.5</v>
+      </c>
+      <c r="W110">
+        <v>1.2</v>
+      </c>
+      <c r="X110">
+        <v>4.33</v>
+      </c>
+      <c r="Y110">
+        <v>1.91</v>
+      </c>
+      <c r="Z110">
+        <v>1.8</v>
+      </c>
+      <c r="AA110">
+        <v>4</v>
+      </c>
+      <c r="AB110">
+        <v>1.22</v>
+      </c>
+      <c r="AC110">
+        <v>23</v>
+      </c>
+      <c r="AD110">
+        <v>8</v>
+      </c>
+      <c r="AE110">
+        <v>1.07</v>
+      </c>
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
+        <v>1.36</v>
+      </c>
+      <c r="AK110">
+        <v>2.9</v>
+      </c>
+      <c r="AL110">
+        <v>2</v>
+      </c>
+      <c r="AM110">
+        <v>1.75</v>
+      </c>
+      <c r="AN110">
+        <v>0</v>
+      </c>
+      <c r="AO110">
+        <v>0</v>
+      </c>
+      <c r="AP110">
+        <v>0</v>
+      </c>
+      <c r="AQ110">
+        <v>1.25</v>
+      </c>
+      <c r="AR110">
+        <v>1.71</v>
+      </c>
+      <c r="AS110">
+        <v>1.11</v>
+      </c>
+      <c r="AT110">
+        <v>1.88</v>
+      </c>
+      <c r="AU110">
+        <v>1.18</v>
+      </c>
+      <c r="AV110">
+        <v>1.69</v>
+      </c>
+      <c r="AW110">
+        <v>2.87</v>
+      </c>
+      <c r="AX110">
+        <v>0</v>
+      </c>
+      <c r="AY110">
+        <v>0</v>
+      </c>
+      <c r="AZ110">
+        <v>0</v>
+      </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>0</v>
+      </c>
+      <c r="BC110">
+        <v>0</v>
+      </c>
+      <c r="BD110">
+        <v>0</v>
+      </c>
+      <c r="BE110">
+        <v>0</v>
+      </c>
+      <c r="BF110">
+        <v>6</v>
+      </c>
+      <c r="BG110">
+        <v>9</v>
+      </c>
+      <c r="BH110">
+        <v>5</v>
+      </c>
+      <c r="BI110">
+        <v>13</v>
+      </c>
+      <c r="BJ110">
+        <v>11</v>
+      </c>
+      <c r="BK110">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>5845550</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45110.35763888889</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>74</v>
+      </c>
+      <c r="H111" t="s">
+        <v>76</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>154</v>
+      </c>
+      <c r="P111" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q111">
+        <v>3</v>
+      </c>
+      <c r="R111">
+        <v>3</v>
+      </c>
+      <c r="S111">
+        <v>6</v>
+      </c>
+      <c r="T111">
+        <v>3.2</v>
+      </c>
+      <c r="U111">
+        <v>2.2</v>
+      </c>
+      <c r="V111">
+        <v>3.25</v>
+      </c>
+      <c r="W111">
+        <v>1.36</v>
+      </c>
+      <c r="X111">
+        <v>3</v>
+      </c>
+      <c r="Y111">
+        <v>2.75</v>
+      </c>
+      <c r="Z111">
+        <v>1.4</v>
+      </c>
+      <c r="AA111">
+        <v>8</v>
+      </c>
+      <c r="AB111">
+        <v>1.08</v>
+      </c>
+      <c r="AC111">
+        <v>2.45</v>
+      </c>
+      <c r="AD111">
+        <v>3.4</v>
+      </c>
+      <c r="AE111">
+        <v>2.5</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>0</v>
+      </c>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
+        <v>1.9</v>
+      </c>
+      <c r="AK111">
+        <v>1.8</v>
+      </c>
+      <c r="AL111">
+        <v>1.7</v>
+      </c>
+      <c r="AM111">
+        <v>2.05</v>
+      </c>
+      <c r="AN111">
+        <v>0</v>
+      </c>
+      <c r="AO111">
+        <v>0</v>
+      </c>
+      <c r="AP111">
+        <v>0</v>
+      </c>
+      <c r="AQ111">
+        <v>2.6</v>
+      </c>
+      <c r="AR111">
+        <v>2.71</v>
+      </c>
+      <c r="AS111">
+        <v>2.33</v>
+      </c>
+      <c r="AT111">
+        <v>2.5</v>
+      </c>
+      <c r="AU111">
+        <v>1.93</v>
+      </c>
+      <c r="AV111">
+        <v>1.48</v>
+      </c>
+      <c r="AW111">
+        <v>3.41</v>
+      </c>
+      <c r="AX111">
+        <v>0</v>
+      </c>
+      <c r="AY111">
+        <v>0</v>
+      </c>
+      <c r="AZ111">
+        <v>0</v>
+      </c>
+      <c r="BA111">
+        <v>0</v>
+      </c>
+      <c r="BB111">
+        <v>0</v>
+      </c>
+      <c r="BC111">
+        <v>0</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>4</v>
+      </c>
+      <c r="BG111">
+        <v>5</v>
+      </c>
+      <c r="BH111">
+        <v>6</v>
+      </c>
+      <c r="BI111">
+        <v>6</v>
+      </c>
+      <c r="BJ111">
+        <v>10</v>
+      </c>
+      <c r="BK111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>5845551</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45110.35763888889</v>
+      </c>
+      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>75</v>
+      </c>
+      <c r="H112" t="s">
+        <v>68</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>82</v>
+      </c>
+      <c r="P112" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q112">
+        <v>7</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>9</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
+        <v>2.2</v>
+      </c>
+      <c r="V112">
+        <v>4</v>
+      </c>
+      <c r="W112">
+        <v>1.4</v>
+      </c>
+      <c r="X112">
+        <v>2.75</v>
+      </c>
+      <c r="Y112">
+        <v>2.75</v>
+      </c>
+      <c r="Z112">
+        <v>1.4</v>
+      </c>
+      <c r="AA112">
+        <v>8</v>
+      </c>
+      <c r="AB112">
+        <v>1.08</v>
+      </c>
+      <c r="AC112">
+        <v>2.05</v>
+      </c>
+      <c r="AD112">
+        <v>3.4</v>
+      </c>
+      <c r="AE112">
+        <v>3.1</v>
+      </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <v>0</v>
+      </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
+        <v>1.95</v>
+      </c>
+      <c r="AK112">
+        <v>1.75</v>
+      </c>
+      <c r="AL112">
+        <v>1.75</v>
+      </c>
+      <c r="AM112">
+        <v>2</v>
+      </c>
+      <c r="AN112">
+        <v>0</v>
+      </c>
+      <c r="AO112">
+        <v>0</v>
+      </c>
+      <c r="AP112">
+        <v>0</v>
+      </c>
+      <c r="AQ112">
+        <v>2.14</v>
+      </c>
+      <c r="AR112">
+        <v>1</v>
+      </c>
+      <c r="AS112">
+        <v>1.88</v>
+      </c>
+      <c r="AT112">
+        <v>1.29</v>
+      </c>
+      <c r="AU112">
+        <v>1.75</v>
+      </c>
+      <c r="AV112">
+        <v>1.74</v>
+      </c>
+      <c r="AW112">
+        <v>3.49</v>
+      </c>
+      <c r="AX112">
+        <v>0</v>
+      </c>
+      <c r="AY112">
+        <v>0</v>
+      </c>
+      <c r="AZ112">
+        <v>0</v>
+      </c>
+      <c r="BA112">
+        <v>0</v>
+      </c>
+      <c r="BB112">
+        <v>0</v>
+      </c>
+      <c r="BC112">
+        <v>0</v>
+      </c>
+      <c r="BD112">
+        <v>0</v>
+      </c>
+      <c r="BE112">
+        <v>0</v>
+      </c>
+      <c r="BF112">
+        <v>7</v>
+      </c>
+      <c r="BG112">
+        <v>2</v>
+      </c>
+      <c r="BH112">
+        <v>17</v>
+      </c>
+      <c r="BI112">
+        <v>5</v>
+      </c>
+      <c r="BJ112">
+        <v>24</v>
+      </c>
+      <c r="BK112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>5845552</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45110.35763888889</v>
+      </c>
+      <c r="F113">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>77</v>
+      </c>
+      <c r="H113" t="s">
+        <v>69</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>3</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>155</v>
+      </c>
+      <c r="P113" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q113">
+        <v>5</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>7</v>
+      </c>
+      <c r="T113">
+        <v>2.88</v>
+      </c>
+      <c r="U113">
+        <v>2.2</v>
+      </c>
+      <c r="V113">
+        <v>3.75</v>
+      </c>
+      <c r="W113">
+        <v>1.36</v>
+      </c>
+      <c r="X113">
+        <v>3</v>
+      </c>
+      <c r="Y113">
+        <v>2.75</v>
+      </c>
+      <c r="Z113">
+        <v>1.4</v>
+      </c>
+      <c r="AA113">
+        <v>7</v>
+      </c>
+      <c r="AB113">
+        <v>1.1</v>
+      </c>
+      <c r="AC113">
+        <v>2.25</v>
+      </c>
+      <c r="AD113">
+        <v>3.3</v>
+      </c>
+      <c r="AE113">
+        <v>2.8</v>
+      </c>
+      <c r="AF113">
+        <v>0</v>
+      </c>
+      <c r="AG113">
+        <v>0</v>
+      </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
+        <v>1.8</v>
+      </c>
+      <c r="AK113">
+        <v>1.9</v>
+      </c>
+      <c r="AL113">
+        <v>1.7</v>
+      </c>
+      <c r="AM113">
+        <v>2.05</v>
+      </c>
+      <c r="AN113">
+        <v>0</v>
+      </c>
+      <c r="AO113">
+        <v>0</v>
+      </c>
+      <c r="AP113">
+        <v>0</v>
+      </c>
+      <c r="AQ113">
+        <v>1.67</v>
+      </c>
+      <c r="AR113">
+        <v>0.83</v>
+      </c>
+      <c r="AS113">
+        <v>1.86</v>
+      </c>
+      <c r="AT113">
+        <v>0.71</v>
+      </c>
+      <c r="AU113">
+        <v>1.68</v>
+      </c>
+      <c r="AV113">
+        <v>1.17</v>
+      </c>
+      <c r="AW113">
+        <v>2.85</v>
+      </c>
+      <c r="AX113">
+        <v>0</v>
+      </c>
+      <c r="AY113">
+        <v>0</v>
+      </c>
+      <c r="AZ113">
+        <v>0</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>0</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>6</v>
+      </c>
+      <c r="BG113">
+        <v>6</v>
+      </c>
+      <c r="BH113">
+        <v>6</v>
+      </c>
+      <c r="BI113">
+        <v>5</v>
+      </c>
+      <c r="BJ113">
+        <v>12</v>
+      </c>
+      <c r="BK113">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,15 @@
     <t>['9', '40', '51']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['45+5', '49', '87']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['64', '79']</t>
   </si>
   <si>
@@ -683,6 +692,9 @@
   </si>
   <si>
     <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['13']</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1479,7 +1491,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1670,7 +1682,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1757,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT4">
         <v>1.43</v>
@@ -1861,7 +1873,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2052,7 +2064,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2139,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2243,7 +2255,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2330,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT7">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2524,7 +2536,7 @@
         <v>1.88</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2625,7 +2637,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2816,7 +2828,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3094,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT11">
         <v>1.13</v>
@@ -3198,7 +3210,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3285,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT12">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3479,7 +3491,7 @@
         <v>2.33</v>
       </c>
       <c r="AT13">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3667,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT14">
         <v>0.25</v>
@@ -3861,7 +3873,7 @@
         <v>1.88</v>
       </c>
       <c r="AT15">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3962,7 +3974,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4153,7 +4165,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4535,7 +4547,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4622,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT19">
         <v>1.88</v>
@@ -4726,7 +4738,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4813,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT20">
         <v>1.29</v>
@@ -4917,7 +4929,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5389,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU23">
         <v>1.2</v>
@@ -5490,7 +5502,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5962,7 +5974,7 @@
         <v>1.71</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU26">
         <v>1.83</v>
@@ -6063,7 +6075,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6150,7 +6162,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT27">
         <v>1.88</v>
@@ -6254,7 +6266,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6341,10 +6353,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT28">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU28">
         <v>1.28</v>
@@ -6445,7 +6457,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6636,7 +6648,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6917,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU31">
         <v>1.23</v>
@@ -7018,7 +7030,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7108,7 +7120,7 @@
         <v>2.17</v>
       </c>
       <c r="AT32">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU32">
         <v>1.62</v>
@@ -7209,7 +7221,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7487,7 +7499,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT34">
         <v>1.29</v>
@@ -7872,7 +7884,7 @@
         <v>1.11</v>
       </c>
       <c r="AT36">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU36">
         <v>1.06</v>
@@ -8164,7 +8176,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8251,10 +8263,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU38">
         <v>1.32</v>
@@ -8355,7 +8367,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8633,7 +8645,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT40">
         <v>2.5</v>
@@ -9015,7 +9027,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT42">
         <v>1.88</v>
@@ -9119,7 +9131,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9209,7 +9221,7 @@
         <v>1</v>
       </c>
       <c r="AT43">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9310,7 +9322,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9400,7 +9412,7 @@
         <v>1.11</v>
       </c>
       <c r="AT44">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU44">
         <v>1.06</v>
@@ -9692,7 +9704,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10074,7 +10086,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10164,7 +10176,7 @@
         <v>1.88</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU48">
         <v>1.82</v>
@@ -10265,7 +10277,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10456,7 +10468,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10647,7 +10659,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10925,7 +10937,7 @@
         <v>1.67</v>
       </c>
       <c r="AS52">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT52">
         <v>0.75</v>
@@ -11029,7 +11041,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11220,7 +11232,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11307,7 +11319,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT54">
         <v>2.5</v>
@@ -11498,7 +11510,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT55">
         <v>0.71</v>
@@ -11692,7 +11704,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU56">
         <v>1.11</v>
@@ -11883,7 +11895,7 @@
         <v>1.71</v>
       </c>
       <c r="AT57">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU57">
         <v>1.43</v>
@@ -11984,7 +11996,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12074,7 +12086,7 @@
         <v>0.83</v>
       </c>
       <c r="AT58">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU58">
         <v>1.74</v>
@@ -12366,7 +12378,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12453,7 +12465,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT60">
         <v>1.13</v>
@@ -12557,7 +12569,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12748,7 +12760,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13026,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT63">
         <v>0.17</v>
@@ -13130,7 +13142,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13217,10 +13229,10 @@
         <v>0.6</v>
       </c>
       <c r="AS64">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU64">
         <v>1.39</v>
@@ -13321,7 +13333,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13408,7 +13420,7 @@
         <v>2.5</v>
       </c>
       <c r="AS65">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT65">
         <v>2.5</v>
@@ -13512,7 +13524,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13602,7 +13614,7 @@
         <v>1.88</v>
       </c>
       <c r="AT66">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU66">
         <v>1.88</v>
@@ -13703,7 +13715,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13793,7 +13805,7 @@
         <v>1.71</v>
       </c>
       <c r="AT67">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU67">
         <v>1.56</v>
@@ -14085,7 +14097,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14467,7 +14479,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14745,7 +14757,7 @@
         <v>1.67</v>
       </c>
       <c r="AS72">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT72">
         <v>1.86</v>
@@ -14849,7 +14861,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15130,7 +15142,7 @@
         <v>1.88</v>
       </c>
       <c r="AT74">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU74">
         <v>1.75</v>
@@ -15231,7 +15243,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15422,7 +15434,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15509,7 +15521,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT76">
         <v>1.29</v>
@@ -15613,7 +15625,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15700,10 +15712,10 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT77">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU77">
         <v>1.45</v>
@@ -15804,7 +15816,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -16186,7 +16198,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16377,7 +16389,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16655,7 +16667,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT82">
         <v>0.2</v>
@@ -16759,7 +16771,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -17040,7 +17052,7 @@
         <v>2.17</v>
       </c>
       <c r="AT84">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU84">
         <v>1.93</v>
@@ -17332,7 +17344,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17419,7 +17431,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT86">
         <v>0.75</v>
@@ -17523,7 +17535,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17613,7 +17625,7 @@
         <v>1</v>
       </c>
       <c r="AT87">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU87">
         <v>1.53</v>
@@ -17905,7 +17917,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -17992,7 +18004,7 @@
         <v>1.83</v>
       </c>
       <c r="AS89">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT89">
         <v>1.88</v>
@@ -18096,7 +18108,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18183,10 +18195,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT90">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU90">
         <v>1.41</v>
@@ -18287,7 +18299,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18669,7 +18681,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18756,7 +18768,7 @@
         <v>1.33</v>
       </c>
       <c r="AS93">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT93">
         <v>1.13</v>
@@ -18860,7 +18872,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -18950,7 +18962,7 @@
         <v>2.17</v>
       </c>
       <c r="AT94">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU94">
         <v>1.8</v>
@@ -19141,7 +19153,7 @@
         <v>0.83</v>
       </c>
       <c r="AT95">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU95">
         <v>1.76</v>
@@ -19242,7 +19254,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19329,10 +19341,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT96">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU96">
         <v>1.2</v>
@@ -19433,7 +19445,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19902,7 +19914,7 @@
         <v>0.83</v>
       </c>
       <c r="AS99">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT99">
         <v>0.75</v>
@@ -20006,7 +20018,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20093,7 +20105,7 @@
         <v>0.17</v>
       </c>
       <c r="AS100">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT100">
         <v>0.25</v>
@@ -20287,7 +20299,7 @@
         <v>1.88</v>
       </c>
       <c r="AT101">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU101">
         <v>1.53</v>
@@ -20388,7 +20400,7 @@
         <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -20579,7 +20591,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20669,7 +20681,7 @@
         <v>1.11</v>
       </c>
       <c r="AT103">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU103">
         <v>1.27</v>
@@ -20770,7 +20782,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20961,7 +20973,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21152,7 +21164,7 @@
         <v>123</v>
       </c>
       <c r="P106" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21343,7 +21355,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21725,7 +21737,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -21916,7 +21928,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22107,7 +22119,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22489,7 +22501,7 @@
         <v>155</v>
       </c>
       <c r="P113" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22631,6 +22643,961 @@
       </c>
       <c r="BK113">
         <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>5845556</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45114.35763888889</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>70</v>
+      </c>
+      <c r="H114" t="s">
+        <v>80</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>156</v>
+      </c>
+      <c r="P114" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q114">
+        <v>14</v>
+      </c>
+      <c r="R114">
+        <v>3</v>
+      </c>
+      <c r="S114">
+        <v>17</v>
+      </c>
+      <c r="T114">
+        <v>2.25</v>
+      </c>
+      <c r="U114">
+        <v>2.2</v>
+      </c>
+      <c r="V114">
+        <v>6</v>
+      </c>
+      <c r="W114">
+        <v>1.44</v>
+      </c>
+      <c r="X114">
+        <v>2.63</v>
+      </c>
+      <c r="Y114">
+        <v>3.25</v>
+      </c>
+      <c r="Z114">
+        <v>1.33</v>
+      </c>
+      <c r="AA114">
+        <v>9</v>
+      </c>
+      <c r="AB114">
+        <v>1.07</v>
+      </c>
+      <c r="AC114">
+        <v>1.57</v>
+      </c>
+      <c r="AD114">
+        <v>3.4</v>
+      </c>
+      <c r="AE114">
+        <v>4.6</v>
+      </c>
+      <c r="AF114">
+        <v>1.04</v>
+      </c>
+      <c r="AG114">
+        <v>7.6</v>
+      </c>
+      <c r="AH114">
+        <v>1.4</v>
+      </c>
+      <c r="AI114">
+        <v>2.88</v>
+      </c>
+      <c r="AJ114">
+        <v>2.02</v>
+      </c>
+      <c r="AK114">
+        <v>1.75</v>
+      </c>
+      <c r="AL114">
+        <v>2.05</v>
+      </c>
+      <c r="AM114">
+        <v>1.7</v>
+      </c>
+      <c r="AN114">
+        <v>1.12</v>
+      </c>
+      <c r="AO114">
+        <v>1.2</v>
+      </c>
+      <c r="AP114">
+        <v>2.15</v>
+      </c>
+      <c r="AQ114">
+        <v>1.86</v>
+      </c>
+      <c r="AR114">
+        <v>0.29</v>
+      </c>
+      <c r="AS114">
+        <v>1.75</v>
+      </c>
+      <c r="AT114">
+        <v>0.38</v>
+      </c>
+      <c r="AU114">
+        <v>1.25</v>
+      </c>
+      <c r="AV114">
+        <v>1.09</v>
+      </c>
+      <c r="AW114">
+        <v>2.34</v>
+      </c>
+      <c r="AX114">
+        <v>1.53</v>
+      </c>
+      <c r="AY114">
+        <v>8</v>
+      </c>
+      <c r="AZ114">
+        <v>3</v>
+      </c>
+      <c r="BA114">
+        <v>1.37</v>
+      </c>
+      <c r="BB114">
+        <v>1.72</v>
+      </c>
+      <c r="BC114">
+        <v>2.2</v>
+      </c>
+      <c r="BD114">
+        <v>3</v>
+      </c>
+      <c r="BE114">
+        <v>4.1</v>
+      </c>
+      <c r="BF114">
+        <v>4</v>
+      </c>
+      <c r="BG114">
+        <v>3</v>
+      </c>
+      <c r="BH114">
+        <v>10</v>
+      </c>
+      <c r="BI114">
+        <v>3</v>
+      </c>
+      <c r="BJ114">
+        <v>14</v>
+      </c>
+      <c r="BK114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>5845555</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45114.35763888889</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>69</v>
+      </c>
+      <c r="H115" t="s">
+        <v>74</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>82</v>
+      </c>
+      <c r="P115" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q115">
+        <v>2</v>
+      </c>
+      <c r="R115">
+        <v>11</v>
+      </c>
+      <c r="S115">
+        <v>13</v>
+      </c>
+      <c r="T115">
+        <v>6</v>
+      </c>
+      <c r="U115">
+        <v>2.3</v>
+      </c>
+      <c r="V115">
+        <v>2.1</v>
+      </c>
+      <c r="W115">
+        <v>1.36</v>
+      </c>
+      <c r="X115">
+        <v>3</v>
+      </c>
+      <c r="Y115">
+        <v>2.75</v>
+      </c>
+      <c r="Z115">
+        <v>1.4</v>
+      </c>
+      <c r="AA115">
+        <v>7</v>
+      </c>
+      <c r="AB115">
+        <v>1.1</v>
+      </c>
+      <c r="AC115">
+        <v>5.12</v>
+      </c>
+      <c r="AD115">
+        <v>3.73</v>
+      </c>
+      <c r="AE115">
+        <v>1.6</v>
+      </c>
+      <c r="AF115">
+        <v>1.01</v>
+      </c>
+      <c r="AG115">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH115">
+        <v>1.28</v>
+      </c>
+      <c r="AI115">
+        <v>3.6</v>
+      </c>
+      <c r="AJ115">
+        <v>1.88</v>
+      </c>
+      <c r="AK115">
+        <v>1.84</v>
+      </c>
+      <c r="AL115">
+        <v>1.95</v>
+      </c>
+      <c r="AM115">
+        <v>1.8</v>
+      </c>
+      <c r="AN115">
+        <v>2.35</v>
+      </c>
+      <c r="AO115">
+        <v>1.18</v>
+      </c>
+      <c r="AP115">
+        <v>1.1</v>
+      </c>
+      <c r="AQ115">
+        <v>1.43</v>
+      </c>
+      <c r="AR115">
+        <v>1</v>
+      </c>
+      <c r="AS115">
+        <v>1.25</v>
+      </c>
+      <c r="AT115">
+        <v>1.22</v>
+      </c>
+      <c r="AU115">
+        <v>1.14</v>
+      </c>
+      <c r="AV115">
+        <v>1.78</v>
+      </c>
+      <c r="AW115">
+        <v>2.92</v>
+      </c>
+      <c r="AX115">
+        <v>3.6</v>
+      </c>
+      <c r="AY115">
+        <v>8.5</v>
+      </c>
+      <c r="AZ115">
+        <v>1.4</v>
+      </c>
+      <c r="BA115">
+        <v>1.46</v>
+      </c>
+      <c r="BB115">
+        <v>1.83</v>
+      </c>
+      <c r="BC115">
+        <v>2.33</v>
+      </c>
+      <c r="BD115">
+        <v>3.1</v>
+      </c>
+      <c r="BE115">
+        <v>4.5</v>
+      </c>
+      <c r="BF115">
+        <v>2</v>
+      </c>
+      <c r="BG115">
+        <v>9</v>
+      </c>
+      <c r="BH115">
+        <v>2</v>
+      </c>
+      <c r="BI115">
+        <v>6</v>
+      </c>
+      <c r="BJ115">
+        <v>4</v>
+      </c>
+      <c r="BK115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>5845557</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45114.35763888889</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>73</v>
+      </c>
+      <c r="H116" t="s">
+        <v>75</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>157</v>
+      </c>
+      <c r="P116" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q116">
+        <v>6</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>6</v>
+      </c>
+      <c r="T116">
+        <v>6</v>
+      </c>
+      <c r="U116">
+        <v>2.25</v>
+      </c>
+      <c r="V116">
+        <v>2.1</v>
+      </c>
+      <c r="W116">
+        <v>1.36</v>
+      </c>
+      <c r="X116">
+        <v>3</v>
+      </c>
+      <c r="Y116">
+        <v>2.75</v>
+      </c>
+      <c r="Z116">
+        <v>1.4</v>
+      </c>
+      <c r="AA116">
+        <v>8</v>
+      </c>
+      <c r="AB116">
+        <v>1.08</v>
+      </c>
+      <c r="AC116">
+        <v>4.2</v>
+      </c>
+      <c r="AD116">
+        <v>3.5</v>
+      </c>
+      <c r="AE116">
+        <v>1.59</v>
+      </c>
+      <c r="AF116">
+        <v>1.01</v>
+      </c>
+      <c r="AG116">
+        <v>9.5</v>
+      </c>
+      <c r="AH116">
+        <v>1.28</v>
+      </c>
+      <c r="AI116">
+        <v>3.5</v>
+      </c>
+      <c r="AJ116">
+        <v>1.88</v>
+      </c>
+      <c r="AK116">
+        <v>1.86</v>
+      </c>
+      <c r="AL116">
+        <v>2</v>
+      </c>
+      <c r="AM116">
+        <v>1.75</v>
+      </c>
+      <c r="AN116">
+        <v>2.45</v>
+      </c>
+      <c r="AO116">
+        <v>1.18</v>
+      </c>
+      <c r="AP116">
+        <v>1.08</v>
+      </c>
+      <c r="AQ116">
+        <v>0.67</v>
+      </c>
+      <c r="AR116">
+        <v>2</v>
+      </c>
+      <c r="AS116">
+        <v>1</v>
+      </c>
+      <c r="AT116">
+        <v>1.71</v>
+      </c>
+      <c r="AU116">
+        <v>1.22</v>
+      </c>
+      <c r="AV116">
+        <v>1.37</v>
+      </c>
+      <c r="AW116">
+        <v>2.59</v>
+      </c>
+      <c r="AX116">
+        <v>3.75</v>
+      </c>
+      <c r="AY116">
+        <v>9</v>
+      </c>
+      <c r="AZ116">
+        <v>1.36</v>
+      </c>
+      <c r="BA116">
+        <v>1.36</v>
+      </c>
+      <c r="BB116">
+        <v>1.63</v>
+      </c>
+      <c r="BC116">
+        <v>2.05</v>
+      </c>
+      <c r="BD116">
+        <v>2.7</v>
+      </c>
+      <c r="BE116">
+        <v>3.7</v>
+      </c>
+      <c r="BF116">
+        <v>5</v>
+      </c>
+      <c r="BG116">
+        <v>3</v>
+      </c>
+      <c r="BH116">
+        <v>2</v>
+      </c>
+      <c r="BI116">
+        <v>3</v>
+      </c>
+      <c r="BJ116">
+        <v>7</v>
+      </c>
+      <c r="BK116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>5845553</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45114.35763888889</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>78</v>
+      </c>
+      <c r="H117" t="s">
+        <v>79</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>158</v>
+      </c>
+      <c r="P117" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q117">
+        <v>6</v>
+      </c>
+      <c r="R117">
+        <v>3</v>
+      </c>
+      <c r="S117">
+        <v>9</v>
+      </c>
+      <c r="T117">
+        <v>3.1</v>
+      </c>
+      <c r="U117">
+        <v>2.2</v>
+      </c>
+      <c r="V117">
+        <v>3.4</v>
+      </c>
+      <c r="W117">
+        <v>1.4</v>
+      </c>
+      <c r="X117">
+        <v>2.75</v>
+      </c>
+      <c r="Y117">
+        <v>2.75</v>
+      </c>
+      <c r="Z117">
+        <v>1.4</v>
+      </c>
+      <c r="AA117">
+        <v>8</v>
+      </c>
+      <c r="AB117">
+        <v>1.08</v>
+      </c>
+      <c r="AC117">
+        <v>2.24</v>
+      </c>
+      <c r="AD117">
+        <v>3.36</v>
+      </c>
+      <c r="AE117">
+        <v>3.2</v>
+      </c>
+      <c r="AF117">
+        <v>1.02</v>
+      </c>
+      <c r="AG117">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH117">
+        <v>1.3</v>
+      </c>
+      <c r="AI117">
+        <v>3.39</v>
+      </c>
+      <c r="AJ117">
+        <v>1.89</v>
+      </c>
+      <c r="AK117">
+        <v>1.91</v>
+      </c>
+      <c r="AL117">
+        <v>1.7</v>
+      </c>
+      <c r="AM117">
+        <v>2.05</v>
+      </c>
+      <c r="AN117">
+        <v>1.4</v>
+      </c>
+      <c r="AO117">
+        <v>1.35</v>
+      </c>
+      <c r="AP117">
+        <v>1.55</v>
+      </c>
+      <c r="AQ117">
+        <v>1.17</v>
+      </c>
+      <c r="AR117">
+        <v>1.33</v>
+      </c>
+      <c r="AS117">
+        <v>1.14</v>
+      </c>
+      <c r="AT117">
+        <v>1.29</v>
+      </c>
+      <c r="AU117">
+        <v>1.51</v>
+      </c>
+      <c r="AV117">
+        <v>1.15</v>
+      </c>
+      <c r="AW117">
+        <v>2.66</v>
+      </c>
+      <c r="AX117">
+        <v>1.95</v>
+      </c>
+      <c r="AY117">
+        <v>7.5</v>
+      </c>
+      <c r="AZ117">
+        <v>2.1</v>
+      </c>
+      <c r="BA117">
+        <v>1.32</v>
+      </c>
+      <c r="BB117">
+        <v>1.65</v>
+      </c>
+      <c r="BC117">
+        <v>2.1</v>
+      </c>
+      <c r="BD117">
+        <v>2.8</v>
+      </c>
+      <c r="BE117">
+        <v>4</v>
+      </c>
+      <c r="BF117">
+        <v>5</v>
+      </c>
+      <c r="BG117">
+        <v>8</v>
+      </c>
+      <c r="BH117">
+        <v>5</v>
+      </c>
+      <c r="BI117">
+        <v>2</v>
+      </c>
+      <c r="BJ117">
+        <v>10</v>
+      </c>
+      <c r="BK117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>5845554</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45114.35763888889</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>67</v>
+      </c>
+      <c r="H118" t="s">
+        <v>71</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>82</v>
+      </c>
+      <c r="P118" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q118">
+        <v>3</v>
+      </c>
+      <c r="R118">
+        <v>4</v>
+      </c>
+      <c r="S118">
+        <v>7</v>
+      </c>
+      <c r="T118">
+        <v>3.2</v>
+      </c>
+      <c r="U118">
+        <v>2.05</v>
+      </c>
+      <c r="V118">
+        <v>3.5</v>
+      </c>
+      <c r="W118">
+        <v>1.44</v>
+      </c>
+      <c r="X118">
+        <v>2.63</v>
+      </c>
+      <c r="Y118">
+        <v>3.25</v>
+      </c>
+      <c r="Z118">
+        <v>1.33</v>
+      </c>
+      <c r="AA118">
+        <v>9</v>
+      </c>
+      <c r="AB118">
+        <v>1.07</v>
+      </c>
+      <c r="AC118">
+        <v>2.08</v>
+      </c>
+      <c r="AD118">
+        <v>3.2</v>
+      </c>
+      <c r="AE118">
+        <v>2.8</v>
+      </c>
+      <c r="AF118">
+        <v>1.03</v>
+      </c>
+      <c r="AG118">
+        <v>8</v>
+      </c>
+      <c r="AH118">
+        <v>1.35</v>
+      </c>
+      <c r="AI118">
+        <v>3.1</v>
+      </c>
+      <c r="AJ118">
+        <v>2.08</v>
+      </c>
+      <c r="AK118">
+        <v>1.7</v>
+      </c>
+      <c r="AL118">
+        <v>1.8</v>
+      </c>
+      <c r="AM118">
+        <v>1.95</v>
+      </c>
+      <c r="AN118">
+        <v>1.32</v>
+      </c>
+      <c r="AO118">
+        <v>1.35</v>
+      </c>
+      <c r="AP118">
+        <v>1.63</v>
+      </c>
+      <c r="AQ118">
+        <v>1.5</v>
+      </c>
+      <c r="AR118">
+        <v>2.17</v>
+      </c>
+      <c r="AS118">
+        <v>1.29</v>
+      </c>
+      <c r="AT118">
+        <v>2.29</v>
+      </c>
+      <c r="AU118">
+        <v>1.4</v>
+      </c>
+      <c r="AV118">
+        <v>1.38</v>
+      </c>
+      <c r="AW118">
+        <v>2.78</v>
+      </c>
+      <c r="AX118">
+        <v>1.83</v>
+      </c>
+      <c r="AY118">
+        <v>7.5</v>
+      </c>
+      <c r="AZ118">
+        <v>2.3</v>
+      </c>
+      <c r="BA118">
+        <v>1.35</v>
+      </c>
+      <c r="BB118">
+        <v>1.63</v>
+      </c>
+      <c r="BC118">
+        <v>2.1</v>
+      </c>
+      <c r="BD118">
+        <v>2.8</v>
+      </c>
+      <c r="BE118">
+        <v>4</v>
+      </c>
+      <c r="BF118">
+        <v>4</v>
+      </c>
+      <c r="BG118">
+        <v>4</v>
+      </c>
+      <c r="BH118">
+        <v>7</v>
+      </c>
+      <c r="BI118">
+        <v>11</v>
+      </c>
+      <c r="BJ118">
+        <v>11</v>
+      </c>
+      <c r="BK118">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,10 +487,28 @@
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['45+5', '49', '87']</t>
+    <t>['45+5', '48', '87']</t>
   </si>
   <si>
     <t>['61']</t>
+  </si>
+  <si>
+    <t>['68', '85']</t>
+  </si>
+  <si>
+    <t>['45+5']</t>
+  </si>
+  <si>
+    <t>['5', '45+3', '61', '84', '85']</t>
+  </si>
+  <si>
+    <t>['20', '28', '34']</t>
+  </si>
+  <si>
+    <t>['51', '68']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
   <si>
     <t>['64', '79']</t>
@@ -695,6 +713,9 @@
   </si>
   <si>
     <t>['13']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK118"/>
+  <dimension ref="A1:BK124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1491,7 +1512,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1578,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT3">
         <v>2.5</v>
@@ -1682,7 +1703,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1772,7 +1793,7 @@
         <v>1.29</v>
       </c>
       <c r="AT4">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1873,7 +1894,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1960,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT5">
         <v>0.75</v>
@@ -2064,7 +2085,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2255,7 +2276,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2637,7 +2658,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2828,7 +2849,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2915,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT10">
         <v>1.29</v>
@@ -3210,7 +3231,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3300,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="AT12">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3488,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT13">
         <v>0.38</v>
@@ -3870,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT15">
         <v>1.29</v>
@@ -3974,7 +3995,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4061,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT16">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4165,7 +4186,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4255,7 +4276,7 @@
         <v>1.86</v>
       </c>
       <c r="AT17">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4443,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT18">
         <v>1.13</v>
@@ -4547,7 +4568,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4738,7 +4759,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4929,7 +4950,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5210,7 +5231,7 @@
         <v>1.88</v>
       </c>
       <c r="AT22">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU22">
         <v>0.9</v>
@@ -5502,7 +5523,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>9</v>
@@ -5592,7 +5613,7 @@
         <v>1.11</v>
       </c>
       <c r="AT24">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU24">
         <v>0.62</v>
@@ -5783,7 +5804,7 @@
         <v>1.14</v>
       </c>
       <c r="AT25">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5971,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT26">
         <v>1.22</v>
@@ -6075,7 +6096,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6266,7 +6287,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6457,7 +6478,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6547,7 +6568,7 @@
         <v>1.86</v>
       </c>
       <c r="AT29">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU29">
         <v>1.36</v>
@@ -6648,7 +6669,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -6738,7 +6759,7 @@
         <v>1.11</v>
       </c>
       <c r="AT30">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU30">
         <v>0.9399999999999999</v>
@@ -7030,7 +7051,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7117,10 +7138,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT32">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU32">
         <v>1.62</v>
@@ -7221,7 +7242,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7693,7 +7714,7 @@
         <v>1.88</v>
       </c>
       <c r="AT35">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU35">
         <v>0.96</v>
@@ -8072,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT37">
         <v>1.13</v>
@@ -8176,7 +8197,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8367,7 +8388,7 @@
         <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8454,7 +8475,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT39">
         <v>0.25</v>
@@ -8839,7 +8860,7 @@
         <v>1.14</v>
       </c>
       <c r="AT41">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU41">
         <v>1.68</v>
@@ -9131,7 +9152,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9322,7 +9343,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9412,7 +9433,7 @@
         <v>1.11</v>
       </c>
       <c r="AT44">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU44">
         <v>1.06</v>
@@ -9600,10 +9621,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT45">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU45">
         <v>1.29</v>
@@ -9704,7 +9725,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9982,7 +10003,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT47">
         <v>0.25</v>
@@ -10086,7 +10107,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10173,7 +10194,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT48">
         <v>1.22</v>
@@ -10277,7 +10298,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10468,7 +10489,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10659,7 +10680,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10749,7 +10770,7 @@
         <v>1.11</v>
       </c>
       <c r="AT51">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU51">
         <v>1.09</v>
@@ -11041,7 +11062,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>8</v>
@@ -11128,10 +11149,10 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT53">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU53">
         <v>1.79</v>
@@ -11232,7 +11253,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11513,7 +11534,7 @@
         <v>1.75</v>
       </c>
       <c r="AT55">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11892,7 +11913,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT57">
         <v>0.38</v>
@@ -11996,7 +12017,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12083,7 +12104,7 @@
         <v>1.67</v>
       </c>
       <c r="AS58">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT58">
         <v>1.71</v>
@@ -12277,7 +12298,7 @@
         <v>1.14</v>
       </c>
       <c r="AT59">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU59">
         <v>1.91</v>
@@ -12378,7 +12399,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12569,7 +12590,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -12659,7 +12680,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU61">
         <v>1.29</v>
@@ -12760,7 +12781,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13041,7 +13062,7 @@
         <v>1.25</v>
       </c>
       <c r="AT63">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU63">
         <v>1.07</v>
@@ -13142,7 +13163,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13333,7 +13354,7 @@
         <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13524,7 +13545,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13611,10 +13632,10 @@
         <v>2.33</v>
       </c>
       <c r="AS66">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT66">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU66">
         <v>1.88</v>
@@ -13715,7 +13736,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13802,7 +13823,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT67">
         <v>1.29</v>
@@ -14097,7 +14118,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14375,10 +14396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT70">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU70">
         <v>2.23</v>
@@ -14479,7 +14500,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14566,10 +14587,10 @@
         <v>0.33</v>
       </c>
       <c r="AS71">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT71">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -14760,7 +14781,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU72">
         <v>1.13</v>
@@ -14861,7 +14882,7 @@
         <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15139,7 +15160,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>0.38</v>
@@ -15243,7 +15264,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15434,7 +15455,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15625,7 +15646,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15816,7 +15837,7 @@
         <v>103</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -15906,7 +15927,7 @@
         <v>1.88</v>
       </c>
       <c r="AT78">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU78">
         <v>1.38</v>
@@ -16097,7 +16118,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU79">
         <v>1.38</v>
@@ -16198,7 +16219,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16389,7 +16410,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16670,7 +16691,7 @@
         <v>1.29</v>
       </c>
       <c r="AT82">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU82">
         <v>1.28</v>
@@ -16771,7 +16792,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -16858,10 +16879,10 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT83">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU83">
         <v>1.68</v>
@@ -17049,7 +17070,7 @@
         <v>1.5</v>
       </c>
       <c r="AS84">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT84">
         <v>1.71</v>
@@ -17240,10 +17261,10 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT85">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU85">
         <v>2.24</v>
@@ -17344,7 +17365,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17535,7 +17556,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17625,7 +17646,7 @@
         <v>1</v>
       </c>
       <c r="AT87">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU87">
         <v>1.53</v>
@@ -17917,7 +17938,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18108,7 +18129,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18198,7 +18219,7 @@
         <v>1.14</v>
       </c>
       <c r="AT90">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU90">
         <v>1.41</v>
@@ -18299,7 +18320,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18389,7 +18410,7 @@
         <v>1.86</v>
       </c>
       <c r="AT91">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU91">
         <v>1.5</v>
@@ -18577,10 +18598,10 @@
         <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT92">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU92">
         <v>1.73</v>
@@ -18681,7 +18702,7 @@
         <v>142</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18872,7 +18893,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -18959,7 +18980,7 @@
         <v>0.4</v>
       </c>
       <c r="AS94">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT94">
         <v>0.38</v>
@@ -19150,7 +19171,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT95">
         <v>1.22</v>
@@ -19254,7 +19275,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19445,7 +19466,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19723,10 +19744,10 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT98">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU98">
         <v>1.68</v>
@@ -20018,7 +20039,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20400,7 +20421,7 @@
         <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -20490,7 +20511,7 @@
         <v>1</v>
       </c>
       <c r="AT102">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU102">
         <v>1.35</v>
@@ -20591,7 +20612,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20782,7 +20803,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20869,10 +20890,10 @@
         <v>1.67</v>
       </c>
       <c r="AS104">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT104">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU104">
         <v>2.05</v>
@@ -20973,7 +20994,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21060,7 +21081,7 @@
         <v>2.67</v>
       </c>
       <c r="AS105">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT105">
         <v>2.5</v>
@@ -21164,7 +21185,7 @@
         <v>123</v>
       </c>
       <c r="P106" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21254,7 +21275,7 @@
         <v>1.88</v>
       </c>
       <c r="AT106">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU106">
         <v>1.52</v>
@@ -21355,7 +21376,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21737,7 +21758,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>17</v>
@@ -21928,7 +21949,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22119,7 +22140,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22206,7 +22227,7 @@
         <v>2.71</v>
       </c>
       <c r="AS111">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT111">
         <v>2.5</v>
@@ -22397,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT112">
         <v>1.29</v>
@@ -22501,7 +22522,7 @@
         <v>155</v>
       </c>
       <c r="P113" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22591,7 +22612,7 @@
         <v>1.86</v>
       </c>
       <c r="AT113">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU113">
         <v>1.68</v>
@@ -22692,7 +22713,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q114">
         <v>14</v>
@@ -23456,7 +23477,7 @@
         <v>82</v>
       </c>
       <c r="P118" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23546,7 +23567,7 @@
         <v>1.29</v>
       </c>
       <c r="AT118">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU118">
         <v>1.4</v>
@@ -23598,6 +23619,1152 @@
       </c>
       <c r="BK118">
         <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5845559</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45115.35763888889</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>66</v>
+      </c>
+      <c r="H119" t="s">
+        <v>77</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>159</v>
+      </c>
+      <c r="P119" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q119">
+        <v>6</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119">
+        <v>7</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
+        <v>2.4</v>
+      </c>
+      <c r="V119">
+        <v>6</v>
+      </c>
+      <c r="W119">
+        <v>1.3</v>
+      </c>
+      <c r="X119">
+        <v>3.4</v>
+      </c>
+      <c r="Y119">
+        <v>2.5</v>
+      </c>
+      <c r="Z119">
+        <v>1.5</v>
+      </c>
+      <c r="AA119">
+        <v>6</v>
+      </c>
+      <c r="AB119">
+        <v>1.13</v>
+      </c>
+      <c r="AC119">
+        <v>1.44</v>
+      </c>
+      <c r="AD119">
+        <v>3.9</v>
+      </c>
+      <c r="AE119">
+        <v>5.75</v>
+      </c>
+      <c r="AF119">
+        <v>1.03</v>
+      </c>
+      <c r="AG119">
+        <v>11</v>
+      </c>
+      <c r="AH119">
+        <v>1.2</v>
+      </c>
+      <c r="AI119">
+        <v>4.39</v>
+      </c>
+      <c r="AJ119">
+        <v>1.61</v>
+      </c>
+      <c r="AK119">
+        <v>2.15</v>
+      </c>
+      <c r="AL119">
+        <v>1.8</v>
+      </c>
+      <c r="AM119">
+        <v>1.95</v>
+      </c>
+      <c r="AN119">
+        <v>1.08</v>
+      </c>
+      <c r="AO119">
+        <v>1.15</v>
+      </c>
+      <c r="AP119">
+        <v>2.6</v>
+      </c>
+      <c r="AQ119">
+        <v>0.83</v>
+      </c>
+      <c r="AR119">
+        <v>1.43</v>
+      </c>
+      <c r="AS119">
+        <v>1.14</v>
+      </c>
+      <c r="AT119">
+        <v>1.25</v>
+      </c>
+      <c r="AU119">
+        <v>1.67</v>
+      </c>
+      <c r="AV119">
+        <v>1.43</v>
+      </c>
+      <c r="AW119">
+        <v>3.1</v>
+      </c>
+      <c r="AX119">
+        <v>1.36</v>
+      </c>
+      <c r="AY119">
+        <v>9</v>
+      </c>
+      <c r="AZ119">
+        <v>3.6</v>
+      </c>
+      <c r="BA119">
+        <v>1.32</v>
+      </c>
+      <c r="BB119">
+        <v>1.57</v>
+      </c>
+      <c r="BC119">
+        <v>2</v>
+      </c>
+      <c r="BD119">
+        <v>2.5</v>
+      </c>
+      <c r="BE119">
+        <v>3.4</v>
+      </c>
+      <c r="BF119">
+        <v>10</v>
+      </c>
+      <c r="BG119">
+        <v>2</v>
+      </c>
+      <c r="BH119">
+        <v>6</v>
+      </c>
+      <c r="BI119">
+        <v>3</v>
+      </c>
+      <c r="BJ119">
+        <v>16</v>
+      </c>
+      <c r="BK119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5845560</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45115.35763888889</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" t="s">
+        <v>65</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>160</v>
+      </c>
+      <c r="P120" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q120">
+        <v>7</v>
+      </c>
+      <c r="R120">
+        <v>3</v>
+      </c>
+      <c r="S120">
+        <v>10</v>
+      </c>
+      <c r="T120">
+        <v>1.67</v>
+      </c>
+      <c r="U120">
+        <v>2.75</v>
+      </c>
+      <c r="V120">
+        <v>9.5</v>
+      </c>
+      <c r="W120">
+        <v>1.29</v>
+      </c>
+      <c r="X120">
+        <v>3.5</v>
+      </c>
+      <c r="Y120">
+        <v>2.25</v>
+      </c>
+      <c r="Z120">
+        <v>1.57</v>
+      </c>
+      <c r="AA120">
+        <v>5.5</v>
+      </c>
+      <c r="AB120">
+        <v>1.14</v>
+      </c>
+      <c r="AC120">
+        <v>1.18</v>
+      </c>
+      <c r="AD120">
+        <v>5.5</v>
+      </c>
+      <c r="AE120">
+        <v>15</v>
+      </c>
+      <c r="AF120">
+        <v>1.03</v>
+      </c>
+      <c r="AG120">
+        <v>11</v>
+      </c>
+      <c r="AH120">
+        <v>1.18</v>
+      </c>
+      <c r="AI120">
+        <v>4.5</v>
+      </c>
+      <c r="AJ120">
+        <v>1.6</v>
+      </c>
+      <c r="AK120">
+        <v>2.2</v>
+      </c>
+      <c r="AL120">
+        <v>2.1</v>
+      </c>
+      <c r="AM120">
+        <v>1.67</v>
+      </c>
+      <c r="AN120">
+        <v>1.04</v>
+      </c>
+      <c r="AO120">
+        <v>1.06</v>
+      </c>
+      <c r="AP120">
+        <v>4.5</v>
+      </c>
+      <c r="AQ120">
+        <v>2.17</v>
+      </c>
+      <c r="AR120">
+        <v>0.17</v>
+      </c>
+      <c r="AS120">
+        <v>2</v>
+      </c>
+      <c r="AT120">
+        <v>0.29</v>
+      </c>
+      <c r="AU120">
+        <v>1.78</v>
+      </c>
+      <c r="AV120">
+        <v>1.32</v>
+      </c>
+      <c r="AW120">
+        <v>3.1</v>
+      </c>
+      <c r="AX120">
+        <v>1.22</v>
+      </c>
+      <c r="AY120">
+        <v>10</v>
+      </c>
+      <c r="AZ120">
+        <v>5</v>
+      </c>
+      <c r="BA120">
+        <v>1.36</v>
+      </c>
+      <c r="BB120">
+        <v>1.63</v>
+      </c>
+      <c r="BC120">
+        <v>2.05</v>
+      </c>
+      <c r="BD120">
+        <v>2.7</v>
+      </c>
+      <c r="BE120">
+        <v>3.7</v>
+      </c>
+      <c r="BF120">
+        <v>4</v>
+      </c>
+      <c r="BG120">
+        <v>2</v>
+      </c>
+      <c r="BH120">
+        <v>9</v>
+      </c>
+      <c r="BI120">
+        <v>2</v>
+      </c>
+      <c r="BJ120">
+        <v>13</v>
+      </c>
+      <c r="BK120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5845558</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45115.35763888889</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121" t="s">
+        <v>72</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>5</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>5</v>
+      </c>
+      <c r="O121" t="s">
+        <v>161</v>
+      </c>
+      <c r="P121" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q121">
+        <v>12</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>12</v>
+      </c>
+      <c r="T121">
+        <v>1.4</v>
+      </c>
+      <c r="U121">
+        <v>3.1</v>
+      </c>
+      <c r="V121">
+        <v>19</v>
+      </c>
+      <c r="W121">
+        <v>1.25</v>
+      </c>
+      <c r="X121">
+        <v>3.75</v>
+      </c>
+      <c r="Y121">
+        <v>2.2</v>
+      </c>
+      <c r="Z121">
+        <v>1.62</v>
+      </c>
+      <c r="AA121">
+        <v>5</v>
+      </c>
+      <c r="AB121">
+        <v>1.17</v>
+      </c>
+      <c r="AC121">
+        <v>1.08</v>
+      </c>
+      <c r="AD121">
+        <v>9</v>
+      </c>
+      <c r="AE121">
+        <v>41</v>
+      </c>
+      <c r="AF121">
+        <v>1.02</v>
+      </c>
+      <c r="AG121">
+        <v>13</v>
+      </c>
+      <c r="AH121">
+        <v>1.13</v>
+      </c>
+      <c r="AI121">
+        <v>5.63</v>
+      </c>
+      <c r="AJ121">
+        <v>1.47</v>
+      </c>
+      <c r="AK121">
+        <v>2.38</v>
+      </c>
+      <c r="AL121">
+        <v>3.25</v>
+      </c>
+      <c r="AM121">
+        <v>1.33</v>
+      </c>
+      <c r="AN121">
+        <v>1.01</v>
+      </c>
+      <c r="AO121">
+        <v>1.01</v>
+      </c>
+      <c r="AP121">
+        <v>5.5</v>
+      </c>
+      <c r="AQ121">
+        <v>1.71</v>
+      </c>
+      <c r="AR121">
+        <v>0.2</v>
+      </c>
+      <c r="AS121">
+        <v>1.88</v>
+      </c>
+      <c r="AT121">
+        <v>0.17</v>
+      </c>
+      <c r="AU121">
+        <v>1.65</v>
+      </c>
+      <c r="AV121">
+        <v>0.89</v>
+      </c>
+      <c r="AW121">
+        <v>2.54</v>
+      </c>
+      <c r="AX121">
+        <v>1.09</v>
+      </c>
+      <c r="AY121">
+        <v>13</v>
+      </c>
+      <c r="AZ121">
+        <v>8</v>
+      </c>
+      <c r="BA121">
+        <v>1.4</v>
+      </c>
+      <c r="BB121">
+        <v>1.69</v>
+      </c>
+      <c r="BC121">
+        <v>2.16</v>
+      </c>
+      <c r="BD121">
+        <v>2.85</v>
+      </c>
+      <c r="BE121">
+        <v>4</v>
+      </c>
+      <c r="BF121">
+        <v>9</v>
+      </c>
+      <c r="BG121">
+        <v>0</v>
+      </c>
+      <c r="BH121">
+        <v>13</v>
+      </c>
+      <c r="BI121">
+        <v>2</v>
+      </c>
+      <c r="BJ121">
+        <v>22</v>
+      </c>
+      <c r="BK121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5845561</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45118.35763888889</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>74</v>
+      </c>
+      <c r="H122" t="s">
+        <v>71</v>
+      </c>
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>162</v>
+      </c>
+      <c r="P122" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q122">
+        <v>3</v>
+      </c>
+      <c r="R122">
+        <v>1</v>
+      </c>
+      <c r="S122">
+        <v>4</v>
+      </c>
+      <c r="T122">
+        <v>2</v>
+      </c>
+      <c r="U122">
+        <v>2.3</v>
+      </c>
+      <c r="V122">
+        <v>5.75</v>
+      </c>
+      <c r="W122">
+        <v>1.35</v>
+      </c>
+      <c r="X122">
+        <v>3.05</v>
+      </c>
+      <c r="Y122">
+        <v>2.55</v>
+      </c>
+      <c r="Z122">
+        <v>1.45</v>
+      </c>
+      <c r="AA122">
+        <v>6.5</v>
+      </c>
+      <c r="AB122">
+        <v>1.1</v>
+      </c>
+      <c r="AC122">
+        <v>1.67</v>
+      </c>
+      <c r="AD122">
+        <v>3.6</v>
+      </c>
+      <c r="AE122">
+        <v>5</v>
+      </c>
+      <c r="AF122">
+        <v>1.05</v>
+      </c>
+      <c r="AG122">
+        <v>13</v>
+      </c>
+      <c r="AH122">
+        <v>1.32</v>
+      </c>
+      <c r="AI122">
+        <v>3.32</v>
+      </c>
+      <c r="AJ122">
+        <v>1.91</v>
+      </c>
+      <c r="AK122">
+        <v>1.8</v>
+      </c>
+      <c r="AL122">
+        <v>1.85</v>
+      </c>
+      <c r="AM122">
+        <v>1.85</v>
+      </c>
+      <c r="AN122">
+        <v>1.14</v>
+      </c>
+      <c r="AO122">
+        <v>1.25</v>
+      </c>
+      <c r="AP122">
+        <v>2.4</v>
+      </c>
+      <c r="AQ122">
+        <v>2.33</v>
+      </c>
+      <c r="AR122">
+        <v>2.29</v>
+      </c>
+      <c r="AS122">
+        <v>2.43</v>
+      </c>
+      <c r="AT122">
+        <v>2</v>
+      </c>
+      <c r="AU122">
+        <v>1.8</v>
+      </c>
+      <c r="AV122">
+        <v>1.38</v>
+      </c>
+      <c r="AW122">
+        <v>3.18</v>
+      </c>
+      <c r="AX122">
+        <v>1.21</v>
+      </c>
+      <c r="AY122">
+        <v>7</v>
+      </c>
+      <c r="AZ122">
+        <v>5.25</v>
+      </c>
+      <c r="BA122">
+        <v>1.34</v>
+      </c>
+      <c r="BB122">
+        <v>1.69</v>
+      </c>
+      <c r="BC122">
+        <v>2.09</v>
+      </c>
+      <c r="BD122">
+        <v>2.76</v>
+      </c>
+      <c r="BE122">
+        <v>3.74</v>
+      </c>
+      <c r="BF122">
+        <v>4</v>
+      </c>
+      <c r="BG122">
+        <v>3</v>
+      </c>
+      <c r="BH122">
+        <v>5</v>
+      </c>
+      <c r="BI122">
+        <v>2</v>
+      </c>
+      <c r="BJ122">
+        <v>9</v>
+      </c>
+      <c r="BK122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5845562</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45118.35763888889</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>75</v>
+      </c>
+      <c r="H123" t="s">
+        <v>69</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>163</v>
+      </c>
+      <c r="P123" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q123">
+        <v>4</v>
+      </c>
+      <c r="R123">
+        <v>4</v>
+      </c>
+      <c r="S123">
+        <v>8</v>
+      </c>
+      <c r="T123">
+        <v>1.95</v>
+      </c>
+      <c r="U123">
+        <v>2.2</v>
+      </c>
+      <c r="V123">
+        <v>5.5</v>
+      </c>
+      <c r="W123">
+        <v>1.35</v>
+      </c>
+      <c r="X123">
+        <v>2.8</v>
+      </c>
+      <c r="Y123">
+        <v>2.8</v>
+      </c>
+      <c r="Z123">
+        <v>1.36</v>
+      </c>
+      <c r="AA123">
+        <v>7.5</v>
+      </c>
+      <c r="AB123">
+        <v>1.07</v>
+      </c>
+      <c r="AC123">
+        <v>1.38</v>
+      </c>
+      <c r="AD123">
+        <v>4.17</v>
+      </c>
+      <c r="AE123">
+        <v>6.97</v>
+      </c>
+      <c r="AF123">
+        <v>1.05</v>
+      </c>
+      <c r="AG123">
+        <v>12.25</v>
+      </c>
+      <c r="AH123">
+        <v>1.3</v>
+      </c>
+      <c r="AI123">
+        <v>3.58</v>
+      </c>
+      <c r="AJ123">
+        <v>1.83</v>
+      </c>
+      <c r="AK123">
+        <v>1.84</v>
+      </c>
+      <c r="AL123">
+        <v>2.15</v>
+      </c>
+      <c r="AM123">
+        <v>1.68</v>
+      </c>
+      <c r="AN123">
+        <v>1.12</v>
+      </c>
+      <c r="AO123">
+        <v>1.2</v>
+      </c>
+      <c r="AP123">
+        <v>2.8</v>
+      </c>
+      <c r="AQ123">
+        <v>1.88</v>
+      </c>
+      <c r="AR123">
+        <v>0.71</v>
+      </c>
+      <c r="AS123">
+        <v>2</v>
+      </c>
+      <c r="AT123">
+        <v>0.63</v>
+      </c>
+      <c r="AU123">
+        <v>1.85</v>
+      </c>
+      <c r="AV123">
+        <v>1.21</v>
+      </c>
+      <c r="AW123">
+        <v>3.06</v>
+      </c>
+      <c r="AX123">
+        <v>1.17</v>
+      </c>
+      <c r="AY123">
+        <v>8</v>
+      </c>
+      <c r="AZ123">
+        <v>6</v>
+      </c>
+      <c r="BA123">
+        <v>1.31</v>
+      </c>
+      <c r="BB123">
+        <v>1.63</v>
+      </c>
+      <c r="BC123">
+        <v>2.01</v>
+      </c>
+      <c r="BD123">
+        <v>2.5</v>
+      </c>
+      <c r="BE123">
+        <v>3.56</v>
+      </c>
+      <c r="BF123">
+        <v>5</v>
+      </c>
+      <c r="BG123">
+        <v>0</v>
+      </c>
+      <c r="BH123">
+        <v>8</v>
+      </c>
+      <c r="BI123">
+        <v>5</v>
+      </c>
+      <c r="BJ123">
+        <v>13</v>
+      </c>
+      <c r="BK123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5845563</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45118.35763888889</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>79</v>
+      </c>
+      <c r="H124" t="s">
+        <v>70</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>164</v>
+      </c>
+      <c r="P124" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q124">
+        <v>9</v>
+      </c>
+      <c r="R124">
+        <v>6</v>
+      </c>
+      <c r="S124">
+        <v>15</v>
+      </c>
+      <c r="T124">
+        <v>4.01</v>
+      </c>
+      <c r="U124">
+        <v>2.1</v>
+      </c>
+      <c r="V124">
+        <v>2.98</v>
+      </c>
+      <c r="W124">
+        <v>1.46</v>
+      </c>
+      <c r="X124">
+        <v>2.68</v>
+      </c>
+      <c r="Y124">
+        <v>3.33</v>
+      </c>
+      <c r="Z124">
+        <v>1.32</v>
+      </c>
+      <c r="AA124">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB124">
+        <v>1.04</v>
+      </c>
+      <c r="AC124">
+        <v>3</v>
+      </c>
+      <c r="AD124">
+        <v>3</v>
+      </c>
+      <c r="AE124">
+        <v>2.1</v>
+      </c>
+      <c r="AF124">
+        <v>1.08</v>
+      </c>
+      <c r="AG124">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AH124">
+        <v>1.38</v>
+      </c>
+      <c r="AI124">
+        <v>2.9</v>
+      </c>
+      <c r="AJ124">
+        <v>1.95</v>
+      </c>
+      <c r="AK124">
+        <v>1.73</v>
+      </c>
+      <c r="AL124">
+        <v>1.9</v>
+      </c>
+      <c r="AM124">
+        <v>1.83</v>
+      </c>
+      <c r="AN124">
+        <v>1.7</v>
+      </c>
+      <c r="AO124">
+        <v>1.28</v>
+      </c>
+      <c r="AP124">
+        <v>1.28</v>
+      </c>
+      <c r="AQ124">
+        <v>1</v>
+      </c>
+      <c r="AR124">
+        <v>1.86</v>
+      </c>
+      <c r="AS124">
+        <v>1</v>
+      </c>
+      <c r="AT124">
+        <v>1.75</v>
+      </c>
+      <c r="AU124">
+        <v>1.44</v>
+      </c>
+      <c r="AV124">
+        <v>1.13</v>
+      </c>
+      <c r="AW124">
+        <v>2.57</v>
+      </c>
+      <c r="AX124">
+        <v>2.15</v>
+      </c>
+      <c r="AY124">
+        <v>5.5</v>
+      </c>
+      <c r="AZ124">
+        <v>1.83</v>
+      </c>
+      <c r="BA124">
+        <v>1.27</v>
+      </c>
+      <c r="BB124">
+        <v>1.6</v>
+      </c>
+      <c r="BC124">
+        <v>1.96</v>
+      </c>
+      <c r="BD124">
+        <v>2.43</v>
+      </c>
+      <c r="BE124">
+        <v>3.34</v>
+      </c>
+      <c r="BF124">
+        <v>5</v>
+      </c>
+      <c r="BG124">
+        <v>4</v>
+      </c>
+      <c r="BH124">
+        <v>6</v>
+      </c>
+      <c r="BI124">
+        <v>4</v>
+      </c>
+      <c r="BJ124">
+        <v>11</v>
+      </c>
+      <c r="BK124">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
